--- a/Data/HypotheticalIchthyograph.xlsx
+++ b/Data/HypotheticalIchthyograph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/Artificial Light/LightTempFlow/R Figures/FTL/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942BD4DF-9901-6A41-A0D9-EEFDE61F33F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395E80A0-0AA8-C54B-A7C7-79C6C3A68A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{FA3264ED-8FAD-984D-BACA-BC2FFFCB3576}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="MoonphaseSeattle2019" sheetId="2" r:id="rId2"/>
     <sheet name="Metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="411">
   <si>
     <t>Discharge</t>
   </si>
@@ -2839,6 +2839,9 @@
   </si>
   <si>
     <t>Flow and temperature came from USGS gauge on Cedar River in Renton</t>
+  </si>
+  <si>
+    <t>LifePhase</t>
   </si>
 </sst>
 </file>
@@ -2927,88 +2930,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6965,19 +6887,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5178D8B1-A97D-E240-8E1D-C63AB808993E}">
-  <dimension ref="A1:G366"/>
+  <dimension ref="A1:H366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L254" sqref="L254"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -6991,16 +6913,19 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F1" t="s">
         <v>407</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7013,17 +6938,20 @@
       <c r="D2" s="9">
         <v>17.8</v>
       </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>654</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7036,17 +6964,20 @@
       <c r="D3" s="1">
         <v>10.5</v>
       </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>704</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7059,17 +6990,20 @@
       <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>784</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7082,17 +7016,20 @@
       <c r="D5" s="1">
         <v>1.5</v>
       </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>812</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7105,17 +7042,20 @@
       <c r="D6" s="1">
         <v>0.1</v>
       </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>845</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7128,17 +7068,20 @@
       <c r="D7" s="1">
         <v>0.6</v>
       </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>829</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7151,17 +7094,20 @@
       <c r="D8" s="1">
         <v>3.1</v>
       </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>702</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7174,17 +7120,20 @@
       <c r="D9" s="1">
         <v>7.3</v>
       </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>758</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7197,17 +7146,20 @@
       <c r="D10" s="1">
         <v>13.100000000000001</v>
       </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>709</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7220,17 +7172,20 @@
       <c r="D11" s="1">
         <v>20.399999999999999</v>
       </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>711</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7243,17 +7198,20 @@
       <c r="D12" s="1">
         <v>28.799999999999997</v>
       </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>696</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7266,18 +7224,21 @@
       <c r="D13" s="1">
         <v>38.1</v>
       </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f>F12-17</f>
+      <c r="E13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>G12-17</f>
         <v>679</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7290,18 +7251,21 @@
       <c r="D14" s="1">
         <v>48.199999999999996</v>
       </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ref="F14:F15" si="0">F13-17</f>
+      <c r="E14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G15" si="0">G13-17</f>
         <v>662</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7314,18 +7278,21 @@
       <c r="D15" s="1">
         <v>58.599999999999994</v>
       </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="0"/>
         <v>645</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7338,18 +7305,21 @@
       <c r="D16" s="1">
         <v>69</v>
       </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f>F15-38</f>
+      <c r="E16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>G15-38</f>
         <v>607</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7362,18 +7332,21 @@
       <c r="D17" s="1">
         <v>78.8</v>
       </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ref="F17:F24" si="1">F16-38</f>
+      <c r="E17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:G24" si="1">G16-38</f>
         <v>569</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7386,18 +7359,21 @@
       <c r="D18" s="1">
         <v>87.6</v>
       </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="1"/>
         <v>531</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7410,18 +7386,21 @@
       <c r="D19" s="1">
         <v>94.399999999999991</v>
       </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="1"/>
         <v>493</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7434,18 +7413,21 @@
       <c r="D20" s="1">
         <v>98.8</v>
       </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7458,18 +7440,21 @@
       <c r="D21" s="9">
         <v>99</v>
       </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="1"/>
         <v>417</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7482,18 +7467,21 @@
       <c r="D22" s="1">
         <v>100</v>
       </c>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="1"/>
         <v>379</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7506,18 +7494,21 @@
       <c r="D23" s="1">
         <v>97.899999999999991</v>
       </c>
-      <c r="E23" s="9">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="1"/>
         <v>341</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7530,18 +7521,21 @@
       <c r="D24" s="1">
         <v>92.7</v>
       </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="E24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="1"/>
         <v>303</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7554,18 +7548,21 @@
       <c r="D25" s="1">
         <v>84.899999999999991</v>
       </c>
-      <c r="E25" s="9">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f>F24+14</f>
+      <c r="E25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>G24+14</f>
         <v>317</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7578,18 +7575,21 @@
       <c r="D26" s="1">
         <v>75.2</v>
       </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ref="F26:F32" si="2">F25+14</f>
+      <c r="E26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G29" si="2">G25+14</f>
         <v>331</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7602,18 +7602,21 @@
       <c r="D27" s="1">
         <v>64.5</v>
       </c>
-      <c r="E27" s="9">
-        <v>0</v>
-      </c>
-      <c r="F27">
+      <c r="E27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="2"/>
         <v>345</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7626,18 +7629,21 @@
       <c r="D28" s="1">
         <v>53.400000000000006</v>
       </c>
-      <c r="E28" s="9">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="E28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="2"/>
         <v>359</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7650,18 +7656,21 @@
       <c r="D29" s="1">
         <v>42.4</v>
       </c>
-      <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="E29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="2"/>
         <v>373</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7674,17 +7683,20 @@
       <c r="D30" s="1">
         <v>32.200000000000003</v>
       </c>
-      <c r="E30" s="9">
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="E30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>359</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7697,17 +7709,20 @@
       <c r="D31" s="1">
         <v>22.900000000000002</v>
       </c>
-      <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31">
+      <c r="E31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>331</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7720,18 +7735,21 @@
       <c r="D32" s="10">
         <v>15</v>
       </c>
-      <c r="E32" s="9">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <f>F31-28</f>
+      <c r="E32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>G31-28</f>
         <v>303</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7744,18 +7762,21 @@
       <c r="D33" s="1">
         <v>8.6</v>
       </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f t="shared" ref="F33:F35" si="3">F32-28</f>
+      <c r="E33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G35" si="3">G32-28</f>
         <v>275</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7768,18 +7789,21 @@
       <c r="D34" s="1">
         <v>3.9</v>
       </c>
-      <c r="E34" s="9">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="E34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="3"/>
         <v>247</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7792,18 +7816,21 @@
       <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" s="9">
-        <v>0</v>
-      </c>
-      <c r="F35">
+      <c r="E35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7816,17 +7843,20 @@
       <c r="D36" s="1">
         <v>0</v>
       </c>
-      <c r="E36" s="9">
-        <v>0</v>
-      </c>
-      <c r="F36">
+      <c r="E36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>130</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7839,18 +7869,21 @@
       <c r="D37" s="1">
         <v>1</v>
       </c>
-      <c r="E37" s="9">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <f>F35-42</f>
+      <c r="E37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f>G35-42</f>
         <v>177</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7863,18 +7896,21 @@
       <c r="D38" s="1">
         <v>3.6999999999999997</v>
       </c>
-      <c r="E38" s="9">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <f t="shared" ref="F38:F40" si="4">F37-42</f>
+      <c r="E38" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38:G40" si="4">G37-42</f>
         <v>135</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7887,18 +7923,21 @@
       <c r="D39" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E39" s="9">
-        <v>0</v>
-      </c>
-      <c r="F39">
+      <c r="E39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="9">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7911,18 +7950,21 @@
       <c r="D40" s="1">
         <v>14.499999999999998</v>
       </c>
-      <c r="E40" s="9">
-        <v>0</v>
-      </c>
-      <c r="F40">
+      <c r="E40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7935,17 +7977,20 @@
       <c r="D41" s="1">
         <v>22.2</v>
       </c>
-      <c r="E41" s="9">
-        <v>0</v>
-      </c>
-      <c r="F41">
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="9">
         <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7958,17 +8003,20 @@
       <c r="D42" s="1">
         <v>31.2</v>
       </c>
-      <c r="E42" s="9">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="9">
         <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7981,17 +8029,20 @@
       <c r="D43" s="1">
         <v>41.099999999999994</v>
       </c>
-      <c r="E43" s="9">
-        <v>0</v>
-      </c>
-      <c r="F43">
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
         <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8004,17 +8055,20 @@
       <c r="D44" s="1">
         <v>51.800000000000004</v>
       </c>
-      <c r="E44" s="9">
-        <v>0</v>
-      </c>
-      <c r="F44">
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9">
         <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8027,17 +8081,20 @@
       <c r="D45" s="1">
         <v>62.8</v>
       </c>
-      <c r="E45" s="9">
-        <v>0</v>
-      </c>
-      <c r="F45">
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9">
         <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8050,17 +8107,20 @@
       <c r="D46" s="1">
         <v>73.5</v>
       </c>
-      <c r="E46" s="9">
-        <v>0</v>
-      </c>
-      <c r="F46">
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="9">
         <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8073,17 +8133,20 @@
       <c r="D47" s="1">
         <v>83.3</v>
       </c>
-      <c r="E47" s="9">
-        <v>0</v>
-      </c>
-      <c r="F47">
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9">
         <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8096,17 +8159,20 @@
       <c r="D48" s="1">
         <v>91.5</v>
       </c>
-      <c r="E48" s="9">
-        <v>0</v>
-      </c>
-      <c r="F48">
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="9">
         <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8119,17 +8185,20 @@
       <c r="D49" s="1">
         <v>97.2</v>
       </c>
-      <c r="E49" s="9">
-        <v>0</v>
-      </c>
-      <c r="F49">
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="9">
         <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8142,17 +8211,20 @@
       <c r="D50" s="9">
         <v>98</v>
       </c>
-      <c r="E50" s="9">
-        <v>0</v>
-      </c>
-      <c r="F50">
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="9">
         <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>50</v>
       </c>
@@ -8165,17 +8237,20 @@
       <c r="D51" s="1">
         <v>99.8</v>
       </c>
-      <c r="E51" s="9">
-        <v>0</v>
-      </c>
-      <c r="F51">
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="9">
         <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>51</v>
       </c>
@@ -8188,17 +8263,20 @@
       <c r="D52" s="1">
         <v>99.1</v>
       </c>
-      <c r="E52" s="9">
-        <v>0</v>
-      </c>
-      <c r="F52">
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="9">
         <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>52</v>
       </c>
@@ -8211,17 +8289,20 @@
       <c r="D53" s="1">
         <v>95.199999999999989</v>
       </c>
-      <c r="E53" s="9">
-        <v>0</v>
-      </c>
-      <c r="F53">
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="9">
         <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>53</v>
       </c>
@@ -8234,17 +8315,20 @@
       <c r="D54" s="1">
         <v>88.7</v>
       </c>
-      <c r="E54" s="9">
-        <v>0</v>
-      </c>
-      <c r="F54">
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="9">
         <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>54</v>
       </c>
@@ -8257,17 +8341,20 @@
       <c r="D55" s="1">
         <v>80</v>
       </c>
-      <c r="E55" s="9">
-        <v>0</v>
-      </c>
-      <c r="F55">
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="9">
         <v>0</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>55</v>
       </c>
@@ -8280,17 +8367,20 @@
       <c r="D56" s="1">
         <v>70.099999999999994</v>
       </c>
-      <c r="E56" s="9">
-        <v>0</v>
-      </c>
-      <c r="F56">
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="9">
         <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>56</v>
       </c>
@@ -8303,17 +8393,20 @@
       <c r="D57" s="1">
         <v>59.599999999999994</v>
       </c>
-      <c r="E57" s="9">
-        <v>0</v>
-      </c>
-      <c r="F57">
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="9">
         <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>57</v>
       </c>
@@ -8326,17 +8419,20 @@
       <c r="D58" s="1">
         <v>48.9</v>
       </c>
-      <c r="E58" s="9">
-        <v>0</v>
-      </c>
-      <c r="F58">
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="9">
         <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>58</v>
       </c>
@@ -8349,17 +8445,20 @@
       <c r="D59" s="1">
         <v>38.700000000000003</v>
       </c>
-      <c r="E59" s="9">
-        <v>0</v>
-      </c>
-      <c r="F59">
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="9">
         <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8372,17 +8471,20 @@
       <c r="D60" s="1">
         <v>29.099999999999998</v>
       </c>
-      <c r="E60" s="9">
-        <v>0</v>
-      </c>
-      <c r="F60">
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="9">
         <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8395,17 +8497,20 @@
       <c r="D61" s="1">
         <v>20.599999999999998</v>
       </c>
-      <c r="E61" s="9">
-        <v>0</v>
-      </c>
-      <c r="F61">
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="9">
         <v>0</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8418,17 +8523,20 @@
       <c r="D62" s="1">
         <v>13.3</v>
       </c>
-      <c r="E62" s="9">
-        <v>0</v>
-      </c>
-      <c r="F62">
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="9">
         <v>0</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8441,17 +8549,20 @@
       <c r="D63" s="1">
         <v>7.3999999999999995</v>
       </c>
-      <c r="E63" s="9">
-        <v>0</v>
-      </c>
-      <c r="F63">
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="9">
         <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8464,17 +8575,20 @@
       <c r="D64" s="1">
         <v>3.2</v>
       </c>
-      <c r="E64" s="9">
-        <v>0</v>
-      </c>
-      <c r="F64">
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="9">
         <v>0</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8487,17 +8601,20 @@
       <c r="D65" s="1">
         <v>0.70000000000000007</v>
       </c>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65">
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="9">
         <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8510,17 +8627,20 @@
       <c r="D66" s="1">
         <v>0.2</v>
       </c>
-      <c r="E66" s="9">
-        <v>0</v>
-      </c>
-      <c r="F66">
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="9">
         <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8533,17 +8653,20 @@
       <c r="D67" s="1">
         <v>1.5</v>
       </c>
-      <c r="E67" s="9">
-        <v>0</v>
-      </c>
-      <c r="F67">
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="9">
         <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8556,17 +8679,20 @@
       <c r="D68" s="1">
         <v>4.8</v>
       </c>
-      <c r="E68" s="9">
-        <v>0</v>
-      </c>
-      <c r="F68">
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="9">
         <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8579,17 +8705,20 @@
       <c r="D69" s="1">
         <v>10</v>
       </c>
-      <c r="E69" s="9">
-        <v>0</v>
-      </c>
-      <c r="F69">
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="9">
         <v>0</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8602,17 +8731,20 @@
       <c r="D70" s="1">
         <v>17</v>
       </c>
-      <c r="E70" s="9">
-        <v>0</v>
-      </c>
-      <c r="F70">
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="9">
         <v>0</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8625,17 +8757,20 @@
       <c r="D71" s="1">
         <v>25.6</v>
       </c>
-      <c r="E71" s="9">
-        <v>0</v>
-      </c>
-      <c r="F71">
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="9">
         <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8648,17 +8783,20 @@
       <c r="D72" s="1">
         <v>35.4</v>
       </c>
-      <c r="E72" s="9">
-        <v>0</v>
-      </c>
-      <c r="F72">
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="9">
         <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8671,17 +8809,20 @@
       <c r="D73" s="1">
         <v>46.300000000000004</v>
       </c>
-      <c r="E73" s="9">
-        <v>0</v>
-      </c>
-      <c r="F73">
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="9">
         <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8694,17 +8835,20 @@
       <c r="D74" s="1">
         <v>57.599999999999994</v>
       </c>
-      <c r="E74" s="9">
-        <v>0</v>
-      </c>
-      <c r="F74">
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="9">
         <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8717,17 +8861,20 @@
       <c r="D75" s="1">
         <v>69</v>
       </c>
-      <c r="E75" s="9">
-        <v>0</v>
-      </c>
-      <c r="F75">
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="9">
         <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8740,17 +8887,20 @@
       <c r="D76" s="1">
         <v>79.5</v>
       </c>
-      <c r="E76" s="9">
-        <v>0</v>
-      </c>
-      <c r="F76">
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="9">
         <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8763,17 +8913,20 @@
       <c r="D77" s="1">
         <v>88.5</v>
       </c>
-      <c r="E77" s="9">
-        <v>0</v>
-      </c>
-      <c r="F77">
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="9">
         <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8786,17 +8939,20 @@
       <c r="D78" s="1">
         <v>95.199999999999989</v>
       </c>
-      <c r="E78" s="9">
-        <v>0</v>
-      </c>
-      <c r="F78">
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="9">
         <v>0</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8809,17 +8965,20 @@
       <c r="D79" s="9">
         <v>97.5</v>
       </c>
-      <c r="E79" s="9">
-        <v>0</v>
-      </c>
-      <c r="F79">
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="9">
         <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8832,17 +8991,20 @@
       <c r="D80" s="1">
         <v>99</v>
       </c>
-      <c r="E80" s="9">
-        <v>0</v>
-      </c>
-      <c r="F80">
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="9">
         <v>0</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8855,17 +9017,20 @@
       <c r="D81" s="1">
         <v>99.7</v>
       </c>
-      <c r="E81" s="9">
-        <v>0</v>
-      </c>
-      <c r="F81">
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="9">
         <v>0</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8878,17 +9043,20 @@
       <c r="D82" s="1">
         <v>97.3</v>
       </c>
-      <c r="E82" s="9">
-        <v>0</v>
-      </c>
-      <c r="F82">
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="9">
         <v>0</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8901,17 +9069,20 @@
       <c r="D83" s="1">
         <v>92.100000000000009</v>
       </c>
-      <c r="E83" s="9">
-        <v>0</v>
-      </c>
-      <c r="F83">
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="9">
         <v>0</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8924,17 +9095,20 @@
       <c r="D84" s="1">
         <v>84.8</v>
       </c>
-      <c r="E84" s="9">
-        <v>0</v>
-      </c>
-      <c r="F84">
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="9">
         <v>0</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8947,17 +9121,20 @@
       <c r="D85" s="1">
         <v>75.900000000000006</v>
       </c>
-      <c r="E85" s="9">
-        <v>0</v>
-      </c>
-      <c r="F85">
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="9">
         <v>0</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8970,17 +9147,20 @@
       <c r="D86" s="1">
         <v>66.2</v>
       </c>
-      <c r="E86" s="9">
-        <v>0</v>
-      </c>
-      <c r="F86">
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="9">
         <v>0</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8993,17 +9173,20 @@
       <c r="D87" s="1">
         <v>56.000000000000007</v>
       </c>
-      <c r="E87" s="9">
-        <v>0</v>
-      </c>
-      <c r="F87">
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="9">
         <v>0</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9016,17 +9199,20 @@
       <c r="D88" s="1">
         <v>45.9</v>
       </c>
-      <c r="E88" s="9">
-        <v>0</v>
-      </c>
-      <c r="F88">
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="9">
         <v>0</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9039,17 +9225,20 @@
       <c r="D89" s="1">
         <v>36.1</v>
       </c>
-      <c r="E89" s="9">
-        <v>0</v>
-      </c>
-      <c r="F89">
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="9">
         <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9062,17 +9251,20 @@
       <c r="D90" s="1">
         <v>27</v>
       </c>
-      <c r="E90" s="9">
-        <v>0</v>
-      </c>
-      <c r="F90">
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="9">
         <v>0</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9085,17 +9277,20 @@
       <c r="D91" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="E91" s="9">
-        <v>0</v>
-      </c>
-      <c r="F91">
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91" s="9">
         <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9108,17 +9303,20 @@
       <c r="D92" s="1">
         <v>11.899999999999999</v>
       </c>
-      <c r="E92" s="9">
-        <v>0</v>
-      </c>
-      <c r="F92">
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="9">
         <v>0</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9131,17 +9329,20 @@
       <c r="D93" s="1">
         <v>6.4</v>
       </c>
-      <c r="E93" s="9">
-        <v>0</v>
-      </c>
-      <c r="F93">
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="9">
         <v>0</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>93</v>
       </c>
@@ -9154,17 +9355,20 @@
       <c r="D94" s="1">
         <v>2.5</v>
       </c>
-      <c r="E94" s="9">
-        <v>0</v>
-      </c>
-      <c r="F94">
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="9">
         <v>0</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>94</v>
       </c>
@@ -9177,17 +9381,20 @@
       <c r="D95" s="1">
         <v>0.5</v>
       </c>
-      <c r="E95" s="9">
-        <v>0</v>
-      </c>
-      <c r="F95">
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="9">
         <v>0</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>95</v>
       </c>
@@ -9200,17 +9407,20 @@
       <c r="D96" s="1">
         <v>0.4</v>
       </c>
-      <c r="E96" s="9">
-        <v>0</v>
-      </c>
-      <c r="F96">
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="9">
         <v>0</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>96</v>
       </c>
@@ -9223,17 +9433,20 @@
       <c r="D97" s="1">
         <v>2.5</v>
       </c>
-      <c r="E97" s="9">
-        <v>0</v>
-      </c>
-      <c r="F97">
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="9">
         <v>0</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>97</v>
       </c>
@@ -9246,17 +9459,20 @@
       <c r="D98" s="1">
         <v>6.8000000000000007</v>
       </c>
-      <c r="E98" s="9">
-        <v>0</v>
-      </c>
-      <c r="F98">
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="F98" s="9">
         <v>0</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>98</v>
       </c>
@@ -9269,17 +9485,20 @@
       <c r="D99" s="1">
         <v>13.100000000000001</v>
       </c>
-      <c r="E99" s="9">
-        <v>0</v>
-      </c>
-      <c r="F99">
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="9">
         <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>99</v>
       </c>
@@ -9292,17 +9511,20 @@
       <c r="D100" s="1">
         <v>21.3</v>
       </c>
-      <c r="E100" s="9">
-        <v>0</v>
-      </c>
-      <c r="F100">
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="9">
         <v>0</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>100</v>
       </c>
@@ -9315,17 +9537,20 @@
       <c r="D101" s="1">
         <v>31.1</v>
       </c>
-      <c r="E101" s="9">
-        <v>0</v>
-      </c>
-      <c r="F101">
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="9">
         <v>0</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>101</v>
       </c>
@@ -9338,17 +9563,20 @@
       <c r="D102" s="1">
         <v>42.1</v>
       </c>
-      <c r="E102" s="9">
-        <v>0</v>
-      </c>
-      <c r="F102">
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="9">
         <v>0</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>102</v>
       </c>
@@ -9361,17 +9589,20 @@
       <c r="D103" s="1">
         <v>53.7</v>
       </c>
-      <c r="E103" s="9">
-        <v>0</v>
-      </c>
-      <c r="F103">
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="9">
         <v>0</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9384,17 +9615,20 @@
       <c r="D104" s="1">
         <v>65.400000000000006</v>
       </c>
-      <c r="E104" s="9">
-        <v>0</v>
-      </c>
-      <c r="F104">
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="9">
         <v>0</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>104</v>
       </c>
@@ -9407,17 +9641,20 @@
       <c r="D105" s="1">
         <v>76.3</v>
       </c>
-      <c r="E105" s="9">
-        <v>0</v>
-      </c>
-      <c r="F105">
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="9">
         <v>0</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>105</v>
       </c>
@@ -9430,17 +9667,20 @@
       <c r="D106" s="1">
         <v>85.8</v>
       </c>
-      <c r="E106" s="9">
-        <v>0</v>
-      </c>
-      <c r="F106">
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="9">
         <v>0</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>106</v>
       </c>
@@ -9453,17 +9693,20 @@
       <c r="D107" s="1">
         <v>93.2</v>
       </c>
-      <c r="E107" s="9">
-        <v>0</v>
-      </c>
-      <c r="F107">
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="9">
         <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>107</v>
       </c>
@@ -9476,17 +9719,20 @@
       <c r="D108" s="1">
         <v>96.8</v>
       </c>
-      <c r="E108" s="9">
-        <v>0</v>
-      </c>
-      <c r="F108">
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="9">
         <v>0</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9499,17 +9745,20 @@
       <c r="D109" s="1">
         <v>97.899999999999991</v>
       </c>
-      <c r="E109" s="9">
-        <v>0</v>
-      </c>
-      <c r="F109">
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="9">
         <v>0</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9522,17 +9771,20 @@
       <c r="D110" s="1">
         <v>99.8</v>
       </c>
-      <c r="E110" s="9">
-        <v>0</v>
-      </c>
-      <c r="F110">
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="9">
         <v>0</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9545,17 +9797,20 @@
       <c r="D111" s="1">
         <v>98.7</v>
       </c>
-      <c r="E111" s="9">
-        <v>0</v>
-      </c>
-      <c r="F111">
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="9">
         <v>0</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9568,17 +9823,20 @@
       <c r="D112" s="1">
         <v>95</v>
       </c>
-      <c r="E112" s="9">
-        <v>0</v>
-      </c>
-      <c r="F112">
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="9">
         <v>0</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9591,17 +9849,20 @@
       <c r="D113" s="1">
         <v>89.1</v>
       </c>
-      <c r="E113" s="9">
-        <v>0</v>
-      </c>
-      <c r="F113">
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="9">
         <v>0</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9614,17 +9875,20 @@
       <c r="D114" s="1">
         <v>81.5</v>
       </c>
-      <c r="E114" s="9">
-        <v>0</v>
-      </c>
-      <c r="F114">
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F114" s="9">
         <v>0</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9637,17 +9901,20 @@
       <c r="D115" s="1">
         <v>72.7</v>
       </c>
-      <c r="E115" s="9">
-        <v>0</v>
-      </c>
-      <c r="F115">
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="9">
         <v>0</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9660,17 +9927,20 @@
       <c r="D116" s="1">
         <v>63.2</v>
       </c>
-      <c r="E116" s="9">
-        <v>0</v>
-      </c>
-      <c r="F116">
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+      <c r="F116" s="9">
         <v>0</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9683,17 +9953,20 @@
       <c r="D117" s="1">
         <v>53.400000000000006</v>
       </c>
-      <c r="E117" s="9">
-        <v>0</v>
-      </c>
-      <c r="F117">
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="9">
         <v>0</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>117</v>
       </c>
@@ -9706,17 +9979,20 @@
       <c r="D118" s="1">
         <v>43.6</v>
       </c>
-      <c r="E118" s="9">
-        <v>0</v>
-      </c>
-      <c r="F118">
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="9">
         <v>0</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>118</v>
       </c>
@@ -9729,17 +10005,20 @@
       <c r="D119" s="1">
         <v>34.1</v>
       </c>
-      <c r="E119" s="9">
-        <v>0</v>
-      </c>
-      <c r="F119">
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+      <c r="F119" s="9">
         <v>0</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>119</v>
       </c>
@@ -9752,17 +10031,20 @@
       <c r="D120" s="1">
         <v>25.2</v>
       </c>
-      <c r="E120" s="9">
-        <v>0</v>
-      </c>
-      <c r="F120">
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+      <c r="F120" s="9">
         <v>0</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>120</v>
       </c>
@@ -9775,17 +10057,20 @@
       <c r="D121" s="1">
         <v>17.2</v>
       </c>
-      <c r="E121" s="9">
-        <v>0</v>
-      </c>
-      <c r="F121">
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+      <c r="F121" s="9">
         <v>0</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>121</v>
       </c>
@@ -9798,17 +10083,20 @@
       <c r="D122" s="1">
         <v>10.4</v>
       </c>
-      <c r="E122" s="9">
-        <v>0</v>
-      </c>
-      <c r="F122">
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="9">
         <v>0</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>122</v>
       </c>
@@ -9821,17 +10109,20 @@
       <c r="D123" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E123" s="9">
-        <v>0</v>
-      </c>
-      <c r="F123">
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="9">
         <v>0</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>123</v>
       </c>
@@ -9844,17 +10135,20 @@
       <c r="D124" s="1">
         <v>1.6</v>
       </c>
-      <c r="E124" s="9">
-        <v>0</v>
-      </c>
-      <c r="F124">
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="9">
         <v>0</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>124</v>
       </c>
@@ -9867,17 +10161,20 @@
       <c r="D125" s="1">
         <v>0.2</v>
       </c>
-      <c r="E125" s="9">
-        <v>0</v>
-      </c>
-      <c r="F125">
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+      <c r="F125" s="9">
         <v>0</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>125</v>
       </c>
@@ -9890,17 +10187,20 @@
       <c r="D126" s="1">
         <v>1.0999999999999999</v>
       </c>
-      <c r="E126" s="9">
-        <v>0</v>
-      </c>
-      <c r="F126">
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+      <c r="F126" s="9">
         <v>0</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>126</v>
       </c>
@@ -9913,17 +10213,20 @@
       <c r="D127" s="1">
         <v>4.3999999999999995</v>
       </c>
-      <c r="E127" s="9">
-        <v>0</v>
-      </c>
-      <c r="F127">
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+      <c r="F127" s="9">
         <v>0</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>127</v>
       </c>
@@ -9936,17 +10239,20 @@
       <c r="D128" s="1">
         <v>10.100000000000001</v>
       </c>
-      <c r="E128" s="9">
-        <v>0</v>
-      </c>
-      <c r="F128">
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+      <c r="F128" s="9">
         <v>0</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>128</v>
       </c>
@@ -9959,17 +10265,20 @@
       <c r="D129" s="1">
         <v>18.099999999999998</v>
       </c>
-      <c r="E129" s="9">
-        <v>0</v>
-      </c>
-      <c r="F129">
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+      <c r="F129" s="9">
         <v>0</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>129</v>
       </c>
@@ -9982,17 +10291,20 @@
       <c r="D130" s="1">
         <v>27.900000000000002</v>
       </c>
-      <c r="E130" s="9">
-        <v>0</v>
-      </c>
-      <c r="F130">
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F130" s="9">
         <v>0</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>130</v>
       </c>
@@ -10005,17 +10317,20 @@
       <c r="D131" s="1">
         <v>39</v>
       </c>
-      <c r="E131" s="9">
-        <v>0</v>
-      </c>
-      <c r="F131">
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+      <c r="F131" s="9">
         <v>0</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>131</v>
       </c>
@@ -10028,17 +10343,20 @@
       <c r="D132" s="1">
         <v>50.8</v>
       </c>
-      <c r="E132" s="9">
-        <v>0</v>
-      </c>
-      <c r="F132">
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+      <c r="F132" s="9">
         <v>0</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>132</v>
       </c>
@@ -10051,17 +10369,20 @@
       <c r="D133" s="1">
         <v>62.6</v>
       </c>
-      <c r="E133" s="9">
-        <v>0</v>
-      </c>
-      <c r="F133">
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
+      <c r="F133" s="9">
         <v>0</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>133</v>
       </c>
@@ -10074,17 +10395,20 @@
       <c r="D134" s="1">
         <v>73.7</v>
       </c>
-      <c r="E134" s="9">
-        <v>0</v>
-      </c>
-      <c r="F134">
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
+      <c r="F134" s="9">
         <v>0</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>134</v>
       </c>
@@ -10097,17 +10421,20 @@
       <c r="D135" s="1">
         <v>83.399999999999991</v>
       </c>
-      <c r="E135" s="9">
-        <v>0</v>
-      </c>
-      <c r="F135">
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+      <c r="F135" s="9">
         <v>0</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>135</v>
       </c>
@@ -10120,17 +10447,20 @@
       <c r="D136" s="1">
         <v>91.2</v>
       </c>
-      <c r="E136" s="9">
-        <v>0</v>
-      </c>
-      <c r="F136">
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+      <c r="F136" s="9">
         <v>0</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="H136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>136</v>
       </c>
@@ -10143,17 +10473,20 @@
       <c r="D137" s="1">
         <v>96.7</v>
       </c>
-      <c r="E137" s="9">
-        <v>0</v>
-      </c>
-      <c r="F137">
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="9">
         <v>0</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>137</v>
       </c>
@@ -10166,17 +10499,20 @@
       <c r="D138" s="1">
         <v>97.99</v>
       </c>
-      <c r="E138" s="9">
-        <v>0</v>
-      </c>
-      <c r="F138">
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+      <c r="F138" s="9">
         <v>0</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>138</v>
       </c>
@@ -10189,17 +10525,20 @@
       <c r="D139" s="1">
         <v>99.5</v>
       </c>
-      <c r="E139" s="9">
-        <v>0</v>
-      </c>
-      <c r="F139">
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
+      <c r="F139" s="9">
         <v>0</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>139</v>
       </c>
@@ -10212,17 +10551,20 @@
       <c r="D140" s="1">
         <v>99.6</v>
       </c>
-      <c r="E140" s="9">
-        <v>0</v>
-      </c>
-      <c r="F140">
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
+      <c r="F140" s="9">
         <v>0</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>140</v>
       </c>
@@ -10235,17 +10577,20 @@
       <c r="D141" s="1">
         <v>97.3</v>
       </c>
-      <c r="E141" s="9">
-        <v>0</v>
-      </c>
-      <c r="F141">
+      <c r="E141" s="1">
+        <v>0</v>
+      </c>
+      <c r="F141" s="9">
         <v>0</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>141</v>
       </c>
@@ -10258,17 +10603,20 @@
       <c r="D142" s="1">
         <v>92.800000000000011</v>
       </c>
-      <c r="E142" s="9">
-        <v>0</v>
-      </c>
-      <c r="F142">
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+      <c r="F142" s="9">
         <v>0</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>142</v>
       </c>
@@ -10281,17 +10629,20 @@
       <c r="D143" s="1">
         <v>86.5</v>
       </c>
-      <c r="E143" s="9">
-        <v>0</v>
-      </c>
-      <c r="F143">
+      <c r="E143" s="1">
+        <v>0</v>
+      </c>
+      <c r="F143" s="9">
         <v>0</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>143</v>
       </c>
@@ -10304,17 +10655,20 @@
       <c r="D144" s="1">
         <v>78.8</v>
       </c>
-      <c r="E144" s="9">
-        <v>0</v>
-      </c>
-      <c r="F144">
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="F144" s="9">
         <v>0</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>144</v>
       </c>
@@ -10327,17 +10681,20 @@
       <c r="D145" s="1">
         <v>70.099999999999994</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F145" s="1">
         <v>50</v>
       </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
       <c r="G145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>145</v>
       </c>
@@ -10350,18 +10707,21 @@
       <c r="D146" s="1">
         <v>60.699999999999996</v>
       </c>
-      <c r="E146" s="1">
-        <f>(E145+13)-(D146/100)</f>
+      <c r="E146" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F146" s="1">
+        <f>(F145+13)-(D146/100)</f>
         <v>62.393000000000001</v>
       </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
       <c r="G146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>146</v>
       </c>
@@ -10374,18 +10734,21 @@
       <c r="D147" s="1">
         <v>51</v>
       </c>
-      <c r="E147" s="1">
-        <f t="shared" ref="E147:E210" si="5">(E146+13)-(D147/100)</f>
+      <c r="E147" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F147" s="1">
+        <f t="shared" ref="F147:F204" si="5">(F146+13)-(D147/100)</f>
         <v>74.882999999999996</v>
       </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
       <c r="G147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>147</v>
       </c>
@@ -10398,18 +10761,21 @@
       <c r="D148" s="1">
         <v>41.3</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E148" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F148" s="1">
         <f t="shared" si="5"/>
         <v>87.47</v>
       </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
       <c r="G148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>148</v>
       </c>
@@ -10422,18 +10788,21 @@
       <c r="D149" s="1">
         <v>31.8</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E149" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F149" s="1">
         <f t="shared" si="5"/>
         <v>100.152</v>
       </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
       <c r="G149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>149</v>
       </c>
@@ -10446,18 +10815,21 @@
       <c r="D150" s="1">
         <v>22.900000000000002</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F150" s="1">
         <f t="shared" si="5"/>
         <v>112.923</v>
       </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
       <c r="G150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>150</v>
       </c>
@@ -10470,18 +10842,21 @@
       <c r="D151" s="1">
         <v>14.899999999999999</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F151" s="1">
         <f t="shared" si="5"/>
         <v>125.774</v>
       </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
       <c r="G151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>151</v>
       </c>
@@ -10494,18 +10869,21 @@
       <c r="D152" s="1">
         <v>8.2000000000000011</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F152" s="1">
         <f t="shared" si="5"/>
         <v>138.69200000000001</v>
       </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
       <c r="G152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>152</v>
       </c>
@@ -10518,18 +10896,21 @@
       <c r="D153" s="1">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E153" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F153" s="1">
         <f t="shared" si="5"/>
         <v>151.65900000000002</v>
       </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
       <c r="G153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="H153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>153</v>
       </c>
@@ -10542,18 +10923,21 @@
       <c r="D154" s="1">
         <v>0.5</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F154" s="1">
         <f t="shared" si="5"/>
         <v>164.65400000000002</v>
       </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
       <c r="G154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>154</v>
       </c>
@@ -10566,18 +10950,21 @@
       <c r="D155" s="1">
         <v>0.3</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E155" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F155" s="1">
         <f t="shared" si="5"/>
         <v>177.65100000000004</v>
       </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
       <c r="G155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>155</v>
       </c>
@@ -10590,18 +10977,21 @@
       <c r="D156" s="1">
         <v>2.8000000000000003</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F156" s="1">
         <f t="shared" si="5"/>
         <v>190.62300000000005</v>
       </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
       <c r="G156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>156</v>
       </c>
@@ -10614,18 +11004,21 @@
       <c r="D157" s="1">
         <v>8</v>
       </c>
-      <c r="E157" s="1">
+      <c r="E157" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F157" s="1">
         <f t="shared" si="5"/>
         <v>203.54300000000003</v>
       </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
       <c r="G157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>157</v>
       </c>
@@ -10638,18 +11031,21 @@
       <c r="D158" s="1">
         <v>15.7</v>
       </c>
-      <c r="E158" s="1">
+      <c r="E158" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F158" s="1">
         <f t="shared" si="5"/>
         <v>216.38600000000002</v>
       </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
       <c r="G158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>158</v>
       </c>
@@ -10662,18 +11058,21 @@
       <c r="D159" s="1">
         <v>25.4</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E159" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F159" s="1">
         <f t="shared" si="5"/>
         <v>229.13200000000003</v>
       </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
       <c r="G159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>159</v>
       </c>
@@ -10686,18 +11085,21 @@
       <c r="D160" s="1">
         <v>36.5</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F160" s="1">
         <f t="shared" si="5"/>
         <v>241.76700000000002</v>
       </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
       <c r="G160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>160</v>
       </c>
@@ -10710,18 +11112,21 @@
       <c r="D161" s="1">
         <v>48.3</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E161" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F161" s="1">
         <f t="shared" si="5"/>
         <v>254.28400000000002</v>
       </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
       <c r="G161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>161</v>
       </c>
@@ -10734,18 +11139,21 @@
       <c r="D162" s="1">
         <v>60.099999999999994</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F162" s="1">
         <f t="shared" si="5"/>
         <v>266.68299999999999</v>
       </c>
-      <c r="F162">
-        <v>0</v>
-      </c>
       <c r="G162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>162</v>
       </c>
@@ -10758,18 +11166,21 @@
       <c r="D163" s="1">
         <v>71.2</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E163" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F163" s="1">
         <f t="shared" si="5"/>
         <v>278.971</v>
       </c>
-      <c r="F163">
-        <v>0</v>
-      </c>
       <c r="G163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>163</v>
       </c>
@@ -10782,18 +11193,21 @@
       <c r="D164" s="1">
         <v>81.100000000000009</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E164" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F164" s="1">
         <f t="shared" si="5"/>
         <v>291.16000000000003</v>
       </c>
-      <c r="F164">
-        <v>0</v>
-      </c>
       <c r="G164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="H164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>164</v>
       </c>
@@ -10806,18 +11220,21 @@
       <c r="D165" s="1">
         <v>89.1</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F165" s="1">
         <f t="shared" si="5"/>
         <v>303.26900000000001</v>
       </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
       <c r="G165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="H165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>165</v>
       </c>
@@ -10830,18 +11247,21 @@
       <c r="D166" s="1">
         <v>95.1</v>
       </c>
-      <c r="E166" s="1">
+      <c r="E166" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F166" s="1">
         <f t="shared" si="5"/>
         <v>315.31799999999998</v>
       </c>
-      <c r="F166">
-        <v>0</v>
-      </c>
       <c r="G166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="H166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>166</v>
       </c>
@@ -10854,18 +11274,21 @@
       <c r="D167" s="1">
         <v>97.3</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E167" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F167" s="1">
         <f t="shared" si="5"/>
         <v>327.34499999999997</v>
       </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
       <c r="G167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="H167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>167</v>
       </c>
@@ -10878,18 +11301,21 @@
       <c r="D168" s="1">
         <v>98.7</v>
       </c>
-      <c r="E168" s="1">
+      <c r="E168" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F168" s="1">
         <f t="shared" si="5"/>
         <v>339.35799999999995</v>
       </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
       <c r="G168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="H168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10902,18 +11328,21 @@
       <c r="D169" s="1">
         <v>100</v>
       </c>
-      <c r="E169" s="1">
+      <c r="E169" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F169" s="1">
         <f t="shared" si="5"/>
         <v>351.35799999999995</v>
       </c>
-      <c r="F169">
-        <v>0</v>
-      </c>
       <c r="G169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="H169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10926,18 +11355,21 @@
       <c r="D170" s="1">
         <v>98.9</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E170" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F170" s="1">
         <f t="shared" si="5"/>
         <v>363.36899999999997</v>
       </c>
-      <c r="F170">
-        <v>0</v>
-      </c>
       <c r="G170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="H170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10950,18 +11382,21 @@
       <c r="D171" s="1">
         <v>95.7</v>
       </c>
-      <c r="E171" s="1">
+      <c r="E171" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F171" s="1">
         <f t="shared" si="5"/>
         <v>375.41199999999998</v>
       </c>
-      <c r="F171">
-        <v>0</v>
-      </c>
       <c r="G171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="H171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>171</v>
       </c>
@@ -10974,18 +11409,21 @@
       <c r="D172" s="1">
         <v>90.7</v>
       </c>
-      <c r="E172" s="1">
+      <c r="E172" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F172" s="1">
         <f t="shared" si="5"/>
         <v>387.505</v>
       </c>
-      <c r="F172">
-        <v>0</v>
-      </c>
       <c r="G172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>172</v>
       </c>
@@ -10998,18 +11436,21 @@
       <c r="D173" s="1">
         <v>84.1</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E173" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F173" s="1">
         <f t="shared" si="5"/>
         <v>399.66399999999999</v>
       </c>
-      <c r="F173">
-        <v>0</v>
-      </c>
       <c r="G173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="H173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>173</v>
       </c>
@@ -11022,18 +11463,21 @@
       <c r="D174" s="1">
         <v>76.3</v>
       </c>
-      <c r="E174" s="1">
+      <c r="E174" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F174" s="1">
         <f t="shared" si="5"/>
         <v>411.90100000000001</v>
       </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
       <c r="G174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:7">
+      <c r="H174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>174</v>
       </c>
@@ -11046,18 +11490,21 @@
       <c r="D175" s="1">
         <v>67.5</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E175" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F175" s="1">
         <f t="shared" si="5"/>
         <v>424.226</v>
       </c>
-      <c r="F175">
-        <v>0</v>
-      </c>
       <c r="G175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>175</v>
       </c>
@@ -11070,18 +11517,21 @@
       <c r="D176" s="1">
         <v>58.099999999999994</v>
       </c>
-      <c r="E176" s="1">
+      <c r="E176" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F176" s="1">
         <f t="shared" si="5"/>
         <v>436.64499999999998</v>
       </c>
-      <c r="F176">
-        <v>0</v>
-      </c>
       <c r="G176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>176</v>
       </c>
@@ -11094,18 +11544,21 @@
       <c r="D177" s="1">
         <v>48.3</v>
       </c>
-      <c r="E177" s="1">
+      <c r="E177" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F177" s="1">
         <f t="shared" si="5"/>
         <v>449.16199999999998</v>
       </c>
-      <c r="F177">
-        <v>0</v>
-      </c>
       <c r="G177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="H177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>177</v>
       </c>
@@ -11118,18 +11571,21 @@
       <c r="D178" s="1">
         <v>38.299999999999997</v>
       </c>
-      <c r="E178" s="1">
+      <c r="E178" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F178" s="1">
         <f t="shared" si="5"/>
         <v>461.779</v>
       </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
       <c r="G178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="H178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>178</v>
       </c>
@@ -11142,18 +11598,21 @@
       <c r="D179" s="1">
         <v>28.7</v>
       </c>
-      <c r="E179" s="1">
+      <c r="E179" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F179" s="1">
         <f t="shared" si="5"/>
         <v>474.49200000000002</v>
       </c>
-      <c r="F179">
-        <v>0</v>
-      </c>
       <c r="G179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="H179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>179</v>
       </c>
@@ -11166,18 +11625,21 @@
       <c r="D180" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="E180" s="1">
+      <c r="E180" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F180" s="1">
         <f t="shared" si="5"/>
         <v>487.29599999999999</v>
       </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
       <c r="G180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="H180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>180</v>
       </c>
@@ -11190,18 +11652,21 @@
       <c r="D181" s="1">
         <v>11.700000000000001</v>
       </c>
-      <c r="E181" s="1">
+      <c r="E181" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F181" s="1">
         <f t="shared" si="5"/>
         <v>500.17899999999997</v>
       </c>
-      <c r="F181">
-        <v>0</v>
-      </c>
       <c r="G181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="H181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>181</v>
       </c>
@@ -11214,18 +11679,21 @@
       <c r="D182" s="1">
         <v>5.4</v>
       </c>
-      <c r="E182" s="1">
+      <c r="E182" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F182" s="1">
         <f t="shared" si="5"/>
         <v>513.125</v>
       </c>
-      <c r="F182">
-        <v>0</v>
-      </c>
       <c r="G182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>182</v>
       </c>
@@ -11238,18 +11706,21 @@
       <c r="D183" s="1">
         <v>1.4000000000000001</v>
       </c>
-      <c r="E183" s="1">
+      <c r="E183" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F183" s="1">
         <f t="shared" si="5"/>
         <v>526.11099999999999</v>
       </c>
-      <c r="F183">
-        <v>0</v>
-      </c>
       <c r="G183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="H183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>183</v>
       </c>
@@ -11262,18 +11733,21 @@
       <c r="D184" s="1">
         <v>0</v>
       </c>
-      <c r="E184" s="1">
+      <c r="E184" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F184" s="1">
         <f t="shared" si="5"/>
         <v>539.11099999999999</v>
       </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
       <c r="G184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="H184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>184</v>
       </c>
@@ -11286,18 +11760,21 @@
       <c r="D185" s="1">
         <v>1.6</v>
       </c>
-      <c r="E185" s="1">
+      <c r="E185" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F185" s="1">
         <f t="shared" si="5"/>
         <v>552.09500000000003</v>
       </c>
-      <c r="F185">
-        <v>0</v>
-      </c>
       <c r="G185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="H185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>185</v>
       </c>
@@ -11310,18 +11787,21 @@
       <c r="D186" s="1">
         <v>6.3</v>
       </c>
-      <c r="E186" s="1">
+      <c r="E186" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F186" s="1">
         <f t="shared" si="5"/>
         <v>565.03200000000004</v>
       </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
       <c r="G186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="H186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>186</v>
       </c>
@@ -11334,18 +11814,21 @@
       <c r="D187" s="1">
         <v>13.700000000000001</v>
       </c>
-      <c r="E187" s="1">
+      <c r="E187" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F187" s="1">
         <f t="shared" si="5"/>
         <v>577.8950000000001</v>
       </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
       <c r="G187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="H187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>187</v>
       </c>
@@ -11358,18 +11841,21 @@
       <c r="D188" s="1">
         <v>23.200000000000003</v>
       </c>
-      <c r="E188" s="1">
+      <c r="E188" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F188" s="1">
         <f t="shared" si="5"/>
         <v>590.66300000000012</v>
       </c>
-      <c r="F188">
-        <v>0</v>
-      </c>
       <c r="G188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="H188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>188</v>
       </c>
@@ -11382,18 +11868,21 @@
       <c r="D189" s="1">
         <v>34.200000000000003</v>
       </c>
-      <c r="E189" s="1">
+      <c r="E189" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F189" s="1">
         <f t="shared" si="5"/>
         <v>603.32100000000014</v>
       </c>
-      <c r="F189">
-        <v>0</v>
-      </c>
       <c r="G189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:7">
+      <c r="H189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>189</v>
       </c>
@@ -11406,18 +11895,21 @@
       <c r="D190" s="1">
         <v>45.9</v>
       </c>
-      <c r="E190" s="1">
+      <c r="E190" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F190" s="1">
         <f t="shared" si="5"/>
         <v>615.86200000000019</v>
       </c>
-      <c r="F190">
-        <v>0</v>
-      </c>
       <c r="G190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="H190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>190</v>
       </c>
@@ -11430,18 +11922,21 @@
       <c r="D191" s="1">
         <v>57.499999999999993</v>
       </c>
-      <c r="E191" s="1">
+      <c r="E191" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F191" s="1">
         <f t="shared" si="5"/>
         <v>628.28700000000015</v>
       </c>
-      <c r="F191">
-        <v>0</v>
-      </c>
       <c r="G191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:7">
+      <c r="H191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>191</v>
       </c>
@@ -11454,18 +11949,21 @@
       <c r="D192" s="1">
         <v>68.5</v>
       </c>
-      <c r="E192" s="1">
+      <c r="E192" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F192" s="1">
         <f t="shared" si="5"/>
         <v>640.6020000000002</v>
       </c>
-      <c r="F192">
-        <v>0</v>
-      </c>
       <c r="G192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:7">
+      <c r="H192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>192</v>
       </c>
@@ -11478,18 +11976,21 @@
       <c r="D193" s="1">
         <v>78.400000000000006</v>
       </c>
-      <c r="E193" s="1">
+      <c r="E193" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F193" s="1">
         <f t="shared" si="5"/>
         <v>652.81800000000021</v>
       </c>
-      <c r="F193">
-        <v>0</v>
-      </c>
       <c r="G193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="H193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>193</v>
       </c>
@@ -11502,18 +12003,21 @@
       <c r="D194" s="1">
         <v>86.6</v>
       </c>
-      <c r="E194" s="1">
+      <c r="E194" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F194" s="1">
         <f t="shared" si="5"/>
         <v>664.95200000000023</v>
       </c>
-      <c r="F194">
-        <v>0</v>
-      </c>
       <c r="G194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="H194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>194</v>
       </c>
@@ -11526,18 +12030,21 @@
       <c r="D195" s="1">
         <v>93.100000000000009</v>
       </c>
-      <c r="E195" s="1">
+      <c r="E195" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F195" s="1">
         <f t="shared" si="5"/>
         <v>677.02100000000019</v>
       </c>
-      <c r="F195">
-        <v>0</v>
-      </c>
       <c r="G195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
+      <c r="H195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>195</v>
       </c>
@@ -11550,18 +12057,21 @@
       <c r="D196" s="1">
         <v>97.399999999999991</v>
       </c>
-      <c r="E196" s="1">
+      <c r="E196" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F196" s="1">
         <f t="shared" si="5"/>
         <v>689.04700000000014</v>
       </c>
-      <c r="F196">
-        <v>0</v>
-      </c>
       <c r="G196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7">
+      <c r="H196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>196</v>
       </c>
@@ -11574,18 +12084,21 @@
       <c r="D197" s="1">
         <v>98.1</v>
       </c>
-      <c r="E197" s="1">
+      <c r="E197" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F197" s="1">
         <f t="shared" si="5"/>
         <v>701.06600000000014</v>
       </c>
-      <c r="F197">
-        <v>0</v>
-      </c>
       <c r="G197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
+      <c r="H197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>197</v>
       </c>
@@ -11598,18 +12111,21 @@
       <c r="D198" s="1">
         <v>99.7</v>
       </c>
-      <c r="E198" s="1">
+      <c r="E198" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F198" s="1">
         <f t="shared" si="5"/>
         <v>713.06900000000019</v>
       </c>
-      <c r="F198">
-        <v>0</v>
-      </c>
       <c r="G198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:7">
+      <c r="H198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>198</v>
       </c>
@@ -11622,18 +12138,21 @@
       <c r="D199" s="1">
         <v>99.8</v>
       </c>
-      <c r="E199" s="1">
+      <c r="E199" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F199" s="1">
         <f t="shared" si="5"/>
         <v>725.07100000000014</v>
       </c>
-      <c r="F199">
-        <v>0</v>
-      </c>
       <c r="G199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:7">
+      <c r="H199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>199</v>
       </c>
@@ -11646,18 +12165,21 @@
       <c r="D200" s="1">
         <v>97.899999999999991</v>
       </c>
-      <c r="E200" s="1">
+      <c r="E200" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F200" s="1">
         <f t="shared" si="5"/>
         <v>737.0920000000001</v>
       </c>
-      <c r="F200">
-        <v>0</v>
-      </c>
       <c r="G200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="H200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>200</v>
       </c>
@@ -11670,18 +12192,21 @@
       <c r="D201" s="1">
         <v>94.1</v>
       </c>
-      <c r="E201" s="1">
+      <c r="E201" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F201" s="1">
         <f t="shared" si="5"/>
         <v>749.15100000000007</v>
       </c>
-      <c r="F201">
-        <v>0</v>
-      </c>
       <c r="G201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7">
+      <c r="H201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>201</v>
       </c>
@@ -11694,18 +12219,21 @@
       <c r="D202" s="1">
         <v>88.7</v>
       </c>
-      <c r="E202" s="1">
+      <c r="E202" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F202" s="1">
         <f t="shared" si="5"/>
         <v>761.26400000000012</v>
       </c>
-      <c r="F202">
-        <v>0</v>
-      </c>
       <c r="G202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:7">
+      <c r="H202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>202</v>
       </c>
@@ -11718,18 +12246,21 @@
       <c r="D203" s="1">
         <v>81.8</v>
       </c>
-      <c r="E203" s="1">
+      <c r="E203" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F203" s="1">
         <f t="shared" si="5"/>
         <v>773.44600000000014</v>
       </c>
-      <c r="F203">
-        <v>0</v>
-      </c>
       <c r="G203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
+      <c r="H203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>203</v>
       </c>
@@ -11742,18 +12273,21 @@
       <c r="D204" s="1">
         <v>73.7</v>
       </c>
-      <c r="E204" s="1">
+      <c r="E204" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F204" s="1">
         <f t="shared" si="5"/>
         <v>785.70900000000017</v>
       </c>
-      <c r="F204">
-        <v>0</v>
-      </c>
       <c r="G204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:7">
+      <c r="H204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>204</v>
       </c>
@@ -11766,18 +12300,21 @@
       <c r="D205" s="1">
         <v>64.600000000000009</v>
       </c>
-      <c r="E205" s="1">
-        <f>(E204-8)-(D205/100)</f>
+      <c r="E205" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F205" s="1">
+        <f>(F204-8)-(D205/100)</f>
         <v>777.06300000000022</v>
       </c>
-      <c r="F205">
-        <v>0</v>
-      </c>
       <c r="G205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:7">
+      <c r="H205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>205</v>
       </c>
@@ -11790,18 +12327,21 @@
       <c r="D206" s="1">
         <v>54.900000000000006</v>
       </c>
-      <c r="E206" s="1">
-        <f t="shared" ref="E206:E208" si="6">(E205-8)-(D206/100)</f>
+      <c r="E206" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F206" s="1">
+        <f t="shared" ref="F206:F208" si="6">(F205-8)-(D206/100)</f>
         <v>768.51400000000024</v>
       </c>
-      <c r="F206">
-        <v>0</v>
-      </c>
       <c r="G206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:7">
+      <c r="H206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>206</v>
       </c>
@@ -11814,18 +12354,21 @@
       <c r="D207" s="1">
         <v>44.7</v>
       </c>
-      <c r="E207" s="1">
+      <c r="E207" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F207" s="1">
         <f t="shared" si="6"/>
         <v>760.06700000000023</v>
       </c>
-      <c r="F207">
-        <v>0</v>
-      </c>
       <c r="G207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:7">
+      <c r="H207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>207</v>
       </c>
@@ -11838,18 +12381,21 @@
       <c r="D208" s="1">
         <v>34.4</v>
       </c>
-      <c r="E208" s="1">
+      <c r="E208" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F208" s="1">
         <f t="shared" si="6"/>
         <v>751.72300000000018</v>
       </c>
-      <c r="F208">
-        <v>0</v>
-      </c>
       <c r="G208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:7">
+      <c r="H208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>208</v>
       </c>
@@ -11862,18 +12408,21 @@
       <c r="D209" s="1">
         <v>24.4</v>
       </c>
-      <c r="E209" s="1">
-        <f>(E208-18)-(D209/100)</f>
+      <c r="E209" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F209" s="1">
+        <f>(F208-18)-(D209/100)</f>
         <v>733.47900000000016</v>
       </c>
-      <c r="F209">
-        <v>0</v>
-      </c>
       <c r="G209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:7">
+      <c r="H209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>209</v>
       </c>
@@ -11886,18 +12435,21 @@
       <c r="D210" s="1">
         <v>15.4</v>
       </c>
-      <c r="E210" s="1">
-        <f t="shared" ref="E210:E216" si="7">(E209-18)-(D210/100)</f>
+      <c r="E210" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F210" s="1">
+        <f t="shared" ref="F210:F216" si="7">(F209-18)-(D210/100)</f>
         <v>715.32500000000016</v>
       </c>
-      <c r="F210">
-        <v>0</v>
-      </c>
       <c r="G210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:7">
+      <c r="H210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>210</v>
       </c>
@@ -11910,18 +12462,21 @@
       <c r="D211" s="1">
         <v>7.9</v>
       </c>
-      <c r="E211" s="1">
+      <c r="E211" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F211" s="1">
         <f t="shared" si="7"/>
         <v>697.24600000000021</v>
       </c>
-      <c r="F211">
-        <v>0</v>
-      </c>
       <c r="G211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:7">
+      <c r="H211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>211</v>
       </c>
@@ -11934,18 +12489,21 @@
       <c r="D212" s="1">
         <v>2.6</v>
       </c>
-      <c r="E212" s="1">
+      <c r="E212" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F212" s="1">
         <f t="shared" si="7"/>
         <v>679.22000000000025</v>
       </c>
-      <c r="F212">
-        <v>0</v>
-      </c>
       <c r="G212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:7">
+      <c r="H212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>212</v>
       </c>
@@ -11958,18 +12516,21 @@
       <c r="D213" s="1">
         <v>0.2</v>
       </c>
-      <c r="E213" s="1">
+      <c r="E213" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F213" s="1">
         <f t="shared" si="7"/>
         <v>661.2180000000003</v>
       </c>
-      <c r="F213">
-        <v>0</v>
-      </c>
       <c r="G213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:7">
+      <c r="H213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>213</v>
       </c>
@@ -11982,18 +12543,21 @@
       <c r="D214" s="1">
         <v>0.89999999999999991</v>
       </c>
-      <c r="E214" s="1">
+      <c r="E214" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F214" s="1">
         <f t="shared" si="7"/>
         <v>643.20900000000029</v>
       </c>
-      <c r="F214">
-        <v>0</v>
-      </c>
       <c r="G214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:7">
+      <c r="H214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>214</v>
       </c>
@@ -12006,18 +12570,21 @@
       <c r="D215" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E215" s="1">
+      <c r="E215" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F215" s="1">
         <f t="shared" si="7"/>
         <v>625.16000000000031</v>
       </c>
-      <c r="F215">
-        <v>0</v>
-      </c>
       <c r="G215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="H215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>215</v>
       </c>
@@ -12030,18 +12597,21 @@
       <c r="D216" s="1">
         <v>11.700000000000001</v>
       </c>
-      <c r="E216" s="1">
+      <c r="E216" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F216" s="1">
         <f t="shared" si="7"/>
         <v>607.04300000000035</v>
       </c>
-      <c r="F216">
-        <v>0</v>
-      </c>
       <c r="G216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:7">
+      <c r="H216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>216</v>
       </c>
@@ -12054,18 +12624,21 @@
       <c r="D217" s="1">
         <v>20.8</v>
       </c>
-      <c r="E217" s="1">
-        <f>(E216-23)-(D217/100)</f>
+      <c r="E217" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F217" s="1">
+        <f>(F216-23)-(D217/100)</f>
         <v>583.83500000000038</v>
       </c>
-      <c r="F217">
-        <v>0</v>
-      </c>
       <c r="G217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:7">
+      <c r="H217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>217</v>
       </c>
@@ -12078,18 +12651,21 @@
       <c r="D218" s="1">
         <v>31.4</v>
       </c>
-      <c r="E218" s="1">
-        <f t="shared" ref="E218:E231" si="8">(E217-23)-(D218/100)</f>
+      <c r="E218" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F218" s="1">
+        <f t="shared" ref="F218:F222" si="8">(F217-23)-(D218/100)</f>
         <v>560.52100000000041</v>
       </c>
-      <c r="F218">
-        <v>0</v>
-      </c>
       <c r="G218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:7">
+      <c r="H218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>218</v>
       </c>
@@ -12102,18 +12678,21 @@
       <c r="D219" s="1">
         <v>42.699999999999996</v>
       </c>
-      <c r="E219" s="1">
+      <c r="E219" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F219" s="1">
         <f t="shared" si="8"/>
         <v>537.09400000000039</v>
       </c>
-      <c r="F219">
-        <v>0</v>
-      </c>
       <c r="G219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:7">
+      <c r="H219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>219</v>
       </c>
@@ -12126,18 +12705,21 @@
       <c r="D220" s="1">
         <v>54.1</v>
       </c>
-      <c r="E220" s="1">
+      <c r="E220" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F220" s="1">
         <f t="shared" si="8"/>
         <v>513.55300000000034</v>
       </c>
-      <c r="F220">
-        <v>0</v>
-      </c>
       <c r="G220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:7">
+      <c r="H220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>220</v>
       </c>
@@ -12150,18 +12732,21 @@
       <c r="D221" s="1">
         <v>65</v>
       </c>
-      <c r="E221" s="1">
+      <c r="E221" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F221" s="1">
         <f t="shared" si="8"/>
         <v>489.90300000000036</v>
       </c>
-      <c r="F221">
-        <v>0</v>
-      </c>
       <c r="G221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:7">
+      <c r="H221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>221</v>
       </c>
@@ -12174,18 +12759,21 @@
       <c r="D222" s="1">
         <v>74.8</v>
       </c>
-      <c r="E222" s="1">
+      <c r="E222" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F222" s="1">
         <f t="shared" si="8"/>
         <v>466.15500000000037</v>
       </c>
-      <c r="F222">
-        <v>0</v>
-      </c>
       <c r="G222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:7">
+      <c r="H222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>222</v>
       </c>
@@ -12198,18 +12786,21 @@
       <c r="D223" s="1">
         <v>83.399999999999991</v>
       </c>
-      <c r="E223" s="1">
-        <f>(E222-35)-(D223/100)</f>
+      <c r="E223" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F223" s="1">
+        <f>(F222-35)-(D223/100)</f>
         <v>430.32100000000037</v>
       </c>
-      <c r="F223">
-        <v>0</v>
-      </c>
       <c r="G223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:7">
+      <c r="H223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>223</v>
       </c>
@@ -12222,18 +12813,21 @@
       <c r="D224" s="1">
         <v>90.3</v>
       </c>
-      <c r="E224" s="1">
-        <f t="shared" ref="E224:E234" si="9">(E223-35)-(D224/100)</f>
+      <c r="E224" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F224" s="1">
+        <f t="shared" ref="F224:F234" si="9">(F223-35)-(D224/100)</f>
         <v>394.41800000000035</v>
       </c>
-      <c r="F224">
-        <v>0</v>
-      </c>
       <c r="G224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:7">
+      <c r="H224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>224</v>
       </c>
@@ -12246,18 +12840,21 @@
       <c r="D225" s="1">
         <v>95.399999999999991</v>
       </c>
-      <c r="E225" s="1">
+      <c r="E225" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F225" s="1">
         <f t="shared" si="9"/>
         <v>358.46400000000034</v>
       </c>
-      <c r="F225">
-        <v>0</v>
-      </c>
       <c r="G225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:7">
+      <c r="H225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>225</v>
       </c>
@@ -12270,18 +12867,21 @@
       <c r="D226" s="1">
         <v>97.6</v>
       </c>
-      <c r="E226" s="1">
+      <c r="E226" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F226" s="1">
         <f t="shared" si="9"/>
         <v>322.48800000000034</v>
       </c>
-      <c r="F226">
-        <v>0</v>
-      </c>
       <c r="G226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:7">
+      <c r="H226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>226</v>
       </c>
@@ -12294,18 +12894,21 @@
       <c r="D227" s="1">
         <v>98.6</v>
       </c>
-      <c r="E227" s="1">
+      <c r="E227" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F227" s="1">
         <f t="shared" si="9"/>
         <v>286.50200000000035</v>
       </c>
-      <c r="F227">
-        <v>0</v>
-      </c>
       <c r="G227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:7">
+      <c r="H227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>227</v>
       </c>
@@ -12318,18 +12921,21 @@
       <c r="D228" s="1">
         <v>99.9</v>
       </c>
-      <c r="E228" s="1">
+      <c r="E228" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F228" s="1">
         <f t="shared" si="9"/>
         <v>250.50300000000036</v>
       </c>
-      <c r="F228">
-        <v>0</v>
-      </c>
       <c r="G228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:7">
+      <c r="H228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>228</v>
       </c>
@@ -12342,18 +12948,21 @@
       <c r="D229" s="1">
         <v>99.2</v>
       </c>
-      <c r="E229" s="1">
+      <c r="E229" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F229" s="1">
         <f t="shared" si="9"/>
         <v>214.51100000000037</v>
       </c>
-      <c r="F229">
-        <v>0</v>
-      </c>
       <c r="G229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:7">
+      <c r="H229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>229</v>
       </c>
@@ -12366,18 +12975,21 @@
       <c r="D230" s="1">
         <v>96.7</v>
       </c>
-      <c r="E230" s="1">
-        <f>(E229-35)-(D230/100)</f>
+      <c r="E230" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F230" s="1">
+        <f>(F229-35)-(D230/100)</f>
         <v>178.54400000000035</v>
       </c>
-      <c r="F230">
-        <v>0</v>
-      </c>
       <c r="G230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:7">
+      <c r="H230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>230</v>
       </c>
@@ -12390,18 +13002,21 @@
       <c r="D231" s="1">
         <v>92.4</v>
       </c>
-      <c r="E231" s="1">
+      <c r="E231" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F231" s="1">
         <f t="shared" si="9"/>
         <v>142.62000000000035</v>
       </c>
-      <c r="F231">
-        <v>0</v>
-      </c>
       <c r="G231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:7">
+      <c r="H231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>231</v>
       </c>
@@ -12414,18 +13029,21 @@
       <c r="D232" s="1">
         <v>86.5</v>
       </c>
-      <c r="E232" s="1">
+      <c r="E232" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F232" s="1">
         <f t="shared" si="9"/>
         <v>106.75500000000035</v>
       </c>
-      <c r="F232">
-        <v>0</v>
-      </c>
       <c r="G232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:7">
+      <c r="H232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>232</v>
       </c>
@@ -12438,18 +13056,21 @@
       <c r="D233" s="1">
         <v>79.100000000000009</v>
       </c>
-      <c r="E233" s="1">
-        <f>(E232-35)-(D233/100)</f>
+      <c r="E233" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F233" s="1">
+        <f>(F232-35)-(D233/100)</f>
         <v>70.964000000000354</v>
       </c>
-      <c r="F233">
-        <v>0</v>
-      </c>
       <c r="G233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:7">
+      <c r="H233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234">
         <v>233</v>
       </c>
@@ -12462,18 +13083,21 @@
       <c r="D234" s="1">
         <v>70.5</v>
       </c>
-      <c r="E234" s="1">
+      <c r="E234" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F234" s="1">
         <f t="shared" si="9"/>
         <v>35.259000000000356</v>
       </c>
-      <c r="F234">
-        <v>0</v>
-      </c>
       <c r="G234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:7">
+      <c r="H234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>234</v>
       </c>
@@ -12486,17 +13110,20 @@
       <c r="D235" s="1">
         <v>60.9</v>
       </c>
-      <c r="E235" s="1">
+      <c r="E235" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F235" s="1">
         <v>7</v>
       </c>
-      <c r="F235">
-        <v>0</v>
-      </c>
       <c r="G235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:7">
+      <c r="H235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>235</v>
       </c>
@@ -12512,14 +13139,17 @@
       <c r="E236" s="1">
         <v>0</v>
       </c>
-      <c r="F236">
+      <c r="F236" s="1">
         <v>0</v>
       </c>
       <c r="G236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:7">
+      <c r="H236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>236</v>
       </c>
@@ -12535,14 +13165,17 @@
       <c r="E237" s="1">
         <v>0</v>
       </c>
-      <c r="F237">
+      <c r="F237" s="1">
         <v>0</v>
       </c>
       <c r="G237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:7">
+      <c r="H237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>237</v>
       </c>
@@ -12558,14 +13191,17 @@
       <c r="E238" s="1">
         <v>0</v>
       </c>
-      <c r="F238">
+      <c r="F238" s="1">
         <v>0</v>
       </c>
       <c r="G238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:7">
+      <c r="H238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>238</v>
       </c>
@@ -12581,14 +13217,17 @@
       <c r="E239" s="1">
         <v>0</v>
       </c>
-      <c r="F239">
+      <c r="F239" s="1">
         <v>0</v>
       </c>
       <c r="G239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:7">
+      <c r="H239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>239</v>
       </c>
@@ -12604,14 +13243,17 @@
       <c r="E240" s="1">
         <v>0</v>
       </c>
-      <c r="F240">
+      <c r="F240" s="1">
         <v>0</v>
       </c>
       <c r="G240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:7">
+      <c r="H240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>240</v>
       </c>
@@ -12627,14 +13269,17 @@
       <c r="E241" s="1">
         <v>0</v>
       </c>
-      <c r="F241">
+      <c r="F241" s="1">
         <v>0</v>
       </c>
       <c r="G241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:7">
+      <c r="H241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>241</v>
       </c>
@@ -12650,14 +13295,17 @@
       <c r="E242" s="1">
         <v>0</v>
       </c>
-      <c r="F242">
+      <c r="F242" s="1">
         <v>0</v>
       </c>
       <c r="G242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:7">
+      <c r="H242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>242</v>
       </c>
@@ -12673,14 +13321,17 @@
       <c r="E243" s="1">
         <v>0</v>
       </c>
-      <c r="F243">
+      <c r="F243" s="1">
         <v>0</v>
       </c>
       <c r="G243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:7">
+      <c r="H243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>243</v>
       </c>
@@ -12696,14 +13347,17 @@
       <c r="E244" s="1">
         <v>0</v>
       </c>
-      <c r="F244">
+      <c r="F244" s="1">
         <v>0</v>
       </c>
       <c r="G244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:7">
+      <c r="H244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>244</v>
       </c>
@@ -12719,14 +13373,17 @@
       <c r="E245" s="1">
         <v>0</v>
       </c>
-      <c r="F245">
+      <c r="F245" s="1">
         <v>0</v>
       </c>
       <c r="G245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:7">
+      <c r="H245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>245</v>
       </c>
@@ -12742,14 +13399,17 @@
       <c r="E246" s="1">
         <v>0</v>
       </c>
-      <c r="F246">
+      <c r="F246" s="1">
         <v>0</v>
       </c>
       <c r="G246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:7">
+      <c r="H246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>246</v>
       </c>
@@ -12765,14 +13425,17 @@
       <c r="E247" s="1">
         <v>0</v>
       </c>
-      <c r="F247">
+      <c r="F247" s="1">
         <v>0</v>
       </c>
       <c r="G247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:7">
+      <c r="H247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>247</v>
       </c>
@@ -12788,14 +13451,17 @@
       <c r="E248" s="1">
         <v>0</v>
       </c>
-      <c r="F248">
+      <c r="F248" s="1">
         <v>0</v>
       </c>
       <c r="G248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:7">
+      <c r="H248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>248</v>
       </c>
@@ -12811,14 +13477,17 @@
       <c r="E249" s="1">
         <v>0</v>
       </c>
-      <c r="F249">
+      <c r="F249" s="1">
         <v>0</v>
       </c>
       <c r="G249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:7">
+      <c r="H249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>249</v>
       </c>
@@ -12834,14 +13503,17 @@
       <c r="E250" s="1">
         <v>0</v>
       </c>
-      <c r="F250">
+      <c r="F250" s="1">
         <v>0</v>
       </c>
       <c r="G250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:7">
+      <c r="H250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>250</v>
       </c>
@@ -12857,14 +13529,17 @@
       <c r="E251" s="1">
         <v>0</v>
       </c>
-      <c r="F251">
+      <c r="F251" s="1">
         <v>0</v>
       </c>
       <c r="G251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:7">
+      <c r="H251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>251</v>
       </c>
@@ -12880,14 +13555,17 @@
       <c r="E252" s="1">
         <v>0</v>
       </c>
-      <c r="F252">
+      <c r="F252" s="1">
         <v>0</v>
       </c>
       <c r="G252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:7">
+      <c r="H252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>252</v>
       </c>
@@ -12903,14 +13581,17 @@
       <c r="E253" s="1">
         <v>0</v>
       </c>
-      <c r="F253">
+      <c r="F253" s="1">
         <v>0</v>
       </c>
       <c r="G253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:7">
+      <c r="H253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>253</v>
       </c>
@@ -12926,14 +13607,17 @@
       <c r="E254" s="1">
         <v>0</v>
       </c>
-      <c r="F254">
+      <c r="F254" s="1">
         <v>0</v>
       </c>
       <c r="G254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:7">
+      <c r="H254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>254</v>
       </c>
@@ -12949,14 +13633,17 @@
       <c r="E255" s="1">
         <v>0</v>
       </c>
-      <c r="F255">
+      <c r="F255" s="1">
         <v>0</v>
       </c>
       <c r="G255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:7">
+      <c r="H255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>255</v>
       </c>
@@ -12972,14 +13659,17 @@
       <c r="E256" s="1">
         <v>0</v>
       </c>
-      <c r="F256">
+      <c r="F256" s="1">
         <v>0</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:7">
+      <c r="H256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>256</v>
       </c>
@@ -12995,14 +13685,17 @@
       <c r="E257" s="1">
         <v>0</v>
       </c>
-      <c r="F257">
+      <c r="F257" s="1">
         <v>0</v>
       </c>
       <c r="G257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:7">
+      <c r="H257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>257</v>
       </c>
@@ -13018,14 +13711,17 @@
       <c r="E258" s="1">
         <v>0</v>
       </c>
-      <c r="F258">
+      <c r="F258" s="1">
         <v>0</v>
       </c>
       <c r="G258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:7">
+      <c r="H258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>258</v>
       </c>
@@ -13041,14 +13737,17 @@
       <c r="E259" s="1">
         <v>0</v>
       </c>
-      <c r="F259">
+      <c r="F259" s="1">
         <v>0</v>
       </c>
       <c r="G259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:7">
+      <c r="H259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>259</v>
       </c>
@@ -13064,14 +13763,17 @@
       <c r="E260" s="1">
         <v>0</v>
       </c>
-      <c r="F260">
+      <c r="F260" s="1">
         <v>0</v>
       </c>
       <c r="G260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:7">
+      <c r="H260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>260</v>
       </c>
@@ -13087,14 +13789,17 @@
       <c r="E261" s="1">
         <v>0</v>
       </c>
-      <c r="F261">
+      <c r="F261" s="1">
         <v>0</v>
       </c>
       <c r="G261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:7">
+      <c r="H261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>261</v>
       </c>
@@ -13110,14 +13815,17 @@
       <c r="E262" s="1">
         <v>0</v>
       </c>
-      <c r="F262">
+      <c r="F262" s="1">
         <v>0</v>
       </c>
       <c r="G262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:7">
+      <c r="H262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>262</v>
       </c>
@@ -13133,14 +13841,17 @@
       <c r="E263" s="1">
         <v>0</v>
       </c>
-      <c r="F263">
+      <c r="F263" s="1">
         <v>0</v>
       </c>
       <c r="G263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:7">
+      <c r="H263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>263</v>
       </c>
@@ -13156,14 +13867,17 @@
       <c r="E264" s="1">
         <v>0</v>
       </c>
-      <c r="F264">
+      <c r="F264" s="1">
         <v>0</v>
       </c>
       <c r="G264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:7">
+      <c r="H264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>264</v>
       </c>
@@ -13179,14 +13893,17 @@
       <c r="E265" s="1">
         <v>0</v>
       </c>
-      <c r="F265">
+      <c r="F265" s="1">
         <v>0</v>
       </c>
       <c r="G265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:7">
+      <c r="H265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>265</v>
       </c>
@@ -13202,14 +13919,17 @@
       <c r="E266" s="1">
         <v>0</v>
       </c>
-      <c r="F266">
+      <c r="F266" s="1">
         <v>0</v>
       </c>
       <c r="G266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:7">
+      <c r="H266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>266</v>
       </c>
@@ -13225,14 +13945,17 @@
       <c r="E267" s="1">
         <v>0</v>
       </c>
-      <c r="F267">
+      <c r="F267" s="1">
         <v>0</v>
       </c>
       <c r="G267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:7">
+      <c r="H267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>267</v>
       </c>
@@ -13248,14 +13971,17 @@
       <c r="E268" s="1">
         <v>0</v>
       </c>
-      <c r="F268">
+      <c r="F268" s="1">
         <v>0</v>
       </c>
       <c r="G268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:7">
+      <c r="H268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>268</v>
       </c>
@@ -13271,14 +13997,17 @@
       <c r="E269" s="1">
         <v>0</v>
       </c>
-      <c r="F269">
+      <c r="F269" s="1">
         <v>0</v>
       </c>
       <c r="G269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:7">
+      <c r="H269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270">
         <v>269</v>
       </c>
@@ -13294,14 +14023,17 @@
       <c r="E270" s="1">
         <v>0</v>
       </c>
-      <c r="F270">
+      <c r="F270" s="1">
         <v>0</v>
       </c>
       <c r="G270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:7">
+      <c r="H270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271">
         <v>270</v>
       </c>
@@ -13317,14 +14049,17 @@
       <c r="E271" s="1">
         <v>0</v>
       </c>
-      <c r="F271">
+      <c r="F271" s="1">
         <v>0</v>
       </c>
       <c r="G271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:7">
+      <c r="H271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272">
         <v>271</v>
       </c>
@@ -13340,14 +14075,17 @@
       <c r="E272" s="1">
         <v>0</v>
       </c>
-      <c r="F272">
+      <c r="F272" s="1">
         <v>0</v>
       </c>
       <c r="G272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:7">
+      <c r="H272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273">
         <v>272</v>
       </c>
@@ -13363,14 +14101,17 @@
       <c r="E273" s="1">
         <v>0</v>
       </c>
-      <c r="F273">
+      <c r="F273" s="1">
         <v>0</v>
       </c>
       <c r="G273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:7">
+      <c r="H273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>273</v>
       </c>
@@ -13386,14 +14127,17 @@
       <c r="E274" s="1">
         <v>0</v>
       </c>
-      <c r="F274">
+      <c r="F274" s="1">
         <v>0</v>
       </c>
       <c r="G274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:7">
+      <c r="H274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>274</v>
       </c>
@@ -13409,14 +14153,17 @@
       <c r="E275" s="1">
         <v>0</v>
       </c>
-      <c r="F275">
+      <c r="F275" s="1">
         <v>0</v>
       </c>
       <c r="G275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:7">
+      <c r="H275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>275</v>
       </c>
@@ -13432,14 +14179,17 @@
       <c r="E276" s="1">
         <v>0</v>
       </c>
-      <c r="F276">
+      <c r="F276" s="1">
         <v>0</v>
       </c>
       <c r="G276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:7">
+      <c r="H276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>276</v>
       </c>
@@ -13455,14 +14205,17 @@
       <c r="E277" s="1">
         <v>0</v>
       </c>
-      <c r="F277">
+      <c r="F277" s="1">
         <v>0</v>
       </c>
       <c r="G277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:7">
+      <c r="H277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>277</v>
       </c>
@@ -13478,14 +14231,17 @@
       <c r="E278" s="1">
         <v>0</v>
       </c>
-      <c r="F278">
+      <c r="F278" s="1">
         <v>0</v>
       </c>
       <c r="G278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:7">
+      <c r="H278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>278</v>
       </c>
@@ -13501,14 +14257,17 @@
       <c r="E279" s="1">
         <v>0</v>
       </c>
-      <c r="F279">
+      <c r="F279" s="1">
         <v>0</v>
       </c>
       <c r="G279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:7">
+      <c r="H279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>279</v>
       </c>
@@ -13524,14 +14283,17 @@
       <c r="E280" s="1">
         <v>0</v>
       </c>
-      <c r="F280">
+      <c r="F280" s="1">
         <v>0</v>
       </c>
       <c r="G280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:7">
+      <c r="H280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>280</v>
       </c>
@@ -13547,14 +14309,17 @@
       <c r="E281" s="1">
         <v>0</v>
       </c>
-      <c r="F281">
+      <c r="F281" s="1">
         <v>0</v>
       </c>
       <c r="G281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:7">
+      <c r="H281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>281</v>
       </c>
@@ -13570,14 +14335,17 @@
       <c r="E282" s="1">
         <v>0</v>
       </c>
-      <c r="F282">
+      <c r="F282" s="1">
         <v>0</v>
       </c>
       <c r="G282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:7">
+      <c r="H282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>282</v>
       </c>
@@ -13593,14 +14361,17 @@
       <c r="E283" s="1">
         <v>0</v>
       </c>
-      <c r="F283">
+      <c r="F283" s="1">
         <v>0</v>
       </c>
       <c r="G283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:7">
+      <c r="H283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>283</v>
       </c>
@@ -13616,14 +14387,17 @@
       <c r="E284" s="1">
         <v>0</v>
       </c>
-      <c r="F284">
+      <c r="F284" s="1">
         <v>0</v>
       </c>
       <c r="G284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:7">
+      <c r="H284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>284</v>
       </c>
@@ -13639,14 +14413,17 @@
       <c r="E285" s="1">
         <v>0</v>
       </c>
-      <c r="F285">
+      <c r="F285" s="1">
         <v>0</v>
       </c>
       <c r="G285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:7">
+      <c r="H285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>285</v>
       </c>
@@ -13662,14 +14439,17 @@
       <c r="E286" s="1">
         <v>0</v>
       </c>
-      <c r="F286">
+      <c r="F286" s="1">
         <v>0</v>
       </c>
       <c r="G286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:7">
+      <c r="H286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>286</v>
       </c>
@@ -13685,14 +14465,17 @@
       <c r="E287" s="1">
         <v>0</v>
       </c>
-      <c r="F287">
+      <c r="F287" s="1">
         <v>0</v>
       </c>
       <c r="G287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:7">
+      <c r="H287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>287</v>
       </c>
@@ -13708,14 +14491,17 @@
       <c r="E288" s="1">
         <v>0</v>
       </c>
-      <c r="F288">
+      <c r="F288" s="1">
         <v>0</v>
       </c>
       <c r="G288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:7">
+      <c r="H288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>288</v>
       </c>
@@ -13731,14 +14517,17 @@
       <c r="E289" s="1">
         <v>0</v>
       </c>
-      <c r="F289">
+      <c r="F289" s="1">
         <v>0</v>
       </c>
       <c r="G289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:7">
+      <c r="H289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>289</v>
       </c>
@@ -13754,14 +14543,17 @@
       <c r="E290" s="1">
         <v>0</v>
       </c>
-      <c r="F290">
+      <c r="F290" s="1">
         <v>0</v>
       </c>
       <c r="G290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:7">
+      <c r="H290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>290</v>
       </c>
@@ -13777,14 +14569,17 @@
       <c r="E291" s="1">
         <v>0</v>
       </c>
-      <c r="F291">
+      <c r="F291" s="1">
         <v>0</v>
       </c>
       <c r="G291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:7">
+      <c r="H291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>291</v>
       </c>
@@ -13800,14 +14595,17 @@
       <c r="E292" s="1">
         <v>0</v>
       </c>
-      <c r="F292">
+      <c r="F292" s="1">
         <v>0</v>
       </c>
       <c r="G292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:7">
+      <c r="H292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>292</v>
       </c>
@@ -13820,17 +14618,20 @@
       <c r="D293" s="1">
         <v>71.2</v>
       </c>
-      <c r="E293" s="1">
-        <v>0</v>
-      </c>
-      <c r="F293">
+      <c r="E293" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F293" s="1">
         <v>0</v>
       </c>
       <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>293</v>
       </c>
@@ -13843,17 +14644,20 @@
       <c r="D294" s="1">
         <v>60.699999999999996</v>
       </c>
-      <c r="E294" s="1">
-        <v>0</v>
-      </c>
-      <c r="F294">
+      <c r="E294" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F294" s="1">
         <v>0</v>
       </c>
       <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>294</v>
       </c>
@@ -13866,17 +14670,20 @@
       <c r="D295" s="1">
         <v>49.4</v>
       </c>
-      <c r="E295" s="1">
-        <v>0</v>
-      </c>
-      <c r="F295">
+      <c r="E295" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F295" s="1">
         <v>0</v>
       </c>
       <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>295</v>
       </c>
@@ -13889,18 +14696,21 @@
       <c r="D296" s="1">
         <v>37.799999999999997</v>
       </c>
-      <c r="E296" s="1">
-        <v>0</v>
-      </c>
-      <c r="F296">
+      <c r="E296" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F296" s="1">
         <v>0</v>
       </c>
       <c r="G296">
-        <f>G295+57</f>
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <f>H295+57</f>
         <v>80</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>296</v>
       </c>
@@ -13913,18 +14723,21 @@
       <c r="D297" s="1">
         <v>26.6</v>
       </c>
-      <c r="E297" s="1">
-        <v>0</v>
-      </c>
-      <c r="F297">
+      <c r="E297" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F297" s="1">
         <v>0</v>
       </c>
       <c r="G297">
-        <f t="shared" ref="G297:G304" si="10">G296+57</f>
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <f t="shared" ref="H297:H299" si="10">H296+57</f>
         <v>137</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>297</v>
       </c>
@@ -13937,18 +14750,21 @@
       <c r="D298" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="E298" s="1">
-        <v>0</v>
-      </c>
-      <c r="F298">
+      <c r="E298" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F298" s="1">
         <v>0</v>
       </c>
       <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
         <f t="shared" si="10"/>
         <v>194</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>298</v>
       </c>
@@ -13961,18 +14777,21 @@
       <c r="D299" s="1">
         <v>8.5</v>
       </c>
-      <c r="E299" s="1">
-        <v>0</v>
-      </c>
-      <c r="F299">
+      <c r="E299" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F299" s="1">
         <v>0</v>
       </c>
       <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
         <f t="shared" si="10"/>
         <v>251</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>299</v>
       </c>
@@ -13985,18 +14804,21 @@
       <c r="D300" s="1">
         <v>2.9000000000000004</v>
       </c>
-      <c r="E300" s="1">
-        <v>0</v>
-      </c>
-      <c r="F300">
+      <c r="E300" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F300" s="1">
         <v>0</v>
       </c>
       <c r="G300">
-        <f>G299+31</f>
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <f>H299+31</f>
         <v>282</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>300</v>
       </c>
@@ -14009,18 +14831,21 @@
       <c r="D301" s="1">
         <v>0.3</v>
       </c>
-      <c r="E301" s="1">
-        <v>0</v>
-      </c>
-      <c r="F301">
+      <c r="E301" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F301" s="1">
         <v>0</v>
       </c>
       <c r="G301">
-        <f t="shared" ref="G301:G304" si="11">G300+31</f>
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <f t="shared" ref="H301" si="11">H300+31</f>
         <v>313</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>301</v>
       </c>
@@ -14033,18 +14858,21 @@
       <c r="D302" s="1">
         <v>0.8</v>
       </c>
-      <c r="E302" s="1">
-        <v>0</v>
-      </c>
-      <c r="F302">
+      <c r="E302" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F302" s="1">
         <v>0</v>
       </c>
       <c r="G302">
-        <f>G301-9</f>
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <f>H301-9</f>
         <v>304</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>302</v>
       </c>
@@ -14057,18 +14885,21 @@
       <c r="D303" s="1">
         <v>4.3</v>
       </c>
-      <c r="E303" s="1">
-        <v>0</v>
-      </c>
-      <c r="F303">
+      <c r="E303" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F303" s="1">
         <v>0</v>
       </c>
       <c r="G303">
-        <f t="shared" ref="G303:G304" si="12">G302-9</f>
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <f t="shared" ref="H303:H304" si="12">H302-9</f>
         <v>295</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>303</v>
       </c>
@@ -14081,18 +14912,21 @@
       <c r="D304" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="E304" s="1">
-        <v>0</v>
-      </c>
-      <c r="F304">
+      <c r="E304" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F304" s="1">
         <v>0</v>
       </c>
       <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
         <f t="shared" si="12"/>
         <v>286</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>304</v>
       </c>
@@ -14105,18 +14939,21 @@
       <c r="D305" s="1">
         <v>17.899999999999999</v>
       </c>
-      <c r="E305" s="1">
-        <v>0</v>
-      </c>
-      <c r="F305">
+      <c r="E305" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F305" s="1">
         <v>0</v>
       </c>
       <c r="G305">
-        <f>G304-62</f>
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <f>H304-62</f>
         <v>224</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>305</v>
       </c>
@@ -14129,18 +14966,21 @@
       <c r="D306" s="1">
         <v>27</v>
       </c>
-      <c r="E306" s="1">
-        <v>0</v>
-      </c>
-      <c r="F306">
+      <c r="E306" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F306" s="1">
         <v>0</v>
       </c>
       <c r="G306">
-        <f>G305-62</f>
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <f>H305-62</f>
         <v>162</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>306</v>
       </c>
@@ -14153,18 +14993,21 @@
       <c r="D307" s="1">
         <v>36.700000000000003</v>
       </c>
-      <c r="E307" s="1">
-        <v>0</v>
-      </c>
-      <c r="F307">
+      <c r="E307" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F307" s="1">
         <v>0</v>
       </c>
       <c r="G307">
-        <f>G306-73</f>
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <f>H306-73</f>
         <v>89</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>307</v>
       </c>
@@ -14177,18 +15020,21 @@
       <c r="D308" s="1">
         <v>46.7</v>
       </c>
-      <c r="E308" s="1">
-        <v>0</v>
-      </c>
-      <c r="F308">
+      <c r="E308" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F308" s="1">
         <v>0</v>
       </c>
       <c r="G308">
-        <f t="shared" ref="G308:G309" si="13">G307-73</f>
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <f t="shared" ref="H308" si="13">H307-73</f>
         <v>16</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>308</v>
       </c>
@@ -14201,17 +15047,20 @@
       <c r="D309" s="1">
         <v>56.699999999999996</v>
       </c>
-      <c r="E309" s="1">
-        <v>0</v>
-      </c>
-      <c r="F309">
+      <c r="E309" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F309" s="1">
         <v>0</v>
       </c>
       <c r="G309">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H309">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>309</v>
       </c>
@@ -14227,14 +15076,17 @@
       <c r="E310" s="1">
         <v>0</v>
       </c>
-      <c r="F310">
+      <c r="F310" s="1">
         <v>0</v>
       </c>
       <c r="G310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:7">
+      <c r="H310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>310</v>
       </c>
@@ -14250,14 +15102,17 @@
       <c r="E311" s="1">
         <v>0</v>
       </c>
-      <c r="F311">
+      <c r="F311" s="1">
         <v>0</v>
       </c>
       <c r="G311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:7">
+      <c r="H311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>311</v>
       </c>
@@ -14273,14 +15128,17 @@
       <c r="E312" s="1">
         <v>0</v>
       </c>
-      <c r="F312">
+      <c r="F312" s="1">
         <v>0</v>
       </c>
       <c r="G312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:7">
+      <c r="H312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>312</v>
       </c>
@@ -14296,14 +15154,17 @@
       <c r="E313" s="1">
         <v>0</v>
       </c>
-      <c r="F313">
+      <c r="F313" s="1">
         <v>0</v>
       </c>
       <c r="G313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:7">
+      <c r="H313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>313</v>
       </c>
@@ -14319,14 +15180,17 @@
       <c r="E314" s="1">
         <v>0</v>
       </c>
-      <c r="F314">
+      <c r="F314" s="1">
         <v>0</v>
       </c>
       <c r="G314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:7">
+      <c r="H314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>314</v>
       </c>
@@ -14342,14 +15206,17 @@
       <c r="E315" s="1">
         <v>0</v>
       </c>
-      <c r="F315">
+      <c r="F315" s="1">
         <v>0</v>
       </c>
       <c r="G315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:7">
+      <c r="H315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>315</v>
       </c>
@@ -14365,14 +15232,17 @@
       <c r="E316" s="1">
         <v>0</v>
       </c>
-      <c r="F316">
+      <c r="F316" s="1">
         <v>0</v>
       </c>
       <c r="G316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:7">
+      <c r="H316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>316</v>
       </c>
@@ -14388,14 +15258,17 @@
       <c r="E317" s="1">
         <v>0</v>
       </c>
-      <c r="F317">
+      <c r="F317" s="1">
         <v>0</v>
       </c>
       <c r="G317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:7">
+      <c r="H317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>317</v>
       </c>
@@ -14411,14 +15284,17 @@
       <c r="E318" s="1">
         <v>0</v>
       </c>
-      <c r="F318">
+      <c r="F318" s="1">
         <v>0</v>
       </c>
       <c r="G318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:7">
+      <c r="H318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>318</v>
       </c>
@@ -14434,14 +15310,17 @@
       <c r="E319" s="1">
         <v>0</v>
       </c>
-      <c r="F319">
+      <c r="F319" s="1">
         <v>0</v>
       </c>
       <c r="G319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:7">
+      <c r="H319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>319</v>
       </c>
@@ -14457,14 +15336,17 @@
       <c r="E320" s="1">
         <v>0</v>
       </c>
-      <c r="F320">
+      <c r="F320" s="1">
         <v>0</v>
       </c>
       <c r="G320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:7">
+      <c r="H320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>320</v>
       </c>
@@ -14480,14 +15362,17 @@
       <c r="E321" s="1">
         <v>0</v>
       </c>
-      <c r="F321">
+      <c r="F321" s="1">
         <v>0</v>
       </c>
       <c r="G321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:7">
+      <c r="H321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>321</v>
       </c>
@@ -14503,14 +15388,17 @@
       <c r="E322" s="1">
         <v>0</v>
       </c>
-      <c r="F322">
+      <c r="F322" s="1">
         <v>0</v>
       </c>
       <c r="G322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:7">
+      <c r="H322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>322</v>
       </c>
@@ -14526,14 +15414,17 @@
       <c r="E323" s="1">
         <v>0</v>
       </c>
-      <c r="F323">
+      <c r="F323" s="1">
         <v>0</v>
       </c>
       <c r="G323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:7">
+      <c r="H323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>323</v>
       </c>
@@ -14549,14 +15440,17 @@
       <c r="E324" s="1">
         <v>0</v>
       </c>
-      <c r="F324">
+      <c r="F324" s="1">
         <v>0</v>
       </c>
       <c r="G324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:7">
+      <c r="H324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>324</v>
       </c>
@@ -14572,14 +15466,17 @@
       <c r="E325" s="1">
         <v>0</v>
       </c>
-      <c r="F325">
+      <c r="F325" s="1">
         <v>0</v>
       </c>
       <c r="G325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:7">
+      <c r="H325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>325</v>
       </c>
@@ -14595,14 +15492,17 @@
       <c r="E326" s="1">
         <v>0</v>
       </c>
-      <c r="F326">
+      <c r="F326" s="1">
         <v>0</v>
       </c>
       <c r="G326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:7">
+      <c r="H326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>326</v>
       </c>
@@ -14618,14 +15518,17 @@
       <c r="E327" s="1">
         <v>0</v>
       </c>
-      <c r="F327">
+      <c r="F327" s="1">
         <v>0</v>
       </c>
       <c r="G327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:7">
+      <c r="H327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>327</v>
       </c>
@@ -14641,14 +15544,17 @@
       <c r="E328" s="1">
         <v>0</v>
       </c>
-      <c r="F328">
+      <c r="F328" s="1">
         <v>0</v>
       </c>
       <c r="G328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:7">
+      <c r="H328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>328</v>
       </c>
@@ -14664,14 +15570,17 @@
       <c r="E329" s="1">
         <v>0</v>
       </c>
-      <c r="F329">
+      <c r="F329" s="1">
         <v>0</v>
       </c>
       <c r="G329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:7">
+      <c r="H329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>329</v>
       </c>
@@ -14687,14 +15596,17 @@
       <c r="E330" s="1">
         <v>0</v>
       </c>
-      <c r="F330">
+      <c r="F330" s="1">
         <v>0</v>
       </c>
       <c r="G330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:7">
+      <c r="H330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>330</v>
       </c>
@@ -14710,14 +15622,17 @@
       <c r="E331" s="1">
         <v>0</v>
       </c>
-      <c r="F331">
+      <c r="F331" s="1">
         <v>0</v>
       </c>
       <c r="G331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:7">
+      <c r="H331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>331</v>
       </c>
@@ -14733,14 +15648,17 @@
       <c r="E332" s="1">
         <v>0</v>
       </c>
-      <c r="F332">
+      <c r="F332" s="1">
         <v>0</v>
       </c>
       <c r="G332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:7">
+      <c r="H332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>332</v>
       </c>
@@ -14756,14 +15674,17 @@
       <c r="E333" s="1">
         <v>0</v>
       </c>
-      <c r="F333">
+      <c r="F333" s="1">
         <v>0</v>
       </c>
       <c r="G333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:7">
+      <c r="H333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>333</v>
       </c>
@@ -14779,14 +15700,17 @@
       <c r="E334" s="1">
         <v>0</v>
       </c>
-      <c r="F334">
+      <c r="F334" s="1">
         <v>0</v>
       </c>
       <c r="G334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:7">
+      <c r="H334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>334</v>
       </c>
@@ -14802,14 +15726,17 @@
       <c r="E335" s="1">
         <v>0</v>
       </c>
-      <c r="F335">
+      <c r="F335" s="1">
         <v>0</v>
       </c>
       <c r="G335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:7">
+      <c r="H335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>335</v>
       </c>
@@ -14825,14 +15752,17 @@
       <c r="E336" s="1">
         <v>0</v>
       </c>
-      <c r="F336">
+      <c r="F336" s="1">
         <v>0</v>
       </c>
       <c r="G336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:7">
+      <c r="H336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>336</v>
       </c>
@@ -14848,14 +15778,17 @@
       <c r="E337" s="1">
         <v>0</v>
       </c>
-      <c r="F337">
+      <c r="F337" s="1">
         <v>0</v>
       </c>
       <c r="G337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:7">
+      <c r="H337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>337</v>
       </c>
@@ -14871,14 +15804,17 @@
       <c r="E338" s="1">
         <v>0</v>
       </c>
-      <c r="F338">
+      <c r="F338" s="1">
         <v>0</v>
       </c>
       <c r="G338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:7">
+      <c r="H338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>338</v>
       </c>
@@ -14894,14 +15830,17 @@
       <c r="E339" s="1">
         <v>0</v>
       </c>
-      <c r="F339">
+      <c r="F339" s="1">
         <v>0</v>
       </c>
       <c r="G339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:7">
+      <c r="H339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>339</v>
       </c>
@@ -14917,14 +15856,17 @@
       <c r="E340" s="1">
         <v>0</v>
       </c>
-      <c r="F340">
+      <c r="F340" s="1">
         <v>0</v>
       </c>
       <c r="G340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:7">
+      <c r="H340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>340</v>
       </c>
@@ -14940,14 +15882,17 @@
       <c r="E341" s="1">
         <v>0</v>
       </c>
-      <c r="F341">
+      <c r="F341" s="1">
         <v>0</v>
       </c>
       <c r="G341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:7">
+      <c r="H341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>341</v>
       </c>
@@ -14963,14 +15908,17 @@
       <c r="E342" s="1">
         <v>0</v>
       </c>
-      <c r="F342">
+      <c r="F342" s="1">
         <v>0</v>
       </c>
       <c r="G342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:7">
+      <c r="H342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>342</v>
       </c>
@@ -14986,14 +15934,17 @@
       <c r="E343" s="1">
         <v>0</v>
       </c>
-      <c r="F343">
+      <c r="F343" s="1">
         <v>0</v>
       </c>
       <c r="G343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:7">
+      <c r="H343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>343</v>
       </c>
@@ -15009,14 +15960,17 @@
       <c r="E344" s="1">
         <v>0</v>
       </c>
-      <c r="F344">
+      <c r="F344" s="1">
         <v>0</v>
       </c>
       <c r="G344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:7">
+      <c r="H344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>344</v>
       </c>
@@ -15032,14 +15986,17 @@
       <c r="E345" s="1">
         <v>0</v>
       </c>
-      <c r="F345">
+      <c r="F345" s="1">
         <v>0</v>
       </c>
       <c r="G345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:7">
+      <c r="H345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>345</v>
       </c>
@@ -15055,14 +16012,17 @@
       <c r="E346" s="1">
         <v>0</v>
       </c>
-      <c r="F346">
+      <c r="F346" s="1">
         <v>0</v>
       </c>
       <c r="G346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:7">
+      <c r="H346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>346</v>
       </c>
@@ -15078,14 +16038,17 @@
       <c r="E347" s="1">
         <v>0</v>
       </c>
-      <c r="F347">
+      <c r="F347" s="1">
         <v>0</v>
       </c>
       <c r="G347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:7">
+      <c r="H347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>347</v>
       </c>
@@ -15101,14 +16064,17 @@
       <c r="E348" s="1">
         <v>0</v>
       </c>
-      <c r="F348">
+      <c r="F348" s="1">
         <v>0</v>
       </c>
       <c r="G348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:7">
+      <c r="H348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>348</v>
       </c>
@@ -15124,14 +16090,17 @@
       <c r="E349" s="1">
         <v>0</v>
       </c>
-      <c r="F349">
+      <c r="F349" s="1">
         <v>0</v>
       </c>
       <c r="G349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:7">
+      <c r="H349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>349</v>
       </c>
@@ -15147,14 +16116,17 @@
       <c r="E350" s="1">
         <v>0</v>
       </c>
-      <c r="F350">
+      <c r="F350" s="1">
         <v>0</v>
       </c>
       <c r="G350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:7">
+      <c r="H350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>350</v>
       </c>
@@ -15170,14 +16142,17 @@
       <c r="E351" s="1">
         <v>0</v>
       </c>
-      <c r="F351">
+      <c r="F351" s="1">
         <v>0</v>
       </c>
       <c r="G351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:7">
+      <c r="H351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>351</v>
       </c>
@@ -15193,14 +16168,17 @@
       <c r="E352" s="1">
         <v>0</v>
       </c>
-      <c r="F352">
+      <c r="F352" s="1">
         <v>0</v>
       </c>
       <c r="G352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:7">
+      <c r="H352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353">
         <v>352</v>
       </c>
@@ -15216,14 +16194,17 @@
       <c r="E353" s="1">
         <v>0</v>
       </c>
-      <c r="F353">
+      <c r="F353" s="1">
         <v>0</v>
       </c>
       <c r="G353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:7">
+      <c r="H353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
       <c r="A354">
         <v>353</v>
       </c>
@@ -15239,14 +16220,17 @@
       <c r="E354" s="1">
         <v>0</v>
       </c>
-      <c r="F354">
+      <c r="F354" s="1">
         <v>0</v>
       </c>
       <c r="G354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:7">
+      <c r="H354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
       <c r="A355">
         <v>354</v>
       </c>
@@ -15262,14 +16246,17 @@
       <c r="E355" s="1">
         <v>0</v>
       </c>
-      <c r="F355">
+      <c r="F355" s="1">
         <v>0</v>
       </c>
       <c r="G355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:7">
+      <c r="H355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
       <c r="A356">
         <v>355</v>
       </c>
@@ -15285,14 +16272,17 @@
       <c r="E356" s="1">
         <v>0</v>
       </c>
-      <c r="F356">
+      <c r="F356" s="1">
         <v>0</v>
       </c>
       <c r="G356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:7">
+      <c r="H356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
       <c r="A357">
         <v>356</v>
       </c>
@@ -15308,14 +16298,17 @@
       <c r="E357" s="1">
         <v>0</v>
       </c>
-      <c r="F357">
+      <c r="F357" s="1">
         <v>0</v>
       </c>
       <c r="G357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:7">
+      <c r="H357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
       <c r="A358">
         <v>357</v>
       </c>
@@ -15331,14 +16324,17 @@
       <c r="E358" s="1">
         <v>0</v>
       </c>
-      <c r="F358">
+      <c r="F358" s="1">
         <v>0</v>
       </c>
       <c r="G358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:7">
+      <c r="H358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
       <c r="A359">
         <v>358</v>
       </c>
@@ -15354,14 +16350,17 @@
       <c r="E359" s="1">
         <v>0</v>
       </c>
-      <c r="F359">
+      <c r="F359" s="1">
         <v>0</v>
       </c>
       <c r="G359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:7">
+      <c r="H359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
       <c r="A360">
         <v>359</v>
       </c>
@@ -15377,14 +16376,17 @@
       <c r="E360" s="1">
         <v>0</v>
       </c>
-      <c r="F360">
+      <c r="F360" s="1">
         <v>0</v>
       </c>
       <c r="G360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:7">
+      <c r="H360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
       <c r="A361">
         <v>360</v>
       </c>
@@ -15400,14 +16402,17 @@
       <c r="E361" s="1">
         <v>0</v>
       </c>
-      <c r="F361">
+      <c r="F361" s="1">
         <v>0</v>
       </c>
       <c r="G361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:7">
+      <c r="H361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
       <c r="A362">
         <v>361</v>
       </c>
@@ -15423,14 +16428,17 @@
       <c r="E362" s="1">
         <v>0</v>
       </c>
-      <c r="F362">
+      <c r="F362" s="1">
         <v>0</v>
       </c>
       <c r="G362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:7">
+      <c r="H362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
       <c r="A363">
         <v>362</v>
       </c>
@@ -15446,14 +16454,17 @@
       <c r="E363" s="1">
         <v>0</v>
       </c>
-      <c r="F363">
+      <c r="F363" s="1">
         <v>0</v>
       </c>
       <c r="G363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:7">
+      <c r="H363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
       <c r="A364">
         <v>363</v>
       </c>
@@ -15469,14 +16480,17 @@
       <c r="E364" s="1">
         <v>0</v>
       </c>
-      <c r="F364">
+      <c r="F364" s="1">
         <v>0</v>
       </c>
       <c r="G364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:7">
+      <c r="H364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
       <c r="A365">
         <v>364</v>
       </c>
@@ -15492,14 +16506,17 @@
       <c r="E365" s="1">
         <v>0</v>
       </c>
-      <c r="F365">
+      <c r="F365" s="1">
         <v>0</v>
       </c>
       <c r="G365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:7">
+      <c r="H365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366">
         <v>365</v>
       </c>
@@ -15515,10 +16532,13 @@
       <c r="E366" s="1">
         <v>0</v>
       </c>
-      <c r="F366">
+      <c r="F366" s="1">
         <v>0</v>
       </c>
       <c r="G366">
+        <v>0</v>
+      </c>
+      <c r="H366">
         <v>0</v>
       </c>
     </row>

--- a/Data/HypotheticalIchthyograph.xlsx
+++ b/Data/HypotheticalIchthyograph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/Artificial Light/LightTempFlow/R Figures/FTL/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395E80A0-0AA8-C54B-A7C7-79C6C3A68A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2651D6-6EC2-4A4F-AC10-CAC9AEAA8951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{FA3264ED-8FAD-984D-BACA-BC2FFFCB3576}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="412">
   <si>
     <t>Discharge</t>
   </si>
@@ -2842,6 +2842,9 @@
   </si>
   <si>
     <t>LifePhase</t>
+  </si>
+  <si>
+    <t>Abundance</t>
   </si>
 </sst>
 </file>
@@ -6887,19 +6890,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5178D8B1-A97D-E240-8E1D-C63AB808993E}">
-  <dimension ref="A1:H366"/>
+  <dimension ref="A1:I366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D350" sqref="D350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -6916,16 +6919,19 @@
         <v>410</v>
       </c>
       <c r="F1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G1" t="s">
         <v>407</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6942,16 +6948,20 @@
         <v>3</v>
       </c>
       <c r="F2" s="9">
-        <v>0</v>
-      </c>
-      <c r="G2">
+        <f>G2+H2+I2</f>
         <v>654</v>
       </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>654</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6968,16 +6978,20 @@
         <v>3</v>
       </c>
       <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3">
+        <f t="shared" ref="F3:F66" si="0">G3+H3+I3</f>
         <v>704</v>
       </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>704</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6994,16 +7008,20 @@
         <v>3</v>
       </c>
       <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4">
+        <f t="shared" si="0"/>
         <v>784</v>
       </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>784</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7020,16 +7038,20 @@
         <v>3</v>
       </c>
       <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5">
+        <f t="shared" si="0"/>
         <v>812</v>
       </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>812</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7046,16 +7068,20 @@
         <v>3</v>
       </c>
       <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6">
+        <f t="shared" si="0"/>
         <v>845</v>
       </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>845</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7072,16 +7098,20 @@
         <v>3</v>
       </c>
       <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7">
+        <f t="shared" si="0"/>
         <v>829</v>
       </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>829</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7098,16 +7128,20 @@
         <v>3</v>
       </c>
       <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8">
+        <f t="shared" si="0"/>
         <v>702</v>
       </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>702</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7124,16 +7158,20 @@
         <v>3</v>
       </c>
       <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+        <f t="shared" si="0"/>
         <v>758</v>
       </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>758</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7150,16 +7188,20 @@
         <v>3</v>
       </c>
       <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10">
+        <f t="shared" si="0"/>
         <v>709</v>
       </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>709</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7176,16 +7218,20 @@
         <v>3</v>
       </c>
       <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11">
+        <f t="shared" si="0"/>
         <v>711</v>
       </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>711</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7202,16 +7248,20 @@
         <v>3</v>
       </c>
       <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12">
+        <f t="shared" si="0"/>
         <v>696</v>
       </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>696</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7228,17 +7278,21 @@
         <v>3</v>
       </c>
       <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f>G12-17</f>
+        <f t="shared" si="0"/>
         <v>679</v>
       </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <f>H12-17</f>
+        <v>679</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7255,17 +7309,21 @@
         <v>3</v>
       </c>
       <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ref="G14:G15" si="0">G13-17</f>
+        <f t="shared" si="0"/>
         <v>662</v>
       </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <f t="shared" ref="H14:H15" si="1">H13-17</f>
+        <v>662</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7282,17 +7340,21 @@
         <v>3</v>
       </c>
       <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15">
         <f t="shared" si="0"/>
         <v>645</v>
       </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <f t="shared" si="1"/>
+        <v>645</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7309,17 +7371,21 @@
         <v>3</v>
       </c>
       <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f>G15-38</f>
+        <f t="shared" si="0"/>
         <v>607</v>
       </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <f>H15-38</f>
+        <v>607</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7336,17 +7402,21 @@
         <v>3</v>
       </c>
       <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ref="G17:G24" si="1">G16-38</f>
+        <f t="shared" si="0"/>
         <v>569</v>
       </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <f t="shared" ref="H17:H24" si="2">H16-38</f>
+        <v>569</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7363,17 +7433,21 @@
         <v>3</v>
       </c>
       <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>531</v>
       </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <f t="shared" si="2"/>
+        <v>531</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7390,17 +7464,21 @@
         <v>3</v>
       </c>
       <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>493</v>
       </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <f t="shared" si="2"/>
+        <v>493</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7417,17 +7495,21 @@
         <v>3</v>
       </c>
       <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>455</v>
       </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <f t="shared" si="2"/>
+        <v>455</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7444,17 +7526,21 @@
         <v>3</v>
       </c>
       <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>417</v>
       </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <f t="shared" si="2"/>
+        <v>417</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7471,17 +7557,21 @@
         <v>3</v>
       </c>
       <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>379</v>
       </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <f t="shared" si="2"/>
+        <v>379</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7498,17 +7588,21 @@
         <v>3</v>
       </c>
       <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>341</v>
       </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <f t="shared" si="2"/>
+        <v>341</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7525,17 +7619,21 @@
         <v>3</v>
       </c>
       <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>303</v>
       </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7552,17 +7650,21 @@
         <v>3</v>
       </c>
       <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <f>G24+14</f>
+        <f t="shared" si="0"/>
         <v>317</v>
       </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <f>H24+14</f>
+        <v>317</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7579,17 +7681,21 @@
         <v>3</v>
       </c>
       <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ref="G26:G29" si="2">G25+14</f>
+        <f t="shared" si="0"/>
         <v>331</v>
       </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
       <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <f t="shared" ref="H26:H29" si="3">H25+14</f>
+        <v>331</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7606,17 +7712,21 @@
         <v>3</v>
       </c>
       <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>345</v>
       </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
       <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <f t="shared" si="3"/>
+        <v>345</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7633,17 +7743,21 @@
         <v>3</v>
       </c>
       <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>359</v>
       </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
       <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <f t="shared" si="3"/>
+        <v>359</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7660,17 +7774,21 @@
         <v>3</v>
       </c>
       <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>373</v>
       </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
       <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <f t="shared" si="3"/>
+        <v>373</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7687,16 +7805,20 @@
         <v>3</v>
       </c>
       <c r="F30" s="9">
-        <v>0</v>
-      </c>
-      <c r="G30">
+        <f t="shared" si="0"/>
         <v>359</v>
       </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
       <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>359</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7713,16 +7835,20 @@
         <v>3</v>
       </c>
       <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31">
+        <f t="shared" si="0"/>
         <v>331</v>
       </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
       <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>331</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7739,17 +7865,21 @@
         <v>3</v>
       </c>
       <c r="F32" s="9">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <f>G31-28</f>
+        <f t="shared" si="0"/>
         <v>303</v>
       </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
       <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <f>H31-28</f>
+        <v>303</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7766,17 +7896,21 @@
         <v>3</v>
       </c>
       <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <f t="shared" ref="G33:G35" si="3">G32-28</f>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
       <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <f t="shared" ref="H33:H35" si="4">H32-28</f>
+        <v>275</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7793,17 +7927,21 @@
         <v>3</v>
       </c>
       <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>247</v>
       </c>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
       <c r="H34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <f t="shared" si="4"/>
+        <v>247</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7820,17 +7958,21 @@
         <v>3</v>
       </c>
       <c r="F35" s="9">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>219</v>
       </c>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
       <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <f t="shared" si="4"/>
+        <v>219</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7847,16 +7989,20 @@
         <v>3</v>
       </c>
       <c r="F36" s="9">
-        <v>0</v>
-      </c>
-      <c r="G36">
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
       <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7873,17 +8019,21 @@
         <v>3</v>
       </c>
       <c r="F37" s="9">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <f>G35-42</f>
+        <f t="shared" si="0"/>
         <v>177</v>
       </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
       <c r="H37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <f>H35-42</f>
+        <v>177</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7900,17 +8050,21 @@
         <v>3</v>
       </c>
       <c r="F38" s="9">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <f t="shared" ref="G38:G40" si="4">G37-42</f>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
       <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <f t="shared" ref="H38:H40" si="5">H37-42</f>
+        <v>135</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7927,17 +8081,21 @@
         <v>3</v>
       </c>
       <c r="F39" s="9">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
       <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7954,17 +8112,21 @@
         <v>3</v>
       </c>
       <c r="F40" s="9">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
       <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7980,17 +8142,18 @@
       <c r="E41" s="1">
         <v>0</v>
       </c>
-      <c r="F41" s="9">
-        <v>0</v>
-      </c>
-      <c r="G41">
+      <c r="F41" s="9"/>
+      <c r="G41" s="9">
         <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8006,17 +8169,18 @@
       <c r="E42" s="1">
         <v>0</v>
       </c>
-      <c r="F42" s="9">
-        <v>0</v>
-      </c>
-      <c r="G42">
+      <c r="F42" s="9"/>
+      <c r="G42" s="9">
         <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8032,17 +8196,18 @@
       <c r="E43" s="1">
         <v>0</v>
       </c>
-      <c r="F43" s="9">
-        <v>0</v>
-      </c>
-      <c r="G43">
+      <c r="F43" s="9"/>
+      <c r="G43" s="9">
         <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8058,17 +8223,18 @@
       <c r="E44" s="1">
         <v>0</v>
       </c>
-      <c r="F44" s="9">
-        <v>0</v>
-      </c>
-      <c r="G44">
+      <c r="F44" s="9"/>
+      <c r="G44" s="9">
         <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8084,17 +8250,18 @@
       <c r="E45" s="1">
         <v>0</v>
       </c>
-      <c r="F45" s="9">
-        <v>0</v>
-      </c>
-      <c r="G45">
+      <c r="F45" s="9"/>
+      <c r="G45" s="9">
         <v>0</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8110,17 +8277,18 @@
       <c r="E46" s="1">
         <v>0</v>
       </c>
-      <c r="F46" s="9">
-        <v>0</v>
-      </c>
-      <c r="G46">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9">
         <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8136,17 +8304,18 @@
       <c r="E47" s="1">
         <v>0</v>
       </c>
-      <c r="F47" s="9">
-        <v>0</v>
-      </c>
-      <c r="G47">
+      <c r="F47" s="9"/>
+      <c r="G47" s="9">
         <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8162,17 +8331,18 @@
       <c r="E48" s="1">
         <v>0</v>
       </c>
-      <c r="F48" s="9">
-        <v>0</v>
-      </c>
-      <c r="G48">
+      <c r="F48" s="9"/>
+      <c r="G48" s="9">
         <v>0</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8188,17 +8358,18 @@
       <c r="E49" s="1">
         <v>0</v>
       </c>
-      <c r="F49" s="9">
-        <v>0</v>
-      </c>
-      <c r="G49">
+      <c r="F49" s="9"/>
+      <c r="G49" s="9">
         <v>0</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8214,17 +8385,18 @@
       <c r="E50" s="1">
         <v>0</v>
       </c>
-      <c r="F50" s="9">
-        <v>0</v>
-      </c>
-      <c r="G50">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9">
         <v>0</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50</v>
       </c>
@@ -8240,17 +8412,18 @@
       <c r="E51" s="1">
         <v>0</v>
       </c>
-      <c r="F51" s="9">
-        <v>0</v>
-      </c>
-      <c r="G51">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9">
         <v>0</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
@@ -8266,17 +8439,18 @@
       <c r="E52" s="1">
         <v>0</v>
       </c>
-      <c r="F52" s="9">
-        <v>0</v>
-      </c>
-      <c r="G52">
+      <c r="F52" s="9"/>
+      <c r="G52" s="9">
         <v>0</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
@@ -8292,17 +8466,18 @@
       <c r="E53" s="1">
         <v>0</v>
       </c>
-      <c r="F53" s="9">
-        <v>0</v>
-      </c>
-      <c r="G53">
+      <c r="F53" s="9"/>
+      <c r="G53" s="9">
         <v>0</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
@@ -8318,17 +8493,18 @@
       <c r="E54" s="1">
         <v>0</v>
       </c>
-      <c r="F54" s="9">
-        <v>0</v>
-      </c>
-      <c r="G54">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9">
         <v>0</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
@@ -8344,17 +8520,18 @@
       <c r="E55" s="1">
         <v>0</v>
       </c>
-      <c r="F55" s="9">
-        <v>0</v>
-      </c>
-      <c r="G55">
+      <c r="F55" s="9"/>
+      <c r="G55" s="9">
         <v>0</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
@@ -8370,17 +8547,18 @@
       <c r="E56" s="1">
         <v>0</v>
       </c>
-      <c r="F56" s="9">
-        <v>0</v>
-      </c>
-      <c r="G56">
+      <c r="F56" s="9"/>
+      <c r="G56" s="9">
         <v>0</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
@@ -8396,17 +8574,18 @@
       <c r="E57" s="1">
         <v>0</v>
       </c>
-      <c r="F57" s="9">
-        <v>0</v>
-      </c>
-      <c r="G57">
+      <c r="F57" s="9"/>
+      <c r="G57" s="9">
         <v>0</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>57</v>
       </c>
@@ -8422,17 +8601,18 @@
       <c r="E58" s="1">
         <v>0</v>
       </c>
-      <c r="F58" s="9">
-        <v>0</v>
-      </c>
-      <c r="G58">
+      <c r="F58" s="9"/>
+      <c r="G58" s="9">
         <v>0</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>58</v>
       </c>
@@ -8448,17 +8628,18 @@
       <c r="E59" s="1">
         <v>0</v>
       </c>
-      <c r="F59" s="9">
-        <v>0</v>
-      </c>
-      <c r="G59">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9">
         <v>0</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8474,17 +8655,18 @@
       <c r="E60" s="1">
         <v>0</v>
       </c>
-      <c r="F60" s="9">
-        <v>0</v>
-      </c>
-      <c r="G60">
+      <c r="F60" s="9"/>
+      <c r="G60" s="9">
         <v>0</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8500,17 +8682,18 @@
       <c r="E61" s="1">
         <v>0</v>
       </c>
-      <c r="F61" s="9">
-        <v>0</v>
-      </c>
-      <c r="G61">
+      <c r="F61" s="9"/>
+      <c r="G61" s="9">
         <v>0</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8526,17 +8709,18 @@
       <c r="E62" s="1">
         <v>0</v>
       </c>
-      <c r="F62" s="9">
-        <v>0</v>
-      </c>
-      <c r="G62">
+      <c r="F62" s="9"/>
+      <c r="G62" s="9">
         <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8552,17 +8736,18 @@
       <c r="E63" s="1">
         <v>0</v>
       </c>
-      <c r="F63" s="9">
-        <v>0</v>
-      </c>
-      <c r="G63">
+      <c r="F63" s="9"/>
+      <c r="G63" s="9">
         <v>0</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8578,17 +8763,18 @@
       <c r="E64" s="1">
         <v>0</v>
       </c>
-      <c r="F64" s="9">
-        <v>0</v>
-      </c>
-      <c r="G64">
+      <c r="F64" s="9"/>
+      <c r="G64" s="9">
         <v>0</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8604,17 +8790,18 @@
       <c r="E65" s="1">
         <v>0</v>
       </c>
-      <c r="F65" s="9">
-        <v>0</v>
-      </c>
-      <c r="G65">
+      <c r="F65" s="9"/>
+      <c r="G65" s="9">
         <v>0</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8630,17 +8817,18 @@
       <c r="E66" s="1">
         <v>0</v>
       </c>
-      <c r="F66" s="9">
-        <v>0</v>
-      </c>
-      <c r="G66">
+      <c r="F66" s="9"/>
+      <c r="G66" s="9">
         <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8656,17 +8844,18 @@
       <c r="E67" s="1">
         <v>0</v>
       </c>
-      <c r="F67" s="9">
-        <v>0</v>
-      </c>
-      <c r="G67">
+      <c r="F67" s="9"/>
+      <c r="G67" s="9">
         <v>0</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8682,17 +8871,18 @@
       <c r="E68" s="1">
         <v>0</v>
       </c>
-      <c r="F68" s="9">
-        <v>0</v>
-      </c>
-      <c r="G68">
+      <c r="F68" s="9"/>
+      <c r="G68" s="9">
         <v>0</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8708,17 +8898,18 @@
       <c r="E69" s="1">
         <v>0</v>
       </c>
-      <c r="F69" s="9">
-        <v>0</v>
-      </c>
-      <c r="G69">
+      <c r="F69" s="9"/>
+      <c r="G69" s="9">
         <v>0</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8734,17 +8925,18 @@
       <c r="E70" s="1">
         <v>0</v>
       </c>
-      <c r="F70" s="9">
-        <v>0</v>
-      </c>
-      <c r="G70">
+      <c r="F70" s="9"/>
+      <c r="G70" s="9">
         <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8760,17 +8952,18 @@
       <c r="E71" s="1">
         <v>0</v>
       </c>
-      <c r="F71" s="9">
-        <v>0</v>
-      </c>
-      <c r="G71">
+      <c r="F71" s="9"/>
+      <c r="G71" s="9">
         <v>0</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8786,17 +8979,18 @@
       <c r="E72" s="1">
         <v>0</v>
       </c>
-      <c r="F72" s="9">
-        <v>0</v>
-      </c>
-      <c r="G72">
+      <c r="F72" s="9"/>
+      <c r="G72" s="9">
         <v>0</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8812,17 +9006,18 @@
       <c r="E73" s="1">
         <v>0</v>
       </c>
-      <c r="F73" s="9">
-        <v>0</v>
-      </c>
-      <c r="G73">
+      <c r="F73" s="9"/>
+      <c r="G73" s="9">
         <v>0</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8838,17 +9033,18 @@
       <c r="E74" s="1">
         <v>0</v>
       </c>
-      <c r="F74" s="9">
-        <v>0</v>
-      </c>
-      <c r="G74">
+      <c r="F74" s="9"/>
+      <c r="G74" s="9">
         <v>0</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8864,17 +9060,18 @@
       <c r="E75" s="1">
         <v>0</v>
       </c>
-      <c r="F75" s="9">
-        <v>0</v>
-      </c>
-      <c r="G75">
+      <c r="F75" s="9"/>
+      <c r="G75" s="9">
         <v>0</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8890,17 +9087,18 @@
       <c r="E76" s="1">
         <v>0</v>
       </c>
-      <c r="F76" s="9">
-        <v>0</v>
-      </c>
-      <c r="G76">
+      <c r="F76" s="9"/>
+      <c r="G76" s="9">
         <v>0</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8916,17 +9114,18 @@
       <c r="E77" s="1">
         <v>0</v>
       </c>
-      <c r="F77" s="9">
-        <v>0</v>
-      </c>
-      <c r="G77">
+      <c r="F77" s="9"/>
+      <c r="G77" s="9">
         <v>0</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8942,17 +9141,18 @@
       <c r="E78" s="1">
         <v>0</v>
       </c>
-      <c r="F78" s="9">
-        <v>0</v>
-      </c>
-      <c r="G78">
+      <c r="F78" s="9"/>
+      <c r="G78" s="9">
         <v>0</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8968,17 +9168,18 @@
       <c r="E79" s="1">
         <v>0</v>
       </c>
-      <c r="F79" s="9">
-        <v>0</v>
-      </c>
-      <c r="G79">
+      <c r="F79" s="9"/>
+      <c r="G79" s="9">
         <v>0</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8994,17 +9195,18 @@
       <c r="E80" s="1">
         <v>0</v>
       </c>
-      <c r="F80" s="9">
-        <v>0</v>
-      </c>
-      <c r="G80">
+      <c r="F80" s="9"/>
+      <c r="G80" s="9">
         <v>0</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9020,17 +9222,18 @@
       <c r="E81" s="1">
         <v>0</v>
       </c>
-      <c r="F81" s="9">
-        <v>0</v>
-      </c>
-      <c r="G81">
+      <c r="F81" s="9"/>
+      <c r="G81" s="9">
         <v>0</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>81</v>
       </c>
@@ -9046,17 +9249,18 @@
       <c r="E82" s="1">
         <v>0</v>
       </c>
-      <c r="F82" s="9">
-        <v>0</v>
-      </c>
-      <c r="G82">
+      <c r="F82" s="9"/>
+      <c r="G82" s="9">
         <v>0</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>82</v>
       </c>
@@ -9072,17 +9276,18 @@
       <c r="E83" s="1">
         <v>0</v>
       </c>
-      <c r="F83" s="9">
-        <v>0</v>
-      </c>
-      <c r="G83">
+      <c r="F83" s="9"/>
+      <c r="G83" s="9">
         <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9098,17 +9303,18 @@
       <c r="E84" s="1">
         <v>0</v>
       </c>
-      <c r="F84" s="9">
-        <v>0</v>
-      </c>
-      <c r="G84">
+      <c r="F84" s="9"/>
+      <c r="G84" s="9">
         <v>0</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9124,17 +9330,18 @@
       <c r="E85" s="1">
         <v>0</v>
       </c>
-      <c r="F85" s="9">
-        <v>0</v>
-      </c>
-      <c r="G85">
+      <c r="F85" s="9"/>
+      <c r="G85" s="9">
         <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9150,17 +9357,18 @@
       <c r="E86" s="1">
         <v>0</v>
       </c>
-      <c r="F86" s="9">
-        <v>0</v>
-      </c>
-      <c r="G86">
+      <c r="F86" s="9"/>
+      <c r="G86" s="9">
         <v>0</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9176,17 +9384,18 @@
       <c r="E87" s="1">
         <v>0</v>
       </c>
-      <c r="F87" s="9">
-        <v>0</v>
-      </c>
-      <c r="G87">
+      <c r="F87" s="9"/>
+      <c r="G87" s="9">
         <v>0</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9202,17 +9411,18 @@
       <c r="E88" s="1">
         <v>0</v>
       </c>
-      <c r="F88" s="9">
-        <v>0</v>
-      </c>
-      <c r="G88">
+      <c r="F88" s="9"/>
+      <c r="G88" s="9">
         <v>0</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9228,17 +9438,18 @@
       <c r="E89" s="1">
         <v>0</v>
       </c>
-      <c r="F89" s="9">
-        <v>0</v>
-      </c>
-      <c r="G89">
+      <c r="F89" s="9"/>
+      <c r="G89" s="9">
         <v>0</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9254,17 +9465,18 @@
       <c r="E90" s="1">
         <v>0</v>
       </c>
-      <c r="F90" s="9">
-        <v>0</v>
-      </c>
-      <c r="G90">
+      <c r="F90" s="9"/>
+      <c r="G90" s="9">
         <v>0</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9280,17 +9492,18 @@
       <c r="E91" s="1">
         <v>0</v>
       </c>
-      <c r="F91" s="9">
-        <v>0</v>
-      </c>
-      <c r="G91">
+      <c r="F91" s="9"/>
+      <c r="G91" s="9">
         <v>0</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9306,17 +9519,18 @@
       <c r="E92" s="1">
         <v>0</v>
       </c>
-      <c r="F92" s="9">
-        <v>0</v>
-      </c>
-      <c r="G92">
+      <c r="F92" s="9"/>
+      <c r="G92" s="9">
         <v>0</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9332,17 +9546,18 @@
       <c r="E93" s="1">
         <v>0</v>
       </c>
-      <c r="F93" s="9">
-        <v>0</v>
-      </c>
-      <c r="G93">
+      <c r="F93" s="9"/>
+      <c r="G93" s="9">
         <v>0</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>93</v>
       </c>
@@ -9358,17 +9573,18 @@
       <c r="E94" s="1">
         <v>0</v>
       </c>
-      <c r="F94" s="9">
-        <v>0</v>
-      </c>
-      <c r="G94">
+      <c r="F94" s="9"/>
+      <c r="G94" s="9">
         <v>0</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>94</v>
       </c>
@@ -9384,17 +9600,18 @@
       <c r="E95" s="1">
         <v>0</v>
       </c>
-      <c r="F95" s="9">
-        <v>0</v>
-      </c>
-      <c r="G95">
+      <c r="F95" s="9"/>
+      <c r="G95" s="9">
         <v>0</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>95</v>
       </c>
@@ -9410,17 +9627,18 @@
       <c r="E96" s="1">
         <v>0</v>
       </c>
-      <c r="F96" s="9">
-        <v>0</v>
-      </c>
-      <c r="G96">
+      <c r="F96" s="9"/>
+      <c r="G96" s="9">
         <v>0</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>96</v>
       </c>
@@ -9436,17 +9654,18 @@
       <c r="E97" s="1">
         <v>0</v>
       </c>
-      <c r="F97" s="9">
-        <v>0</v>
-      </c>
-      <c r="G97">
+      <c r="F97" s="9"/>
+      <c r="G97" s="9">
         <v>0</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>97</v>
       </c>
@@ -9462,17 +9681,18 @@
       <c r="E98" s="1">
         <v>0</v>
       </c>
-      <c r="F98" s="9">
-        <v>0</v>
-      </c>
-      <c r="G98">
+      <c r="F98" s="9"/>
+      <c r="G98" s="9">
         <v>0</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>98</v>
       </c>
@@ -9488,17 +9708,18 @@
       <c r="E99" s="1">
         <v>0</v>
       </c>
-      <c r="F99" s="9">
-        <v>0</v>
-      </c>
-      <c r="G99">
+      <c r="F99" s="9"/>
+      <c r="G99" s="9">
         <v>0</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>99</v>
       </c>
@@ -9514,17 +9735,18 @@
       <c r="E100" s="1">
         <v>0</v>
       </c>
-      <c r="F100" s="9">
-        <v>0</v>
-      </c>
-      <c r="G100">
+      <c r="F100" s="9"/>
+      <c r="G100" s="9">
         <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>100</v>
       </c>
@@ -9540,17 +9762,18 @@
       <c r="E101" s="1">
         <v>0</v>
       </c>
-      <c r="F101" s="9">
-        <v>0</v>
-      </c>
-      <c r="G101">
+      <c r="F101" s="9"/>
+      <c r="G101" s="9">
         <v>0</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>101</v>
       </c>
@@ -9566,17 +9789,18 @@
       <c r="E102" s="1">
         <v>0</v>
       </c>
-      <c r="F102" s="9">
-        <v>0</v>
-      </c>
-      <c r="G102">
+      <c r="F102" s="9"/>
+      <c r="G102" s="9">
         <v>0</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>102</v>
       </c>
@@ -9592,17 +9816,18 @@
       <c r="E103" s="1">
         <v>0</v>
       </c>
-      <c r="F103" s="9">
-        <v>0</v>
-      </c>
-      <c r="G103">
+      <c r="F103" s="9"/>
+      <c r="G103" s="9">
         <v>0</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9618,17 +9843,18 @@
       <c r="E104" s="1">
         <v>0</v>
       </c>
-      <c r="F104" s="9">
-        <v>0</v>
-      </c>
-      <c r="G104">
+      <c r="F104" s="9"/>
+      <c r="G104" s="9">
         <v>0</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>104</v>
       </c>
@@ -9644,17 +9870,18 @@
       <c r="E105" s="1">
         <v>0</v>
       </c>
-      <c r="F105" s="9">
-        <v>0</v>
-      </c>
-      <c r="G105">
+      <c r="F105" s="9"/>
+      <c r="G105" s="9">
         <v>0</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>105</v>
       </c>
@@ -9670,17 +9897,18 @@
       <c r="E106" s="1">
         <v>0</v>
       </c>
-      <c r="F106" s="9">
-        <v>0</v>
-      </c>
-      <c r="G106">
+      <c r="F106" s="9"/>
+      <c r="G106" s="9">
         <v>0</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>106</v>
       </c>
@@ -9696,17 +9924,18 @@
       <c r="E107" s="1">
         <v>0</v>
       </c>
-      <c r="F107" s="9">
-        <v>0</v>
-      </c>
-      <c r="G107">
+      <c r="F107" s="9"/>
+      <c r="G107" s="9">
         <v>0</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>107</v>
       </c>
@@ -9722,17 +9951,18 @@
       <c r="E108" s="1">
         <v>0</v>
       </c>
-      <c r="F108" s="9">
-        <v>0</v>
-      </c>
-      <c r="G108">
+      <c r="F108" s="9"/>
+      <c r="G108" s="9">
         <v>0</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9748,17 +9978,18 @@
       <c r="E109" s="1">
         <v>0</v>
       </c>
-      <c r="F109" s="9">
-        <v>0</v>
-      </c>
-      <c r="G109">
+      <c r="F109" s="9"/>
+      <c r="G109" s="9">
         <v>0</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9774,17 +10005,18 @@
       <c r="E110" s="1">
         <v>0</v>
       </c>
-      <c r="F110" s="9">
-        <v>0</v>
-      </c>
-      <c r="G110">
+      <c r="F110" s="9"/>
+      <c r="G110" s="9">
         <v>0</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9800,17 +10032,18 @@
       <c r="E111" s="1">
         <v>0</v>
       </c>
-      <c r="F111" s="9">
-        <v>0</v>
-      </c>
-      <c r="G111">
+      <c r="F111" s="9"/>
+      <c r="G111" s="9">
         <v>0</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9826,17 +10059,18 @@
       <c r="E112" s="1">
         <v>0</v>
       </c>
-      <c r="F112" s="9">
-        <v>0</v>
-      </c>
-      <c r="G112">
+      <c r="F112" s="9"/>
+      <c r="G112" s="9">
         <v>0</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9852,17 +10086,18 @@
       <c r="E113" s="1">
         <v>0</v>
       </c>
-      <c r="F113" s="9">
-        <v>0</v>
-      </c>
-      <c r="G113">
+      <c r="F113" s="9"/>
+      <c r="G113" s="9">
         <v>0</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9878,17 +10113,18 @@
       <c r="E114" s="1">
         <v>0</v>
       </c>
-      <c r="F114" s="9">
-        <v>0</v>
-      </c>
-      <c r="G114">
+      <c r="F114" s="9"/>
+      <c r="G114" s="9">
         <v>0</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9904,17 +10140,18 @@
       <c r="E115" s="1">
         <v>0</v>
       </c>
-      <c r="F115" s="9">
-        <v>0</v>
-      </c>
-      <c r="G115">
+      <c r="F115" s="9"/>
+      <c r="G115" s="9">
         <v>0</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9930,17 +10167,18 @@
       <c r="E116" s="1">
         <v>0</v>
       </c>
-      <c r="F116" s="9">
-        <v>0</v>
-      </c>
-      <c r="G116">
+      <c r="F116" s="9"/>
+      <c r="G116" s="9">
         <v>0</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9956,17 +10194,18 @@
       <c r="E117" s="1">
         <v>0</v>
       </c>
-      <c r="F117" s="9">
-        <v>0</v>
-      </c>
-      <c r="G117">
+      <c r="F117" s="9"/>
+      <c r="G117" s="9">
         <v>0</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118">
         <v>117</v>
       </c>
@@ -9982,17 +10221,18 @@
       <c r="E118" s="1">
         <v>0</v>
       </c>
-      <c r="F118" s="9">
-        <v>0</v>
-      </c>
-      <c r="G118">
+      <c r="F118" s="9"/>
+      <c r="G118" s="9">
         <v>0</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119">
         <v>118</v>
       </c>
@@ -10008,17 +10248,18 @@
       <c r="E119" s="1">
         <v>0</v>
       </c>
-      <c r="F119" s="9">
-        <v>0</v>
-      </c>
-      <c r="G119">
+      <c r="F119" s="9"/>
+      <c r="G119" s="9">
         <v>0</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120">
         <v>119</v>
       </c>
@@ -10034,17 +10275,18 @@
       <c r="E120" s="1">
         <v>0</v>
       </c>
-      <c r="F120" s="9">
-        <v>0</v>
-      </c>
-      <c r="G120">
+      <c r="F120" s="9"/>
+      <c r="G120" s="9">
         <v>0</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121">
         <v>120</v>
       </c>
@@ -10060,17 +10302,18 @@
       <c r="E121" s="1">
         <v>0</v>
       </c>
-      <c r="F121" s="9">
-        <v>0</v>
-      </c>
-      <c r="G121">
+      <c r="F121" s="9"/>
+      <c r="G121" s="9">
         <v>0</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122">
         <v>121</v>
       </c>
@@ -10086,17 +10329,18 @@
       <c r="E122" s="1">
         <v>0</v>
       </c>
-      <c r="F122" s="9">
-        <v>0</v>
-      </c>
-      <c r="G122">
+      <c r="F122" s="9"/>
+      <c r="G122" s="9">
         <v>0</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123">
         <v>122</v>
       </c>
@@ -10112,17 +10356,18 @@
       <c r="E123" s="1">
         <v>0</v>
       </c>
-      <c r="F123" s="9">
-        <v>0</v>
-      </c>
-      <c r="G123">
+      <c r="F123" s="9"/>
+      <c r="G123" s="9">
         <v>0</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124">
         <v>123</v>
       </c>
@@ -10138,17 +10383,18 @@
       <c r="E124" s="1">
         <v>0</v>
       </c>
-      <c r="F124" s="9">
-        <v>0</v>
-      </c>
-      <c r="G124">
+      <c r="F124" s="9"/>
+      <c r="G124" s="9">
         <v>0</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125">
         <v>124</v>
       </c>
@@ -10164,17 +10410,18 @@
       <c r="E125" s="1">
         <v>0</v>
       </c>
-      <c r="F125" s="9">
-        <v>0</v>
-      </c>
-      <c r="G125">
+      <c r="F125" s="9"/>
+      <c r="G125" s="9">
         <v>0</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126">
         <v>125</v>
       </c>
@@ -10190,17 +10437,18 @@
       <c r="E126" s="1">
         <v>0</v>
       </c>
-      <c r="F126" s="9">
-        <v>0</v>
-      </c>
-      <c r="G126">
+      <c r="F126" s="9"/>
+      <c r="G126" s="9">
         <v>0</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127">
         <v>126</v>
       </c>
@@ -10216,17 +10464,18 @@
       <c r="E127" s="1">
         <v>0</v>
       </c>
-      <c r="F127" s="9">
-        <v>0</v>
-      </c>
-      <c r="G127">
+      <c r="F127" s="9"/>
+      <c r="G127" s="9">
         <v>0</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128">
         <v>127</v>
       </c>
@@ -10242,17 +10491,18 @@
       <c r="E128" s="1">
         <v>0</v>
       </c>
-      <c r="F128" s="9">
-        <v>0</v>
-      </c>
-      <c r="G128">
+      <c r="F128" s="9"/>
+      <c r="G128" s="9">
         <v>0</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129">
         <v>128</v>
       </c>
@@ -10268,17 +10518,18 @@
       <c r="E129" s="1">
         <v>0</v>
       </c>
-      <c r="F129" s="9">
-        <v>0</v>
-      </c>
-      <c r="G129">
+      <c r="F129" s="9"/>
+      <c r="G129" s="9">
         <v>0</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130">
         <v>129</v>
       </c>
@@ -10294,17 +10545,18 @@
       <c r="E130" s="1">
         <v>0</v>
       </c>
-      <c r="F130" s="9">
-        <v>0</v>
-      </c>
-      <c r="G130">
+      <c r="F130" s="9"/>
+      <c r="G130" s="9">
         <v>0</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131">
         <v>130</v>
       </c>
@@ -10320,17 +10572,18 @@
       <c r="E131" s="1">
         <v>0</v>
       </c>
-      <c r="F131" s="9">
-        <v>0</v>
-      </c>
-      <c r="G131">
+      <c r="F131" s="9"/>
+      <c r="G131" s="9">
         <v>0</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132">
         <v>131</v>
       </c>
@@ -10346,17 +10599,18 @@
       <c r="E132" s="1">
         <v>0</v>
       </c>
-      <c r="F132" s="9">
-        <v>0</v>
-      </c>
-      <c r="G132">
+      <c r="F132" s="9"/>
+      <c r="G132" s="9">
         <v>0</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133">
         <v>132</v>
       </c>
@@ -10372,17 +10626,18 @@
       <c r="E133" s="1">
         <v>0</v>
       </c>
-      <c r="F133" s="9">
-        <v>0</v>
-      </c>
-      <c r="G133">
+      <c r="F133" s="9"/>
+      <c r="G133" s="9">
         <v>0</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134">
         <v>133</v>
       </c>
@@ -10398,17 +10653,18 @@
       <c r="E134" s="1">
         <v>0</v>
       </c>
-      <c r="F134" s="9">
-        <v>0</v>
-      </c>
-      <c r="G134">
+      <c r="F134" s="9"/>
+      <c r="G134" s="9">
         <v>0</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135">
         <v>134</v>
       </c>
@@ -10424,17 +10680,18 @@
       <c r="E135" s="1">
         <v>0</v>
       </c>
-      <c r="F135" s="9">
-        <v>0</v>
-      </c>
-      <c r="G135">
+      <c r="F135" s="9"/>
+      <c r="G135" s="9">
         <v>0</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136">
         <v>135</v>
       </c>
@@ -10450,17 +10707,18 @@
       <c r="E136" s="1">
         <v>0</v>
       </c>
-      <c r="F136" s="9">
-        <v>0</v>
-      </c>
-      <c r="G136">
+      <c r="F136" s="9"/>
+      <c r="G136" s="9">
         <v>0</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="I136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137">
         <v>136</v>
       </c>
@@ -10476,17 +10734,18 @@
       <c r="E137" s="1">
         <v>0</v>
       </c>
-      <c r="F137" s="9">
-        <v>0</v>
-      </c>
-      <c r="G137">
+      <c r="F137" s="9"/>
+      <c r="G137" s="9">
         <v>0</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="I137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138">
         <v>137</v>
       </c>
@@ -10502,17 +10761,18 @@
       <c r="E138" s="1">
         <v>0</v>
       </c>
-      <c r="F138" s="9">
-        <v>0</v>
-      </c>
-      <c r="G138">
+      <c r="F138" s="9"/>
+      <c r="G138" s="9">
         <v>0</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="I138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139">
         <v>138</v>
       </c>
@@ -10528,17 +10788,18 @@
       <c r="E139" s="1">
         <v>0</v>
       </c>
-      <c r="F139" s="9">
-        <v>0</v>
-      </c>
-      <c r="G139">
+      <c r="F139" s="9"/>
+      <c r="G139" s="9">
         <v>0</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="I139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140">
         <v>139</v>
       </c>
@@ -10554,17 +10815,18 @@
       <c r="E140" s="1">
         <v>0</v>
       </c>
-      <c r="F140" s="9">
-        <v>0</v>
-      </c>
-      <c r="G140">
+      <c r="F140" s="9"/>
+      <c r="G140" s="9">
         <v>0</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="I140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141">
         <v>140</v>
       </c>
@@ -10580,17 +10842,18 @@
       <c r="E141" s="1">
         <v>0</v>
       </c>
-      <c r="F141" s="9">
-        <v>0</v>
-      </c>
-      <c r="G141">
+      <c r="F141" s="9"/>
+      <c r="G141" s="9">
         <v>0</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142">
         <v>141</v>
       </c>
@@ -10606,17 +10869,18 @@
       <c r="E142" s="1">
         <v>0</v>
       </c>
-      <c r="F142" s="9">
-        <v>0</v>
-      </c>
-      <c r="G142">
+      <c r="F142" s="9"/>
+      <c r="G142" s="9">
         <v>0</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="I142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143">
         <v>142</v>
       </c>
@@ -10632,17 +10896,18 @@
       <c r="E143" s="1">
         <v>0</v>
       </c>
-      <c r="F143" s="9">
-        <v>0</v>
-      </c>
-      <c r="G143">
+      <c r="F143" s="9"/>
+      <c r="G143" s="9">
         <v>0</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="I143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144">
         <v>143</v>
       </c>
@@ -10658,17 +10923,18 @@
       <c r="E144" s="1">
         <v>0</v>
       </c>
-      <c r="F144" s="9">
-        <v>0</v>
-      </c>
-      <c r="G144">
+      <c r="F144" s="9"/>
+      <c r="G144" s="9">
         <v>0</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145">
         <v>144</v>
       </c>
@@ -10684,17 +10950,21 @@
       <c r="E145" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F145" s="9">
+        <f t="shared" ref="F131:F194" si="6">G145+H145+I145</f>
         <v>50</v>
       </c>
-      <c r="G145">
-        <v>0</v>
+      <c r="G145" s="1">
+        <v>50</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146">
         <v>145</v>
       </c>
@@ -10710,18 +10980,22 @@
       <c r="E146" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F146" s="1">
-        <f>(F145+13)-(D146/100)</f>
+      <c r="F146" s="9">
+        <f t="shared" si="6"/>
         <v>62.393000000000001</v>
       </c>
-      <c r="G146">
-        <v>0</v>
+      <c r="G146" s="1">
+        <f>(G145+13)-(D146/100)</f>
+        <v>62.393000000000001</v>
       </c>
       <c r="H146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147">
         <v>146</v>
       </c>
@@ -10737,18 +11011,22 @@
       <c r="E147" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F147" s="1">
-        <f t="shared" ref="F147:F204" si="5">(F146+13)-(D147/100)</f>
+      <c r="F147" s="9">
+        <f t="shared" si="6"/>
         <v>74.882999999999996</v>
       </c>
-      <c r="G147">
-        <v>0</v>
+      <c r="G147" s="1">
+        <f t="shared" ref="G147:G204" si="7">(G146+13)-(D147/100)</f>
+        <v>74.882999999999996</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148">
         <v>147</v>
       </c>
@@ -10764,18 +11042,22 @@
       <c r="E148" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F148" s="1">
-        <f t="shared" si="5"/>
+      <c r="F148" s="9">
+        <f t="shared" si="6"/>
         <v>87.47</v>
       </c>
-      <c r="G148">
-        <v>0</v>
+      <c r="G148" s="1">
+        <f t="shared" si="7"/>
+        <v>87.47</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149">
         <v>148</v>
       </c>
@@ -10791,18 +11073,22 @@
       <c r="E149" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F149" s="1">
-        <f t="shared" si="5"/>
+      <c r="F149" s="9">
+        <f t="shared" si="6"/>
         <v>100.152</v>
       </c>
-      <c r="G149">
-        <v>0</v>
+      <c r="G149" s="1">
+        <f t="shared" si="7"/>
+        <v>100.152</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="I149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150">
         <v>149</v>
       </c>
@@ -10818,18 +11104,22 @@
       <c r="E150" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F150" s="1">
-        <f t="shared" si="5"/>
+      <c r="F150" s="9">
+        <f t="shared" si="6"/>
         <v>112.923</v>
       </c>
-      <c r="G150">
-        <v>0</v>
+      <c r="G150" s="1">
+        <f t="shared" si="7"/>
+        <v>112.923</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="I150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151">
         <v>150</v>
       </c>
@@ -10845,18 +11135,22 @@
       <c r="E151" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F151" s="1">
-        <f t="shared" si="5"/>
+      <c r="F151" s="9">
+        <f t="shared" si="6"/>
         <v>125.774</v>
       </c>
-      <c r="G151">
-        <v>0</v>
+      <c r="G151" s="1">
+        <f t="shared" si="7"/>
+        <v>125.774</v>
       </c>
       <c r="H151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="I151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152">
         <v>151</v>
       </c>
@@ -10872,18 +11166,22 @@
       <c r="E152" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F152" s="1">
-        <f t="shared" si="5"/>
+      <c r="F152" s="9">
+        <f t="shared" si="6"/>
         <v>138.69200000000001</v>
       </c>
-      <c r="G152">
-        <v>0</v>
+      <c r="G152" s="1">
+        <f t="shared" si="7"/>
+        <v>138.69200000000001</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="I152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153">
         <v>152</v>
       </c>
@@ -10899,18 +11197,22 @@
       <c r="E153" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F153" s="1">
-        <f t="shared" si="5"/>
+      <c r="F153" s="9">
+        <f t="shared" si="6"/>
         <v>151.65900000000002</v>
       </c>
-      <c r="G153">
-        <v>0</v>
+      <c r="G153" s="1">
+        <f t="shared" si="7"/>
+        <v>151.65900000000002</v>
       </c>
       <c r="H153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="I153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154">
         <v>153</v>
       </c>
@@ -10926,18 +11228,22 @@
       <c r="E154" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F154" s="1">
-        <f t="shared" si="5"/>
+      <c r="F154" s="9">
+        <f t="shared" si="6"/>
         <v>164.65400000000002</v>
       </c>
-      <c r="G154">
-        <v>0</v>
+      <c r="G154" s="1">
+        <f t="shared" si="7"/>
+        <v>164.65400000000002</v>
       </c>
       <c r="H154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="I154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155">
         <v>154</v>
       </c>
@@ -10953,18 +11259,22 @@
       <c r="E155" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F155" s="1">
-        <f t="shared" si="5"/>
+      <c r="F155" s="9">
+        <f t="shared" si="6"/>
         <v>177.65100000000004</v>
       </c>
-      <c r="G155">
-        <v>0</v>
+      <c r="G155" s="1">
+        <f t="shared" si="7"/>
+        <v>177.65100000000004</v>
       </c>
       <c r="H155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="I155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156">
         <v>155</v>
       </c>
@@ -10980,18 +11290,22 @@
       <c r="E156" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F156" s="1">
-        <f t="shared" si="5"/>
+      <c r="F156" s="9">
+        <f t="shared" si="6"/>
         <v>190.62300000000005</v>
       </c>
-      <c r="G156">
-        <v>0</v>
+      <c r="G156" s="1">
+        <f t="shared" si="7"/>
+        <v>190.62300000000005</v>
       </c>
       <c r="H156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="I156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157">
         <v>156</v>
       </c>
@@ -11007,18 +11321,22 @@
       <c r="E157" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F157" s="1">
-        <f t="shared" si="5"/>
+      <c r="F157" s="9">
+        <f t="shared" si="6"/>
         <v>203.54300000000003</v>
       </c>
-      <c r="G157">
-        <v>0</v>
+      <c r="G157" s="1">
+        <f t="shared" si="7"/>
+        <v>203.54300000000003</v>
       </c>
       <c r="H157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="I157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158">
         <v>157</v>
       </c>
@@ -11034,18 +11352,22 @@
       <c r="E158" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F158" s="1">
-        <f t="shared" si="5"/>
+      <c r="F158" s="9">
+        <f t="shared" si="6"/>
         <v>216.38600000000002</v>
       </c>
-      <c r="G158">
-        <v>0</v>
+      <c r="G158" s="1">
+        <f t="shared" si="7"/>
+        <v>216.38600000000002</v>
       </c>
       <c r="H158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="I158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159">
         <v>158</v>
       </c>
@@ -11061,18 +11383,22 @@
       <c r="E159" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F159" s="1">
-        <f t="shared" si="5"/>
+      <c r="F159" s="9">
+        <f t="shared" si="6"/>
         <v>229.13200000000003</v>
       </c>
-      <c r="G159">
-        <v>0</v>
+      <c r="G159" s="1">
+        <f t="shared" si="7"/>
+        <v>229.13200000000003</v>
       </c>
       <c r="H159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="I159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160">
         <v>159</v>
       </c>
@@ -11088,18 +11414,22 @@
       <c r="E160" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F160" s="1">
-        <f t="shared" si="5"/>
+      <c r="F160" s="9">
+        <f t="shared" si="6"/>
         <v>241.76700000000002</v>
       </c>
-      <c r="G160">
-        <v>0</v>
+      <c r="G160" s="1">
+        <f t="shared" si="7"/>
+        <v>241.76700000000002</v>
       </c>
       <c r="H160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="I160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161">
         <v>160</v>
       </c>
@@ -11115,18 +11445,22 @@
       <c r="E161" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F161" s="1">
-        <f t="shared" si="5"/>
+      <c r="F161" s="9">
+        <f t="shared" si="6"/>
         <v>254.28400000000002</v>
       </c>
-      <c r="G161">
-        <v>0</v>
+      <c r="G161" s="1">
+        <f t="shared" si="7"/>
+        <v>254.28400000000002</v>
       </c>
       <c r="H161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="I161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162">
         <v>161</v>
       </c>
@@ -11142,18 +11476,22 @@
       <c r="E162" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F162" s="1">
-        <f t="shared" si="5"/>
+      <c r="F162" s="9">
+        <f t="shared" si="6"/>
         <v>266.68299999999999</v>
       </c>
-      <c r="G162">
-        <v>0</v>
+      <c r="G162" s="1">
+        <f t="shared" si="7"/>
+        <v>266.68299999999999</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:8">
+      <c r="I162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163">
         <v>162</v>
       </c>
@@ -11169,18 +11507,22 @@
       <c r="E163" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F163" s="1">
-        <f t="shared" si="5"/>
+      <c r="F163" s="9">
+        <f t="shared" si="6"/>
         <v>278.971</v>
       </c>
-      <c r="G163">
-        <v>0</v>
+      <c r="G163" s="1">
+        <f t="shared" si="7"/>
+        <v>278.971</v>
       </c>
       <c r="H163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:8">
+      <c r="I163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164">
         <v>163</v>
       </c>
@@ -11196,18 +11538,22 @@
       <c r="E164" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F164" s="1">
-        <f t="shared" si="5"/>
+      <c r="F164" s="9">
+        <f t="shared" si="6"/>
         <v>291.16000000000003</v>
       </c>
-      <c r="G164">
-        <v>0</v>
+      <c r="G164" s="1">
+        <f t="shared" si="7"/>
+        <v>291.16000000000003</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="I164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165">
         <v>164</v>
       </c>
@@ -11223,18 +11569,22 @@
       <c r="E165" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F165" s="1">
-        <f t="shared" si="5"/>
+      <c r="F165" s="9">
+        <f t="shared" si="6"/>
         <v>303.26900000000001</v>
       </c>
-      <c r="G165">
-        <v>0</v>
+      <c r="G165" s="1">
+        <f t="shared" si="7"/>
+        <v>303.26900000000001</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="I165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166">
         <v>165</v>
       </c>
@@ -11250,18 +11600,22 @@
       <c r="E166" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F166" s="1">
-        <f t="shared" si="5"/>
+      <c r="F166" s="9">
+        <f t="shared" si="6"/>
         <v>315.31799999999998</v>
       </c>
-      <c r="G166">
-        <v>0</v>
+      <c r="G166" s="1">
+        <f t="shared" si="7"/>
+        <v>315.31799999999998</v>
       </c>
       <c r="H166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
+      <c r="I166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167">
         <v>166</v>
       </c>
@@ -11277,18 +11631,22 @@
       <c r="E167" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F167" s="1">
-        <f t="shared" si="5"/>
+      <c r="F167" s="9">
+        <f t="shared" si="6"/>
         <v>327.34499999999997</v>
       </c>
-      <c r="G167">
-        <v>0</v>
+      <c r="G167" s="1">
+        <f t="shared" si="7"/>
+        <v>327.34499999999997</v>
       </c>
       <c r="H167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="I167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168">
         <v>167</v>
       </c>
@@ -11304,18 +11662,22 @@
       <c r="E168" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F168" s="1">
-        <f t="shared" si="5"/>
+      <c r="F168" s="9">
+        <f t="shared" si="6"/>
         <v>339.35799999999995</v>
       </c>
-      <c r="G168">
-        <v>0</v>
+      <c r="G168" s="1">
+        <f t="shared" si="7"/>
+        <v>339.35799999999995</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:8">
+      <c r="I168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169">
         <v>168</v>
       </c>
@@ -11331,18 +11693,22 @@
       <c r="E169" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F169" s="1">
-        <f t="shared" si="5"/>
+      <c r="F169" s="9">
+        <f t="shared" si="6"/>
         <v>351.35799999999995</v>
       </c>
-      <c r="G169">
-        <v>0</v>
+      <c r="G169" s="1">
+        <f t="shared" si="7"/>
+        <v>351.35799999999995</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:8">
+      <c r="I169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170">
         <v>169</v>
       </c>
@@ -11358,18 +11724,22 @@
       <c r="E170" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F170" s="1">
-        <f t="shared" si="5"/>
+      <c r="F170" s="9">
+        <f t="shared" si="6"/>
         <v>363.36899999999997</v>
       </c>
-      <c r="G170">
-        <v>0</v>
+      <c r="G170" s="1">
+        <f t="shared" si="7"/>
+        <v>363.36899999999997</v>
       </c>
       <c r="H170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:8">
+      <c r="I170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171">
         <v>170</v>
       </c>
@@ -11385,18 +11755,22 @@
       <c r="E171" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F171" s="1">
-        <f t="shared" si="5"/>
+      <c r="F171" s="9">
+        <f t="shared" si="6"/>
         <v>375.41199999999998</v>
       </c>
-      <c r="G171">
-        <v>0</v>
+      <c r="G171" s="1">
+        <f t="shared" si="7"/>
+        <v>375.41199999999998</v>
       </c>
       <c r="H171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:8">
+      <c r="I171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172">
         <v>171</v>
       </c>
@@ -11412,18 +11786,22 @@
       <c r="E172" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F172" s="1">
-        <f t="shared" si="5"/>
+      <c r="F172" s="9">
+        <f t="shared" si="6"/>
         <v>387.505</v>
       </c>
-      <c r="G172">
-        <v>0</v>
+      <c r="G172" s="1">
+        <f t="shared" si="7"/>
+        <v>387.505</v>
       </c>
       <c r="H172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="I172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173">
         <v>172</v>
       </c>
@@ -11439,18 +11817,22 @@
       <c r="E173" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F173" s="1">
-        <f t="shared" si="5"/>
+      <c r="F173" s="9">
+        <f t="shared" si="6"/>
         <v>399.66399999999999</v>
       </c>
-      <c r="G173">
-        <v>0</v>
+      <c r="G173" s="1">
+        <f t="shared" si="7"/>
+        <v>399.66399999999999</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="I173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174">
         <v>173</v>
       </c>
@@ -11466,18 +11848,22 @@
       <c r="E174" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F174" s="1">
-        <f t="shared" si="5"/>
+      <c r="F174" s="9">
+        <f t="shared" si="6"/>
         <v>411.90100000000001</v>
       </c>
-      <c r="G174">
-        <v>0</v>
+      <c r="G174" s="1">
+        <f t="shared" si="7"/>
+        <v>411.90100000000001</v>
       </c>
       <c r="H174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="I174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175">
         <v>174</v>
       </c>
@@ -11493,18 +11879,22 @@
       <c r="E175" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F175" s="1">
-        <f t="shared" si="5"/>
+      <c r="F175" s="9">
+        <f t="shared" si="6"/>
         <v>424.226</v>
       </c>
-      <c r="G175">
-        <v>0</v>
+      <c r="G175" s="1">
+        <f t="shared" si="7"/>
+        <v>424.226</v>
       </c>
       <c r="H175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:8">
+      <c r="I175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176">
         <v>175</v>
       </c>
@@ -11520,18 +11910,22 @@
       <c r="E176" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F176" s="1">
-        <f t="shared" si="5"/>
+      <c r="F176" s="9">
+        <f t="shared" si="6"/>
         <v>436.64499999999998</v>
       </c>
-      <c r="G176">
-        <v>0</v>
+      <c r="G176" s="1">
+        <f t="shared" si="7"/>
+        <v>436.64499999999998</v>
       </c>
       <c r="H176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:8">
+      <c r="I176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177">
         <v>176</v>
       </c>
@@ -11547,18 +11941,22 @@
       <c r="E177" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F177" s="1">
-        <f t="shared" si="5"/>
+      <c r="F177" s="9">
+        <f t="shared" si="6"/>
         <v>449.16199999999998</v>
       </c>
-      <c r="G177">
-        <v>0</v>
+      <c r="G177" s="1">
+        <f t="shared" si="7"/>
+        <v>449.16199999999998</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:8">
+      <c r="I177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178">
         <v>177</v>
       </c>
@@ -11574,18 +11972,22 @@
       <c r="E178" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F178" s="1">
-        <f t="shared" si="5"/>
+      <c r="F178" s="9">
+        <f t="shared" si="6"/>
         <v>461.779</v>
       </c>
-      <c r="G178">
-        <v>0</v>
+      <c r="G178" s="1">
+        <f t="shared" si="7"/>
+        <v>461.779</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="I178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179">
         <v>178</v>
       </c>
@@ -11601,18 +12003,22 @@
       <c r="E179" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F179" s="1">
-        <f t="shared" si="5"/>
+      <c r="F179" s="9">
+        <f t="shared" si="6"/>
         <v>474.49200000000002</v>
       </c>
-      <c r="G179">
-        <v>0</v>
+      <c r="G179" s="1">
+        <f t="shared" si="7"/>
+        <v>474.49200000000002</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:8">
+      <c r="I179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180">
         <v>179</v>
       </c>
@@ -11628,18 +12034,22 @@
       <c r="E180" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F180" s="1">
-        <f t="shared" si="5"/>
+      <c r="F180" s="9">
+        <f t="shared" si="6"/>
         <v>487.29599999999999</v>
       </c>
-      <c r="G180">
-        <v>0</v>
+      <c r="G180" s="1">
+        <f t="shared" si="7"/>
+        <v>487.29599999999999</v>
       </c>
       <c r="H180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="I180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181">
         <v>180</v>
       </c>
@@ -11655,18 +12065,22 @@
       <c r="E181" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F181" s="1">
-        <f t="shared" si="5"/>
+      <c r="F181" s="9">
+        <f t="shared" si="6"/>
         <v>500.17899999999997</v>
       </c>
-      <c r="G181">
-        <v>0</v>
+      <c r="G181" s="1">
+        <f t="shared" si="7"/>
+        <v>500.17899999999997</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:8">
+      <c r="I181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182">
         <v>181</v>
       </c>
@@ -11682,18 +12096,22 @@
       <c r="E182" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F182" s="1">
-        <f t="shared" si="5"/>
+      <c r="F182" s="9">
+        <f t="shared" si="6"/>
         <v>513.125</v>
       </c>
-      <c r="G182">
-        <v>0</v>
+      <c r="G182" s="1">
+        <f t="shared" si="7"/>
+        <v>513.125</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="I182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183">
         <v>182</v>
       </c>
@@ -11709,18 +12127,22 @@
       <c r="E183" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F183" s="1">
-        <f t="shared" si="5"/>
+      <c r="F183" s="9">
+        <f t="shared" si="6"/>
         <v>526.11099999999999</v>
       </c>
-      <c r="G183">
-        <v>0</v>
+      <c r="G183" s="1">
+        <f t="shared" si="7"/>
+        <v>526.11099999999999</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:8">
+      <c r="I183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184">
         <v>183</v>
       </c>
@@ -11736,18 +12158,22 @@
       <c r="E184" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F184" s="1">
-        <f t="shared" si="5"/>
+      <c r="F184" s="9">
+        <f t="shared" si="6"/>
         <v>539.11099999999999</v>
       </c>
-      <c r="G184">
-        <v>0</v>
+      <c r="G184" s="1">
+        <f t="shared" si="7"/>
+        <v>539.11099999999999</v>
       </c>
       <c r="H184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:8">
+      <c r="I184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185">
         <v>184</v>
       </c>
@@ -11763,18 +12189,22 @@
       <c r="E185" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F185" s="1">
-        <f t="shared" si="5"/>
+      <c r="F185" s="9">
+        <f t="shared" si="6"/>
         <v>552.09500000000003</v>
       </c>
-      <c r="G185">
-        <v>0</v>
+      <c r="G185" s="1">
+        <f t="shared" si="7"/>
+        <v>552.09500000000003</v>
       </c>
       <c r="H185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:8">
+      <c r="I185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186">
         <v>185</v>
       </c>
@@ -11790,18 +12220,22 @@
       <c r="E186" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F186" s="1">
-        <f t="shared" si="5"/>
+      <c r="F186" s="9">
+        <f t="shared" si="6"/>
         <v>565.03200000000004</v>
       </c>
-      <c r="G186">
-        <v>0</v>
+      <c r="G186" s="1">
+        <f t="shared" si="7"/>
+        <v>565.03200000000004</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:8">
+      <c r="I186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187">
         <v>186</v>
       </c>
@@ -11817,18 +12251,22 @@
       <c r="E187" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F187" s="1">
-        <f t="shared" si="5"/>
+      <c r="F187" s="9">
+        <f t="shared" si="6"/>
         <v>577.8950000000001</v>
       </c>
-      <c r="G187">
-        <v>0</v>
+      <c r="G187" s="1">
+        <f t="shared" si="7"/>
+        <v>577.8950000000001</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:8">
+      <c r="I187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188">
         <v>187</v>
       </c>
@@ -11844,18 +12282,22 @@
       <c r="E188" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F188" s="1">
-        <f t="shared" si="5"/>
+      <c r="F188" s="9">
+        <f t="shared" si="6"/>
         <v>590.66300000000012</v>
       </c>
-      <c r="G188">
-        <v>0</v>
+      <c r="G188" s="1">
+        <f t="shared" si="7"/>
+        <v>590.66300000000012</v>
       </c>
       <c r="H188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="I188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189">
         <v>188</v>
       </c>
@@ -11871,18 +12313,22 @@
       <c r="E189" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F189" s="1">
-        <f t="shared" si="5"/>
+      <c r="F189" s="9">
+        <f t="shared" si="6"/>
         <v>603.32100000000014</v>
       </c>
-      <c r="G189">
-        <v>0</v>
+      <c r="G189" s="1">
+        <f t="shared" si="7"/>
+        <v>603.32100000000014</v>
       </c>
       <c r="H189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="I189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190">
         <v>189</v>
       </c>
@@ -11898,18 +12344,22 @@
       <c r="E190" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F190" s="1">
-        <f t="shared" si="5"/>
+      <c r="F190" s="9">
+        <f t="shared" si="6"/>
         <v>615.86200000000019</v>
       </c>
-      <c r="G190">
-        <v>0</v>
+      <c r="G190" s="1">
+        <f t="shared" si="7"/>
+        <v>615.86200000000019</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="I190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191">
         <v>190</v>
       </c>
@@ -11925,18 +12375,22 @@
       <c r="E191" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F191" s="1">
-        <f t="shared" si="5"/>
+      <c r="F191" s="9">
+        <f t="shared" si="6"/>
         <v>628.28700000000015</v>
       </c>
-      <c r="G191">
-        <v>0</v>
+      <c r="G191" s="1">
+        <f t="shared" si="7"/>
+        <v>628.28700000000015</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:8">
+      <c r="I191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192">
         <v>191</v>
       </c>
@@ -11952,18 +12406,22 @@
       <c r="E192" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F192" s="1">
-        <f t="shared" si="5"/>
+      <c r="F192" s="9">
+        <f t="shared" si="6"/>
         <v>640.6020000000002</v>
       </c>
-      <c r="G192">
-        <v>0</v>
+      <c r="G192" s="1">
+        <f t="shared" si="7"/>
+        <v>640.6020000000002</v>
       </c>
       <c r="H192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:8">
+      <c r="I192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193">
         <v>192</v>
       </c>
@@ -11979,18 +12437,22 @@
       <c r="E193" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F193" s="1">
-        <f t="shared" si="5"/>
+      <c r="F193" s="9">
+        <f t="shared" si="6"/>
         <v>652.81800000000021</v>
       </c>
-      <c r="G193">
-        <v>0</v>
+      <c r="G193" s="1">
+        <f t="shared" si="7"/>
+        <v>652.81800000000021</v>
       </c>
       <c r="H193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:8">
+      <c r="I193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194">
         <v>193</v>
       </c>
@@ -12006,18 +12468,22 @@
       <c r="E194" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F194" s="1">
-        <f t="shared" si="5"/>
+      <c r="F194" s="9">
+        <f t="shared" si="6"/>
         <v>664.95200000000023</v>
       </c>
-      <c r="G194">
-        <v>0</v>
+      <c r="G194" s="1">
+        <f t="shared" si="7"/>
+        <v>664.95200000000023</v>
       </c>
       <c r="H194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:8">
+      <c r="I194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195">
         <v>194</v>
       </c>
@@ -12033,18 +12499,22 @@
       <c r="E195" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F195" s="1">
-        <f t="shared" si="5"/>
+      <c r="F195" s="9">
+        <f t="shared" ref="F195:F258" si="8">G195+H195+I195</f>
         <v>677.02100000000019</v>
       </c>
-      <c r="G195">
-        <v>0</v>
+      <c r="G195" s="1">
+        <f t="shared" si="7"/>
+        <v>677.02100000000019</v>
       </c>
       <c r="H195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:8">
+      <c r="I195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196">
         <v>195</v>
       </c>
@@ -12060,18 +12530,22 @@
       <c r="E196" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F196" s="1">
-        <f t="shared" si="5"/>
+      <c r="F196" s="9">
+        <f t="shared" si="8"/>
         <v>689.04700000000014</v>
       </c>
-      <c r="G196">
-        <v>0</v>
+      <c r="G196" s="1">
+        <f t="shared" si="7"/>
+        <v>689.04700000000014</v>
       </c>
       <c r="H196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:8">
+      <c r="I196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197">
         <v>196</v>
       </c>
@@ -12087,18 +12561,22 @@
       <c r="E197" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F197" s="1">
-        <f t="shared" si="5"/>
+      <c r="F197" s="9">
+        <f t="shared" si="8"/>
         <v>701.06600000000014</v>
       </c>
-      <c r="G197">
-        <v>0</v>
+      <c r="G197" s="1">
+        <f t="shared" si="7"/>
+        <v>701.06600000000014</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:8">
+      <c r="I197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198">
         <v>197</v>
       </c>
@@ -12114,18 +12592,22 @@
       <c r="E198" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F198" s="1">
-        <f t="shared" si="5"/>
+      <c r="F198" s="9">
+        <f t="shared" si="8"/>
         <v>713.06900000000019</v>
       </c>
-      <c r="G198">
-        <v>0</v>
+      <c r="G198" s="1">
+        <f t="shared" si="7"/>
+        <v>713.06900000000019</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:8">
+      <c r="I198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199">
         <v>198</v>
       </c>
@@ -12141,18 +12623,22 @@
       <c r="E199" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F199" s="1">
-        <f t="shared" si="5"/>
+      <c r="F199" s="9">
+        <f t="shared" si="8"/>
         <v>725.07100000000014</v>
       </c>
-      <c r="G199">
-        <v>0</v>
+      <c r="G199" s="1">
+        <f t="shared" si="7"/>
+        <v>725.07100000000014</v>
       </c>
       <c r="H199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:8">
+      <c r="I199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200">
         <v>199</v>
       </c>
@@ -12168,18 +12654,22 @@
       <c r="E200" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F200" s="1">
-        <f t="shared" si="5"/>
+      <c r="F200" s="9">
+        <f t="shared" si="8"/>
         <v>737.0920000000001</v>
       </c>
-      <c r="G200">
-        <v>0</v>
+      <c r="G200" s="1">
+        <f t="shared" si="7"/>
+        <v>737.0920000000001</v>
       </c>
       <c r="H200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:8">
+      <c r="I200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201">
         <v>200</v>
       </c>
@@ -12195,18 +12685,22 @@
       <c r="E201" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F201" s="1">
-        <f t="shared" si="5"/>
+      <c r="F201" s="9">
+        <f t="shared" si="8"/>
         <v>749.15100000000007</v>
       </c>
-      <c r="G201">
-        <v>0</v>
+      <c r="G201" s="1">
+        <f t="shared" si="7"/>
+        <v>749.15100000000007</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:8">
+      <c r="I201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202">
         <v>201</v>
       </c>
@@ -12222,18 +12716,22 @@
       <c r="E202" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F202" s="1">
-        <f t="shared" si="5"/>
+      <c r="F202" s="9">
+        <f t="shared" si="8"/>
         <v>761.26400000000012</v>
       </c>
-      <c r="G202">
-        <v>0</v>
+      <c r="G202" s="1">
+        <f t="shared" si="7"/>
+        <v>761.26400000000012</v>
       </c>
       <c r="H202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:8">
+      <c r="I202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203">
         <v>202</v>
       </c>
@@ -12249,18 +12747,22 @@
       <c r="E203" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F203" s="1">
-        <f t="shared" si="5"/>
+      <c r="F203" s="9">
+        <f t="shared" si="8"/>
         <v>773.44600000000014</v>
       </c>
-      <c r="G203">
-        <v>0</v>
+      <c r="G203" s="1">
+        <f t="shared" si="7"/>
+        <v>773.44600000000014</v>
       </c>
       <c r="H203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:8">
+      <c r="I203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204">
         <v>203</v>
       </c>
@@ -12276,18 +12778,22 @@
       <c r="E204" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F204" s="1">
-        <f t="shared" si="5"/>
+      <c r="F204" s="9">
+        <f t="shared" si="8"/>
         <v>785.70900000000017</v>
       </c>
-      <c r="G204">
-        <v>0</v>
+      <c r="G204" s="1">
+        <f t="shared" si="7"/>
+        <v>785.70900000000017</v>
       </c>
       <c r="H204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:8">
+      <c r="I204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205">
         <v>204</v>
       </c>
@@ -12303,18 +12809,22 @@
       <c r="E205" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F205" s="1">
-        <f>(F204-8)-(D205/100)</f>
+      <c r="F205" s="9">
+        <f t="shared" si="8"/>
         <v>777.06300000000022</v>
       </c>
-      <c r="G205">
-        <v>0</v>
+      <c r="G205" s="1">
+        <f>(G204-8)-(D205/100)</f>
+        <v>777.06300000000022</v>
       </c>
       <c r="H205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:8">
+      <c r="I205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206">
         <v>205</v>
       </c>
@@ -12330,18 +12840,22 @@
       <c r="E206" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F206" s="1">
-        <f t="shared" ref="F206:F208" si="6">(F205-8)-(D206/100)</f>
+      <c r="F206" s="9">
+        <f t="shared" si="8"/>
         <v>768.51400000000024</v>
       </c>
-      <c r="G206">
-        <v>0</v>
+      <c r="G206" s="1">
+        <f t="shared" ref="G206:G208" si="9">(G205-8)-(D206/100)</f>
+        <v>768.51400000000024</v>
       </c>
       <c r="H206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:8">
+      <c r="I206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207">
         <v>206</v>
       </c>
@@ -12357,18 +12871,22 @@
       <c r="E207" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F207" s="1">
-        <f t="shared" si="6"/>
+      <c r="F207" s="9">
+        <f t="shared" si="8"/>
         <v>760.06700000000023</v>
       </c>
-      <c r="G207">
-        <v>0</v>
+      <c r="G207" s="1">
+        <f t="shared" si="9"/>
+        <v>760.06700000000023</v>
       </c>
       <c r="H207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:8">
+      <c r="I207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208">
         <v>207</v>
       </c>
@@ -12384,18 +12902,22 @@
       <c r="E208" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F208" s="1">
-        <f t="shared" si="6"/>
+      <c r="F208" s="9">
+        <f t="shared" si="8"/>
         <v>751.72300000000018</v>
       </c>
-      <c r="G208">
-        <v>0</v>
+      <c r="G208" s="1">
+        <f t="shared" si="9"/>
+        <v>751.72300000000018</v>
       </c>
       <c r="H208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:8">
+      <c r="I208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209">
         <v>208</v>
       </c>
@@ -12411,18 +12933,22 @@
       <c r="E209" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F209" s="1">
-        <f>(F208-18)-(D209/100)</f>
+      <c r="F209" s="9">
+        <f t="shared" si="8"/>
         <v>733.47900000000016</v>
       </c>
-      <c r="G209">
-        <v>0</v>
+      <c r="G209" s="1">
+        <f>(G208-18)-(D209/100)</f>
+        <v>733.47900000000016</v>
       </c>
       <c r="H209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:8">
+      <c r="I209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210">
         <v>209</v>
       </c>
@@ -12438,18 +12964,22 @@
       <c r="E210" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F210" s="1">
-        <f t="shared" ref="F210:F216" si="7">(F209-18)-(D210/100)</f>
+      <c r="F210" s="9">
+        <f t="shared" si="8"/>
         <v>715.32500000000016</v>
       </c>
-      <c r="G210">
-        <v>0</v>
+      <c r="G210" s="1">
+        <f t="shared" ref="G210:G216" si="10">(G209-18)-(D210/100)</f>
+        <v>715.32500000000016</v>
       </c>
       <c r="H210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:8">
+      <c r="I210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211">
         <v>210</v>
       </c>
@@ -12465,18 +12995,22 @@
       <c r="E211" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F211" s="1">
-        <f t="shared" si="7"/>
+      <c r="F211" s="9">
+        <f t="shared" si="8"/>
         <v>697.24600000000021</v>
       </c>
-      <c r="G211">
-        <v>0</v>
+      <c r="G211" s="1">
+        <f t="shared" si="10"/>
+        <v>697.24600000000021</v>
       </c>
       <c r="H211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:8">
+      <c r="I211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212">
         <v>211</v>
       </c>
@@ -12492,18 +13026,22 @@
       <c r="E212" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F212" s="1">
-        <f t="shared" si="7"/>
+      <c r="F212" s="9">
+        <f t="shared" si="8"/>
         <v>679.22000000000025</v>
       </c>
-      <c r="G212">
-        <v>0</v>
+      <c r="G212" s="1">
+        <f t="shared" si="10"/>
+        <v>679.22000000000025</v>
       </c>
       <c r="H212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:8">
+      <c r="I212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213">
         <v>212</v>
       </c>
@@ -12519,18 +13057,22 @@
       <c r="E213" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F213" s="1">
-        <f t="shared" si="7"/>
+      <c r="F213" s="9">
+        <f t="shared" si="8"/>
         <v>661.2180000000003</v>
       </c>
-      <c r="G213">
-        <v>0</v>
+      <c r="G213" s="1">
+        <f t="shared" si="10"/>
+        <v>661.2180000000003</v>
       </c>
       <c r="H213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:8">
+      <c r="I213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214">
         <v>213</v>
       </c>
@@ -12546,18 +13088,22 @@
       <c r="E214" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F214" s="1">
-        <f t="shared" si="7"/>
+      <c r="F214" s="9">
+        <f t="shared" si="8"/>
         <v>643.20900000000029</v>
       </c>
-      <c r="G214">
-        <v>0</v>
+      <c r="G214" s="1">
+        <f t="shared" si="10"/>
+        <v>643.20900000000029</v>
       </c>
       <c r="H214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:8">
+      <c r="I214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215">
         <v>214</v>
       </c>
@@ -12573,18 +13119,22 @@
       <c r="E215" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F215" s="1">
-        <f t="shared" si="7"/>
+      <c r="F215" s="9">
+        <f t="shared" si="8"/>
         <v>625.16000000000031</v>
       </c>
-      <c r="G215">
-        <v>0</v>
+      <c r="G215" s="1">
+        <f t="shared" si="10"/>
+        <v>625.16000000000031</v>
       </c>
       <c r="H215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:8">
+      <c r="I215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216">
         <v>215</v>
       </c>
@@ -12600,18 +13150,22 @@
       <c r="E216" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F216" s="1">
-        <f t="shared" si="7"/>
+      <c r="F216" s="9">
+        <f t="shared" si="8"/>
         <v>607.04300000000035</v>
       </c>
-      <c r="G216">
-        <v>0</v>
+      <c r="G216" s="1">
+        <f t="shared" si="10"/>
+        <v>607.04300000000035</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:8">
+      <c r="I216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217">
         <v>216</v>
       </c>
@@ -12627,18 +13181,22 @@
       <c r="E217" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F217" s="1">
-        <f>(F216-23)-(D217/100)</f>
+      <c r="F217" s="9">
+        <f t="shared" si="8"/>
         <v>583.83500000000038</v>
       </c>
-      <c r="G217">
-        <v>0</v>
+      <c r="G217" s="1">
+        <f>(G216-23)-(D217/100)</f>
+        <v>583.83500000000038</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:8">
+      <c r="I217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218">
         <v>217</v>
       </c>
@@ -12654,18 +13212,22 @@
       <c r="E218" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F218" s="1">
-        <f t="shared" ref="F218:F222" si="8">(F217-23)-(D218/100)</f>
+      <c r="F218" s="9">
+        <f t="shared" si="8"/>
         <v>560.52100000000041</v>
       </c>
-      <c r="G218">
-        <v>0</v>
+      <c r="G218" s="1">
+        <f t="shared" ref="G218:G222" si="11">(G217-23)-(D218/100)</f>
+        <v>560.52100000000041</v>
       </c>
       <c r="H218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:8">
+      <c r="I218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219">
         <v>218</v>
       </c>
@@ -12681,18 +13243,22 @@
       <c r="E219" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F219" s="1">
+      <c r="F219" s="9">
         <f t="shared" si="8"/>
         <v>537.09400000000039</v>
       </c>
-      <c r="G219">
-        <v>0</v>
+      <c r="G219" s="1">
+        <f t="shared" si="11"/>
+        <v>537.09400000000039</v>
       </c>
       <c r="H219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:8">
+      <c r="I219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220">
         <v>219</v>
       </c>
@@ -12708,18 +13274,22 @@
       <c r="E220" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F220" s="1">
+      <c r="F220" s="9">
         <f t="shared" si="8"/>
         <v>513.55300000000034</v>
       </c>
-      <c r="G220">
-        <v>0</v>
+      <c r="G220" s="1">
+        <f t="shared" si="11"/>
+        <v>513.55300000000034</v>
       </c>
       <c r="H220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:8">
+      <c r="I220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221">
         <v>220</v>
       </c>
@@ -12735,18 +13305,22 @@
       <c r="E221" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F221" s="1">
+      <c r="F221" s="9">
         <f t="shared" si="8"/>
         <v>489.90300000000036</v>
       </c>
-      <c r="G221">
-        <v>0</v>
+      <c r="G221" s="1">
+        <f t="shared" si="11"/>
+        <v>489.90300000000036</v>
       </c>
       <c r="H221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:8">
+      <c r="I221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222">
         <v>221</v>
       </c>
@@ -12762,18 +13336,22 @@
       <c r="E222" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F222" s="1">
+      <c r="F222" s="9">
         <f t="shared" si="8"/>
         <v>466.15500000000037</v>
       </c>
-      <c r="G222">
-        <v>0</v>
+      <c r="G222" s="1">
+        <f t="shared" si="11"/>
+        <v>466.15500000000037</v>
       </c>
       <c r="H222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:8">
+      <c r="I222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223">
         <v>222</v>
       </c>
@@ -12789,18 +13367,22 @@
       <c r="E223" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F223" s="1">
-        <f>(F222-35)-(D223/100)</f>
+      <c r="F223" s="9">
+        <f t="shared" si="8"/>
         <v>430.32100000000037</v>
       </c>
-      <c r="G223">
-        <v>0</v>
+      <c r="G223" s="1">
+        <f>(G222-35)-(D223/100)</f>
+        <v>430.32100000000037</v>
       </c>
       <c r="H223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:8">
+      <c r="I223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224">
         <v>223</v>
       </c>
@@ -12816,18 +13398,22 @@
       <c r="E224" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F224" s="1">
-        <f t="shared" ref="F224:F234" si="9">(F223-35)-(D224/100)</f>
+      <c r="F224" s="9">
+        <f t="shared" si="8"/>
         <v>394.41800000000035</v>
       </c>
-      <c r="G224">
-        <v>0</v>
+      <c r="G224" s="1">
+        <f t="shared" ref="G224:G234" si="12">(G223-35)-(D224/100)</f>
+        <v>394.41800000000035</v>
       </c>
       <c r="H224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:8">
+      <c r="I224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225">
         <v>224</v>
       </c>
@@ -12843,18 +13429,22 @@
       <c r="E225" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F225" s="1">
-        <f t="shared" si="9"/>
+      <c r="F225" s="9">
+        <f t="shared" si="8"/>
         <v>358.46400000000034</v>
       </c>
-      <c r="G225">
-        <v>0</v>
+      <c r="G225" s="1">
+        <f t="shared" si="12"/>
+        <v>358.46400000000034</v>
       </c>
       <c r="H225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:8">
+      <c r="I225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226">
         <v>225</v>
       </c>
@@ -12870,18 +13460,22 @@
       <c r="E226" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F226" s="1">
-        <f t="shared" si="9"/>
+      <c r="F226" s="9">
+        <f t="shared" si="8"/>
         <v>322.48800000000034</v>
       </c>
-      <c r="G226">
-        <v>0</v>
+      <c r="G226" s="1">
+        <f t="shared" si="12"/>
+        <v>322.48800000000034</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:8">
+      <c r="I226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227">
         <v>226</v>
       </c>
@@ -12897,18 +13491,22 @@
       <c r="E227" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F227" s="1">
-        <f t="shared" si="9"/>
+      <c r="F227" s="9">
+        <f t="shared" si="8"/>
         <v>286.50200000000035</v>
       </c>
-      <c r="G227">
-        <v>0</v>
+      <c r="G227" s="1">
+        <f t="shared" si="12"/>
+        <v>286.50200000000035</v>
       </c>
       <c r="H227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:8">
+      <c r="I227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228">
         <v>227</v>
       </c>
@@ -12924,18 +13522,22 @@
       <c r="E228" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F228" s="1">
-        <f t="shared" si="9"/>
+      <c r="F228" s="9">
+        <f t="shared" si="8"/>
         <v>250.50300000000036</v>
       </c>
-      <c r="G228">
-        <v>0</v>
+      <c r="G228" s="1">
+        <f t="shared" si="12"/>
+        <v>250.50300000000036</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:8">
+      <c r="I228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229">
         <v>228</v>
       </c>
@@ -12951,18 +13553,22 @@
       <c r="E229" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F229" s="1">
-        <f t="shared" si="9"/>
+      <c r="F229" s="9">
+        <f t="shared" si="8"/>
         <v>214.51100000000037</v>
       </c>
-      <c r="G229">
-        <v>0</v>
+      <c r="G229" s="1">
+        <f t="shared" si="12"/>
+        <v>214.51100000000037</v>
       </c>
       <c r="H229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:8">
+      <c r="I229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230">
         <v>229</v>
       </c>
@@ -12978,18 +13584,22 @@
       <c r="E230" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F230" s="1">
-        <f>(F229-35)-(D230/100)</f>
+      <c r="F230" s="9">
+        <f t="shared" si="8"/>
         <v>178.54400000000035</v>
       </c>
-      <c r="G230">
-        <v>0</v>
+      <c r="G230" s="1">
+        <f>(G229-35)-(D230/100)</f>
+        <v>178.54400000000035</v>
       </c>
       <c r="H230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:8">
+      <c r="I230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231">
         <v>230</v>
       </c>
@@ -13005,18 +13615,22 @@
       <c r="E231" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F231" s="1">
-        <f t="shared" si="9"/>
+      <c r="F231" s="9">
+        <f t="shared" si="8"/>
         <v>142.62000000000035</v>
       </c>
-      <c r="G231">
-        <v>0</v>
+      <c r="G231" s="1">
+        <f t="shared" si="12"/>
+        <v>142.62000000000035</v>
       </c>
       <c r="H231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:8">
+      <c r="I231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232">
         <v>231</v>
       </c>
@@ -13032,18 +13646,22 @@
       <c r="E232" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F232" s="1">
-        <f t="shared" si="9"/>
+      <c r="F232" s="9">
+        <f t="shared" si="8"/>
         <v>106.75500000000035</v>
       </c>
-      <c r="G232">
-        <v>0</v>
+      <c r="G232" s="1">
+        <f t="shared" si="12"/>
+        <v>106.75500000000035</v>
       </c>
       <c r="H232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:8">
+      <c r="I232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233">
         <v>232</v>
       </c>
@@ -13059,18 +13677,22 @@
       <c r="E233" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F233" s="1">
-        <f>(F232-35)-(D233/100)</f>
+      <c r="F233" s="9">
+        <f t="shared" si="8"/>
         <v>70.964000000000354</v>
       </c>
-      <c r="G233">
-        <v>0</v>
+      <c r="G233" s="1">
+        <f>(G232-35)-(D233/100)</f>
+        <v>70.964000000000354</v>
       </c>
       <c r="H233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:8">
+      <c r="I233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234">
         <v>233</v>
       </c>
@@ -13086,18 +13708,22 @@
       <c r="E234" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F234" s="1">
-        <f t="shared" si="9"/>
+      <c r="F234" s="9">
+        <f t="shared" si="8"/>
         <v>35.259000000000356</v>
       </c>
-      <c r="G234">
-        <v>0</v>
+      <c r="G234" s="1">
+        <f t="shared" si="12"/>
+        <v>35.259000000000356</v>
       </c>
       <c r="H234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:8">
+      <c r="I234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235">
         <v>234</v>
       </c>
@@ -13113,17 +13739,21 @@
       <c r="E235" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F235" s="1">
+      <c r="F235" s="9">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="G235">
-        <v>0</v>
+      <c r="G235" s="1">
+        <v>7</v>
       </c>
       <c r="H235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:8">
+      <c r="I235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236">
         <v>235</v>
       </c>
@@ -13139,17 +13769,18 @@
       <c r="E236" s="1">
         <v>0</v>
       </c>
-      <c r="F236" s="1">
-        <v>0</v>
-      </c>
-      <c r="G236">
+      <c r="F236" s="9"/>
+      <c r="G236" s="1">
         <v>0</v>
       </c>
       <c r="H236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:8">
+      <c r="I236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237">
         <v>236</v>
       </c>
@@ -13165,17 +13796,18 @@
       <c r="E237" s="1">
         <v>0</v>
       </c>
-      <c r="F237" s="1">
-        <v>0</v>
-      </c>
-      <c r="G237">
+      <c r="F237" s="9"/>
+      <c r="G237" s="1">
         <v>0</v>
       </c>
       <c r="H237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:8">
+      <c r="I237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238">
         <v>237</v>
       </c>
@@ -13191,17 +13823,18 @@
       <c r="E238" s="1">
         <v>0</v>
       </c>
-      <c r="F238" s="1">
-        <v>0</v>
-      </c>
-      <c r="G238">
+      <c r="F238" s="9"/>
+      <c r="G238" s="1">
         <v>0</v>
       </c>
       <c r="H238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:8">
+      <c r="I238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239">
         <v>238</v>
       </c>
@@ -13217,17 +13850,18 @@
       <c r="E239" s="1">
         <v>0</v>
       </c>
-      <c r="F239" s="1">
-        <v>0</v>
-      </c>
-      <c r="G239">
+      <c r="F239" s="9"/>
+      <c r="G239" s="1">
         <v>0</v>
       </c>
       <c r="H239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:8">
+      <c r="I239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240">
         <v>239</v>
       </c>
@@ -13243,17 +13877,18 @@
       <c r="E240" s="1">
         <v>0</v>
       </c>
-      <c r="F240" s="1">
-        <v>0</v>
-      </c>
-      <c r="G240">
+      <c r="F240" s="9"/>
+      <c r="G240" s="1">
         <v>0</v>
       </c>
       <c r="H240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:8">
+      <c r="I240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241">
         <v>240</v>
       </c>
@@ -13269,17 +13904,18 @@
       <c r="E241" s="1">
         <v>0</v>
       </c>
-      <c r="F241" s="1">
-        <v>0</v>
-      </c>
-      <c r="G241">
+      <c r="F241" s="9"/>
+      <c r="G241" s="1">
         <v>0</v>
       </c>
       <c r="H241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:8">
+      <c r="I241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242">
         <v>241</v>
       </c>
@@ -13295,17 +13931,18 @@
       <c r="E242" s="1">
         <v>0</v>
       </c>
-      <c r="F242" s="1">
-        <v>0</v>
-      </c>
-      <c r="G242">
+      <c r="F242" s="9"/>
+      <c r="G242" s="1">
         <v>0</v>
       </c>
       <c r="H242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:8">
+      <c r="I242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243">
         <v>242</v>
       </c>
@@ -13321,17 +13958,18 @@
       <c r="E243" s="1">
         <v>0</v>
       </c>
-      <c r="F243" s="1">
-        <v>0</v>
-      </c>
-      <c r="G243">
+      <c r="F243" s="9"/>
+      <c r="G243" s="1">
         <v>0</v>
       </c>
       <c r="H243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:8">
+      <c r="I243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244">
         <v>243</v>
       </c>
@@ -13347,17 +13985,18 @@
       <c r="E244" s="1">
         <v>0</v>
       </c>
-      <c r="F244" s="1">
-        <v>0</v>
-      </c>
-      <c r="G244">
+      <c r="F244" s="9"/>
+      <c r="G244" s="1">
         <v>0</v>
       </c>
       <c r="H244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:8">
+      <c r="I244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245">
         <v>244</v>
       </c>
@@ -13373,17 +14012,18 @@
       <c r="E245" s="1">
         <v>0</v>
       </c>
-      <c r="F245" s="1">
-        <v>0</v>
-      </c>
-      <c r="G245">
+      <c r="F245" s="9"/>
+      <c r="G245" s="1">
         <v>0</v>
       </c>
       <c r="H245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:8">
+      <c r="I245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246">
         <v>245</v>
       </c>
@@ -13399,17 +14039,18 @@
       <c r="E246" s="1">
         <v>0</v>
       </c>
-      <c r="F246" s="1">
-        <v>0</v>
-      </c>
-      <c r="G246">
+      <c r="F246" s="9"/>
+      <c r="G246" s="1">
         <v>0</v>
       </c>
       <c r="H246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:8">
+      <c r="I246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247">
         <v>246</v>
       </c>
@@ -13425,17 +14066,18 @@
       <c r="E247" s="1">
         <v>0</v>
       </c>
-      <c r="F247" s="1">
-        <v>0</v>
-      </c>
-      <c r="G247">
+      <c r="F247" s="9"/>
+      <c r="G247" s="1">
         <v>0</v>
       </c>
       <c r="H247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:8">
+      <c r="I247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248">
         <v>247</v>
       </c>
@@ -13451,17 +14093,18 @@
       <c r="E248" s="1">
         <v>0</v>
       </c>
-      <c r="F248" s="1">
-        <v>0</v>
-      </c>
-      <c r="G248">
+      <c r="F248" s="9"/>
+      <c r="G248" s="1">
         <v>0</v>
       </c>
       <c r="H248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:8">
+      <c r="I248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249">
         <v>248</v>
       </c>
@@ -13477,17 +14120,18 @@
       <c r="E249" s="1">
         <v>0</v>
       </c>
-      <c r="F249" s="1">
-        <v>0</v>
-      </c>
-      <c r="G249">
+      <c r="F249" s="9"/>
+      <c r="G249" s="1">
         <v>0</v>
       </c>
       <c r="H249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:8">
+      <c r="I249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250">
         <v>249</v>
       </c>
@@ -13503,17 +14147,18 @@
       <c r="E250" s="1">
         <v>0</v>
       </c>
-      <c r="F250" s="1">
-        <v>0</v>
-      </c>
-      <c r="G250">
+      <c r="F250" s="9"/>
+      <c r="G250" s="1">
         <v>0</v>
       </c>
       <c r="H250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:8">
+      <c r="I250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="A251">
         <v>250</v>
       </c>
@@ -13529,17 +14174,18 @@
       <c r="E251" s="1">
         <v>0</v>
       </c>
-      <c r="F251" s="1">
-        <v>0</v>
-      </c>
-      <c r="G251">
+      <c r="F251" s="9"/>
+      <c r="G251" s="1">
         <v>0</v>
       </c>
       <c r="H251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:8">
+      <c r="I251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252">
         <v>251</v>
       </c>
@@ -13555,17 +14201,18 @@
       <c r="E252" s="1">
         <v>0</v>
       </c>
-      <c r="F252" s="1">
-        <v>0</v>
-      </c>
-      <c r="G252">
+      <c r="F252" s="9"/>
+      <c r="G252" s="1">
         <v>0</v>
       </c>
       <c r="H252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:8">
+      <c r="I252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="A253">
         <v>252</v>
       </c>
@@ -13581,17 +14228,18 @@
       <c r="E253" s="1">
         <v>0</v>
       </c>
-      <c r="F253" s="1">
-        <v>0</v>
-      </c>
-      <c r="G253">
+      <c r="F253" s="9"/>
+      <c r="G253" s="1">
         <v>0</v>
       </c>
       <c r="H253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:8">
+      <c r="I253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="A254">
         <v>253</v>
       </c>
@@ -13607,17 +14255,18 @@
       <c r="E254" s="1">
         <v>0</v>
       </c>
-      <c r="F254" s="1">
-        <v>0</v>
-      </c>
-      <c r="G254">
+      <c r="F254" s="9"/>
+      <c r="G254" s="1">
         <v>0</v>
       </c>
       <c r="H254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:8">
+      <c r="I254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="A255">
         <v>254</v>
       </c>
@@ -13633,17 +14282,18 @@
       <c r="E255" s="1">
         <v>0</v>
       </c>
-      <c r="F255" s="1">
-        <v>0</v>
-      </c>
-      <c r="G255">
+      <c r="F255" s="9"/>
+      <c r="G255" s="1">
         <v>0</v>
       </c>
       <c r="H255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:8">
+      <c r="I255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256">
         <v>255</v>
       </c>
@@ -13659,17 +14309,18 @@
       <c r="E256" s="1">
         <v>0</v>
       </c>
-      <c r="F256" s="1">
-        <v>0</v>
-      </c>
-      <c r="G256">
+      <c r="F256" s="9"/>
+      <c r="G256" s="1">
         <v>0</v>
       </c>
       <c r="H256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:8">
+      <c r="I256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="A257">
         <v>256</v>
       </c>
@@ -13685,17 +14336,18 @@
       <c r="E257" s="1">
         <v>0</v>
       </c>
-      <c r="F257" s="1">
-        <v>0</v>
-      </c>
-      <c r="G257">
+      <c r="F257" s="9"/>
+      <c r="G257" s="1">
         <v>0</v>
       </c>
       <c r="H257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:8">
+      <c r="I257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="A258">
         <v>257</v>
       </c>
@@ -13711,17 +14363,18 @@
       <c r="E258" s="1">
         <v>0</v>
       </c>
-      <c r="F258" s="1">
-        <v>0</v>
-      </c>
-      <c r="G258">
+      <c r="F258" s="9"/>
+      <c r="G258" s="1">
         <v>0</v>
       </c>
       <c r="H258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:8">
+      <c r="I258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="A259">
         <v>258</v>
       </c>
@@ -13737,17 +14390,18 @@
       <c r="E259" s="1">
         <v>0</v>
       </c>
-      <c r="F259" s="1">
-        <v>0</v>
-      </c>
-      <c r="G259">
+      <c r="F259" s="9"/>
+      <c r="G259" s="1">
         <v>0</v>
       </c>
       <c r="H259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:8">
+      <c r="I259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="A260">
         <v>259</v>
       </c>
@@ -13763,17 +14417,18 @@
       <c r="E260" s="1">
         <v>0</v>
       </c>
-      <c r="F260" s="1">
-        <v>0</v>
-      </c>
-      <c r="G260">
+      <c r="F260" s="9"/>
+      <c r="G260" s="1">
         <v>0</v>
       </c>
       <c r="H260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:8">
+      <c r="I260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="A261">
         <v>260</v>
       </c>
@@ -13789,17 +14444,18 @@
       <c r="E261" s="1">
         <v>0</v>
       </c>
-      <c r="F261" s="1">
-        <v>0</v>
-      </c>
-      <c r="G261">
+      <c r="F261" s="9"/>
+      <c r="G261" s="1">
         <v>0</v>
       </c>
       <c r="H261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:8">
+      <c r="I261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="A262">
         <v>261</v>
       </c>
@@ -13815,17 +14471,18 @@
       <c r="E262" s="1">
         <v>0</v>
       </c>
-      <c r="F262" s="1">
-        <v>0</v>
-      </c>
-      <c r="G262">
+      <c r="F262" s="9"/>
+      <c r="G262" s="1">
         <v>0</v>
       </c>
       <c r="H262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:8">
+      <c r="I262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="A263">
         <v>262</v>
       </c>
@@ -13841,17 +14498,18 @@
       <c r="E263" s="1">
         <v>0</v>
       </c>
-      <c r="F263" s="1">
-        <v>0</v>
-      </c>
-      <c r="G263">
+      <c r="F263" s="9"/>
+      <c r="G263" s="1">
         <v>0</v>
       </c>
       <c r="H263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:8">
+      <c r="I263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
       <c r="A264">
         <v>263</v>
       </c>
@@ -13867,17 +14525,18 @@
       <c r="E264" s="1">
         <v>0</v>
       </c>
-      <c r="F264" s="1">
-        <v>0</v>
-      </c>
-      <c r="G264">
+      <c r="F264" s="9"/>
+      <c r="G264" s="1">
         <v>0</v>
       </c>
       <c r="H264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:8">
+      <c r="I264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="A265">
         <v>264</v>
       </c>
@@ -13893,17 +14552,18 @@
       <c r="E265" s="1">
         <v>0</v>
       </c>
-      <c r="F265" s="1">
-        <v>0</v>
-      </c>
-      <c r="G265">
+      <c r="F265" s="9"/>
+      <c r="G265" s="1">
         <v>0</v>
       </c>
       <c r="H265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:8">
+      <c r="I265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="A266">
         <v>265</v>
       </c>
@@ -13919,17 +14579,18 @@
       <c r="E266" s="1">
         <v>0</v>
       </c>
-      <c r="F266" s="1">
-        <v>0</v>
-      </c>
-      <c r="G266">
+      <c r="F266" s="9"/>
+      <c r="G266" s="1">
         <v>0</v>
       </c>
       <c r="H266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:8">
+      <c r="I266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
       <c r="A267">
         <v>266</v>
       </c>
@@ -13945,17 +14606,18 @@
       <c r="E267" s="1">
         <v>0</v>
       </c>
-      <c r="F267" s="1">
-        <v>0</v>
-      </c>
-      <c r="G267">
+      <c r="F267" s="9"/>
+      <c r="G267" s="1">
         <v>0</v>
       </c>
       <c r="H267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:8">
+      <c r="I267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="A268">
         <v>267</v>
       </c>
@@ -13971,17 +14633,18 @@
       <c r="E268" s="1">
         <v>0</v>
       </c>
-      <c r="F268" s="1">
-        <v>0</v>
-      </c>
-      <c r="G268">
+      <c r="F268" s="9"/>
+      <c r="G268" s="1">
         <v>0</v>
       </c>
       <c r="H268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:8">
+      <c r="I268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="A269">
         <v>268</v>
       </c>
@@ -13997,17 +14660,18 @@
       <c r="E269" s="1">
         <v>0</v>
       </c>
-      <c r="F269" s="1">
-        <v>0</v>
-      </c>
-      <c r="G269">
+      <c r="F269" s="9"/>
+      <c r="G269" s="1">
         <v>0</v>
       </c>
       <c r="H269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:8">
+      <c r="I269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
       <c r="A270">
         <v>269</v>
       </c>
@@ -14023,17 +14687,18 @@
       <c r="E270" s="1">
         <v>0</v>
       </c>
-      <c r="F270" s="1">
-        <v>0</v>
-      </c>
-      <c r="G270">
+      <c r="F270" s="9"/>
+      <c r="G270" s="1">
         <v>0</v>
       </c>
       <c r="H270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:8">
+      <c r="I270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="A271">
         <v>270</v>
       </c>
@@ -14049,17 +14714,18 @@
       <c r="E271" s="1">
         <v>0</v>
       </c>
-      <c r="F271" s="1">
-        <v>0</v>
-      </c>
-      <c r="G271">
+      <c r="F271" s="9"/>
+      <c r="G271" s="1">
         <v>0</v>
       </c>
       <c r="H271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:8">
+      <c r="I271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="A272">
         <v>271</v>
       </c>
@@ -14075,17 +14741,18 @@
       <c r="E272" s="1">
         <v>0</v>
       </c>
-      <c r="F272" s="1">
-        <v>0</v>
-      </c>
-      <c r="G272">
+      <c r="F272" s="9"/>
+      <c r="G272" s="1">
         <v>0</v>
       </c>
       <c r="H272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:8">
+      <c r="I272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="A273">
         <v>272</v>
       </c>
@@ -14101,17 +14768,18 @@
       <c r="E273" s="1">
         <v>0</v>
       </c>
-      <c r="F273" s="1">
-        <v>0</v>
-      </c>
-      <c r="G273">
+      <c r="F273" s="9"/>
+      <c r="G273" s="1">
         <v>0</v>
       </c>
       <c r="H273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:8">
+      <c r="I273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
       <c r="A274">
         <v>273</v>
       </c>
@@ -14127,17 +14795,18 @@
       <c r="E274" s="1">
         <v>0</v>
       </c>
-      <c r="F274" s="1">
-        <v>0</v>
-      </c>
-      <c r="G274">
+      <c r="F274" s="9"/>
+      <c r="G274" s="1">
         <v>0</v>
       </c>
       <c r="H274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:8">
+      <c r="I274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="A275">
         <v>274</v>
       </c>
@@ -14153,17 +14822,18 @@
       <c r="E275" s="1">
         <v>0</v>
       </c>
-      <c r="F275" s="1">
-        <v>0</v>
-      </c>
-      <c r="G275">
+      <c r="F275" s="9"/>
+      <c r="G275" s="1">
         <v>0</v>
       </c>
       <c r="H275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:8">
+      <c r="I275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
       <c r="A276">
         <v>275</v>
       </c>
@@ -14179,17 +14849,18 @@
       <c r="E276" s="1">
         <v>0</v>
       </c>
-      <c r="F276" s="1">
-        <v>0</v>
-      </c>
-      <c r="G276">
+      <c r="F276" s="9"/>
+      <c r="G276" s="1">
         <v>0</v>
       </c>
       <c r="H276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:8">
+      <c r="I276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="A277">
         <v>276</v>
       </c>
@@ -14205,17 +14876,18 @@
       <c r="E277" s="1">
         <v>0</v>
       </c>
-      <c r="F277" s="1">
-        <v>0</v>
-      </c>
-      <c r="G277">
+      <c r="F277" s="9"/>
+      <c r="G277" s="1">
         <v>0</v>
       </c>
       <c r="H277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:8">
+      <c r="I277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="A278">
         <v>277</v>
       </c>
@@ -14231,17 +14903,18 @@
       <c r="E278" s="1">
         <v>0</v>
       </c>
-      <c r="F278" s="1">
-        <v>0</v>
-      </c>
-      <c r="G278">
+      <c r="F278" s="9"/>
+      <c r="G278" s="1">
         <v>0</v>
       </c>
       <c r="H278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:8">
+      <c r="I278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
       <c r="A279">
         <v>278</v>
       </c>
@@ -14257,17 +14930,18 @@
       <c r="E279" s="1">
         <v>0</v>
       </c>
-      <c r="F279" s="1">
-        <v>0</v>
-      </c>
-      <c r="G279">
+      <c r="F279" s="9"/>
+      <c r="G279" s="1">
         <v>0</v>
       </c>
       <c r="H279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:8">
+      <c r="I279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="A280">
         <v>279</v>
       </c>
@@ -14283,17 +14957,18 @@
       <c r="E280" s="1">
         <v>0</v>
       </c>
-      <c r="F280" s="1">
-        <v>0</v>
-      </c>
-      <c r="G280">
+      <c r="F280" s="9"/>
+      <c r="G280" s="1">
         <v>0</v>
       </c>
       <c r="H280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:8">
+      <c r="I280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="A281">
         <v>280</v>
       </c>
@@ -14309,17 +14984,18 @@
       <c r="E281" s="1">
         <v>0</v>
       </c>
-      <c r="F281" s="1">
-        <v>0</v>
-      </c>
-      <c r="G281">
+      <c r="F281" s="9"/>
+      <c r="G281" s="1">
         <v>0</v>
       </c>
       <c r="H281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:8">
+      <c r="I281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
       <c r="A282">
         <v>281</v>
       </c>
@@ -14335,17 +15011,18 @@
       <c r="E282" s="1">
         <v>0</v>
       </c>
-      <c r="F282" s="1">
-        <v>0</v>
-      </c>
-      <c r="G282">
+      <c r="F282" s="9"/>
+      <c r="G282" s="1">
         <v>0</v>
       </c>
       <c r="H282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:8">
+      <c r="I282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="A283">
         <v>282</v>
       </c>
@@ -14361,17 +15038,18 @@
       <c r="E283" s="1">
         <v>0</v>
       </c>
-      <c r="F283" s="1">
-        <v>0</v>
-      </c>
-      <c r="G283">
+      <c r="F283" s="9"/>
+      <c r="G283" s="1">
         <v>0</v>
       </c>
       <c r="H283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:8">
+      <c r="I283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="A284">
         <v>283</v>
       </c>
@@ -14387,17 +15065,18 @@
       <c r="E284" s="1">
         <v>0</v>
       </c>
-      <c r="F284" s="1">
-        <v>0</v>
-      </c>
-      <c r="G284">
+      <c r="F284" s="9"/>
+      <c r="G284" s="1">
         <v>0</v>
       </c>
       <c r="H284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:8">
+      <c r="I284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="A285">
         <v>284</v>
       </c>
@@ -14413,17 +15092,18 @@
       <c r="E285" s="1">
         <v>0</v>
       </c>
-      <c r="F285" s="1">
-        <v>0</v>
-      </c>
-      <c r="G285">
+      <c r="F285" s="9"/>
+      <c r="G285" s="1">
         <v>0</v>
       </c>
       <c r="H285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:8">
+      <c r="I285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
       <c r="A286">
         <v>285</v>
       </c>
@@ -14439,17 +15119,18 @@
       <c r="E286" s="1">
         <v>0</v>
       </c>
-      <c r="F286" s="1">
-        <v>0</v>
-      </c>
-      <c r="G286">
+      <c r="F286" s="9"/>
+      <c r="G286" s="1">
         <v>0</v>
       </c>
       <c r="H286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:8">
+      <c r="I286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="A287">
         <v>286</v>
       </c>
@@ -14465,17 +15146,18 @@
       <c r="E287" s="1">
         <v>0</v>
       </c>
-      <c r="F287" s="1">
-        <v>0</v>
-      </c>
-      <c r="G287">
+      <c r="F287" s="9"/>
+      <c r="G287" s="1">
         <v>0</v>
       </c>
       <c r="H287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:8">
+      <c r="I287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
       <c r="A288">
         <v>287</v>
       </c>
@@ -14491,17 +15173,18 @@
       <c r="E288" s="1">
         <v>0</v>
       </c>
-      <c r="F288" s="1">
-        <v>0</v>
-      </c>
-      <c r="G288">
+      <c r="F288" s="9"/>
+      <c r="G288" s="1">
         <v>0</v>
       </c>
       <c r="H288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:8">
+      <c r="I288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
       <c r="A289">
         <v>288</v>
       </c>
@@ -14517,17 +15200,18 @@
       <c r="E289" s="1">
         <v>0</v>
       </c>
-      <c r="F289" s="1">
-        <v>0</v>
-      </c>
-      <c r="G289">
+      <c r="F289" s="9"/>
+      <c r="G289" s="1">
         <v>0</v>
       </c>
       <c r="H289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:8">
+      <c r="I289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="A290">
         <v>289</v>
       </c>
@@ -14543,17 +15227,18 @@
       <c r="E290" s="1">
         <v>0</v>
       </c>
-      <c r="F290" s="1">
-        <v>0</v>
-      </c>
-      <c r="G290">
+      <c r="F290" s="9"/>
+      <c r="G290" s="1">
         <v>0</v>
       </c>
       <c r="H290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:8">
+      <c r="I290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
       <c r="A291">
         <v>290</v>
       </c>
@@ -14569,17 +15254,18 @@
       <c r="E291" s="1">
         <v>0</v>
       </c>
-      <c r="F291" s="1">
-        <v>0</v>
-      </c>
-      <c r="G291">
+      <c r="F291" s="9"/>
+      <c r="G291" s="1">
         <v>0</v>
       </c>
       <c r="H291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:8">
+      <c r="I291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
       <c r="A292">
         <v>291</v>
       </c>
@@ -14595,17 +15281,18 @@
       <c r="E292" s="1">
         <v>0</v>
       </c>
-      <c r="F292" s="1">
-        <v>0</v>
-      </c>
-      <c r="G292">
+      <c r="F292" s="9"/>
+      <c r="G292" s="1">
         <v>0</v>
       </c>
       <c r="H292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:8">
+      <c r="I292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
       <c r="A293">
         <v>292</v>
       </c>
@@ -14621,17 +15308,21 @@
       <c r="E293" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F293" s="1">
-        <v>0</v>
-      </c>
-      <c r="G293">
+      <c r="F293" s="9">
+        <f t="shared" ref="F259:F322" si="13">G293+H293+I293</f>
+        <v>8</v>
+      </c>
+      <c r="G293" s="1">
         <v>0</v>
       </c>
       <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:9">
       <c r="A294">
         <v>293</v>
       </c>
@@ -14647,17 +15338,21 @@
       <c r="E294" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F294" s="1">
-        <v>0</v>
-      </c>
-      <c r="G294">
+      <c r="F294" s="9">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="G294" s="1">
         <v>0</v>
       </c>
       <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294">
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:9">
       <c r="A295">
         <v>294</v>
       </c>
@@ -14673,17 +15368,21 @@
       <c r="E295" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F295" s="1">
-        <v>0</v>
-      </c>
-      <c r="G295">
+      <c r="F295" s="9">
+        <f t="shared" si="13"/>
+        <v>23</v>
+      </c>
+      <c r="G295" s="1">
         <v>0</v>
       </c>
       <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:9">
       <c r="A296">
         <v>295</v>
       </c>
@@ -14699,18 +15398,22 @@
       <c r="E296" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F296" s="1">
-        <v>0</v>
-      </c>
-      <c r="G296">
+      <c r="F296" s="9">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="G296" s="1">
         <v>0</v>
       </c>
       <c r="H296">
-        <f>H295+57</f>
+        <v>0</v>
+      </c>
+      <c r="I296">
+        <f>I295+57</f>
         <v>80</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:9">
       <c r="A297">
         <v>296</v>
       </c>
@@ -14726,18 +15429,22 @@
       <c r="E297" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F297" s="1">
-        <v>0</v>
-      </c>
-      <c r="G297">
+      <c r="F297" s="9">
+        <f t="shared" si="13"/>
+        <v>137</v>
+      </c>
+      <c r="G297" s="1">
         <v>0</v>
       </c>
       <c r="H297">
-        <f t="shared" ref="H297:H299" si="10">H296+57</f>
+        <v>0</v>
+      </c>
+      <c r="I297">
+        <f t="shared" ref="I297:I299" si="14">I296+57</f>
         <v>137</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:9">
       <c r="A298">
         <v>297</v>
       </c>
@@ -14753,18 +15460,22 @@
       <c r="E298" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F298" s="1">
-        <v>0</v>
-      </c>
-      <c r="G298">
+      <c r="F298" s="9">
+        <f t="shared" si="13"/>
+        <v>194</v>
+      </c>
+      <c r="G298" s="1">
         <v>0</v>
       </c>
       <c r="H298">
-        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I298">
+        <f t="shared" si="14"/>
         <v>194</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:9">
       <c r="A299">
         <v>298</v>
       </c>
@@ -14780,18 +15491,22 @@
       <c r="E299" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F299" s="1">
-        <v>0</v>
-      </c>
-      <c r="G299">
+      <c r="F299" s="9">
+        <f t="shared" si="13"/>
+        <v>251</v>
+      </c>
+      <c r="G299" s="1">
         <v>0</v>
       </c>
       <c r="H299">
-        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I299">
+        <f t="shared" si="14"/>
         <v>251</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:9">
       <c r="A300">
         <v>299</v>
       </c>
@@ -14807,18 +15522,22 @@
       <c r="E300" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F300" s="1">
-        <v>0</v>
-      </c>
-      <c r="G300">
+      <c r="F300" s="9">
+        <f t="shared" si="13"/>
+        <v>282</v>
+      </c>
+      <c r="G300" s="1">
         <v>0</v>
       </c>
       <c r="H300">
-        <f>H299+31</f>
+        <v>0</v>
+      </c>
+      <c r="I300">
+        <f>I299+31</f>
         <v>282</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:9">
       <c r="A301">
         <v>300</v>
       </c>
@@ -14834,18 +15553,22 @@
       <c r="E301" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F301" s="1">
-        <v>0</v>
-      </c>
-      <c r="G301">
+      <c r="F301" s="9">
+        <f t="shared" si="13"/>
+        <v>313</v>
+      </c>
+      <c r="G301" s="1">
         <v>0</v>
       </c>
       <c r="H301">
-        <f t="shared" ref="H301" si="11">H300+31</f>
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <f t="shared" ref="I301" si="15">I300+31</f>
         <v>313</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:9">
       <c r="A302">
         <v>301</v>
       </c>
@@ -14861,18 +15584,22 @@
       <c r="E302" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F302" s="1">
-        <v>0</v>
-      </c>
-      <c r="G302">
+      <c r="F302" s="9">
+        <f t="shared" si="13"/>
+        <v>304</v>
+      </c>
+      <c r="G302" s="1">
         <v>0</v>
       </c>
       <c r="H302">
-        <f>H301-9</f>
+        <v>0</v>
+      </c>
+      <c r="I302">
+        <f>I301-9</f>
         <v>304</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:9">
       <c r="A303">
         <v>302</v>
       </c>
@@ -14888,18 +15615,22 @@
       <c r="E303" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F303" s="1">
-        <v>0</v>
-      </c>
-      <c r="G303">
+      <c r="F303" s="9">
+        <f t="shared" si="13"/>
+        <v>295</v>
+      </c>
+      <c r="G303" s="1">
         <v>0</v>
       </c>
       <c r="H303">
-        <f t="shared" ref="H303:H304" si="12">H302-9</f>
+        <v>0</v>
+      </c>
+      <c r="I303">
+        <f t="shared" ref="I303:I304" si="16">I302-9</f>
         <v>295</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:9">
       <c r="A304">
         <v>303</v>
       </c>
@@ -14915,18 +15646,22 @@
       <c r="E304" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F304" s="1">
-        <v>0</v>
-      </c>
-      <c r="G304">
+      <c r="F304" s="9">
+        <f t="shared" si="13"/>
+        <v>286</v>
+      </c>
+      <c r="G304" s="1">
         <v>0</v>
       </c>
       <c r="H304">
-        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I304">
+        <f t="shared" si="16"/>
         <v>286</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:9">
       <c r="A305">
         <v>304</v>
       </c>
@@ -14942,18 +15677,22 @@
       <c r="E305" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F305" s="1">
-        <v>0</v>
-      </c>
-      <c r="G305">
+      <c r="F305" s="9">
+        <f t="shared" si="13"/>
+        <v>224</v>
+      </c>
+      <c r="G305" s="1">
         <v>0</v>
       </c>
       <c r="H305">
-        <f>H304-62</f>
+        <v>0</v>
+      </c>
+      <c r="I305">
+        <f>I304-62</f>
         <v>224</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:9">
       <c r="A306">
         <v>305</v>
       </c>
@@ -14969,18 +15708,22 @@
       <c r="E306" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F306" s="1">
-        <v>0</v>
-      </c>
-      <c r="G306">
+      <c r="F306" s="9">
+        <f t="shared" si="13"/>
+        <v>162</v>
+      </c>
+      <c r="G306" s="1">
         <v>0</v>
       </c>
       <c r="H306">
-        <f>H305-62</f>
+        <v>0</v>
+      </c>
+      <c r="I306">
+        <f>I305-62</f>
         <v>162</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:9">
       <c r="A307">
         <v>306</v>
       </c>
@@ -14996,18 +15739,22 @@
       <c r="E307" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F307" s="1">
-        <v>0</v>
-      </c>
-      <c r="G307">
+      <c r="F307" s="9">
+        <f t="shared" si="13"/>
+        <v>89</v>
+      </c>
+      <c r="G307" s="1">
         <v>0</v>
       </c>
       <c r="H307">
-        <f>H306-73</f>
+        <v>0</v>
+      </c>
+      <c r="I307">
+        <f>I306-73</f>
         <v>89</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:9">
       <c r="A308">
         <v>307</v>
       </c>
@@ -15023,18 +15770,22 @@
       <c r="E308" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F308" s="1">
-        <v>0</v>
-      </c>
-      <c r="G308">
+      <c r="F308" s="9">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="G308" s="1">
         <v>0</v>
       </c>
       <c r="H308">
-        <f t="shared" ref="H308" si="13">H307-73</f>
+        <v>0</v>
+      </c>
+      <c r="I308">
+        <f t="shared" ref="I308" si="17">I307-73</f>
         <v>16</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:9">
       <c r="A309">
         <v>308</v>
       </c>
@@ -15050,17 +15801,21 @@
       <c r="E309" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F309" s="1">
-        <v>0</v>
-      </c>
-      <c r="G309">
+      <c r="F309" s="9">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="G309" s="1">
         <v>0</v>
       </c>
       <c r="H309">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I309">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
       <c r="A310">
         <v>309</v>
       </c>
@@ -15076,17 +15831,18 @@
       <c r="E310" s="1">
         <v>0</v>
       </c>
-      <c r="F310" s="1">
-        <v>0</v>
-      </c>
-      <c r="G310">
+      <c r="F310" s="9"/>
+      <c r="G310" s="1">
         <v>0</v>
       </c>
       <c r="H310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:8">
+      <c r="I310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
       <c r="A311">
         <v>310</v>
       </c>
@@ -15102,17 +15858,18 @@
       <c r="E311" s="1">
         <v>0</v>
       </c>
-      <c r="F311" s="1">
-        <v>0</v>
-      </c>
-      <c r="G311">
+      <c r="F311" s="9"/>
+      <c r="G311" s="1">
         <v>0</v>
       </c>
       <c r="H311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:8">
+      <c r="I311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
       <c r="A312">
         <v>311</v>
       </c>
@@ -15128,17 +15885,18 @@
       <c r="E312" s="1">
         <v>0</v>
       </c>
-      <c r="F312" s="1">
-        <v>0</v>
-      </c>
-      <c r="G312">
+      <c r="F312" s="9"/>
+      <c r="G312" s="1">
         <v>0</v>
       </c>
       <c r="H312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:8">
+      <c r="I312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
       <c r="A313">
         <v>312</v>
       </c>
@@ -15154,17 +15912,18 @@
       <c r="E313" s="1">
         <v>0</v>
       </c>
-      <c r="F313" s="1">
-        <v>0</v>
-      </c>
-      <c r="G313">
+      <c r="F313" s="9"/>
+      <c r="G313" s="1">
         <v>0</v>
       </c>
       <c r="H313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:8">
+      <c r="I313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
       <c r="A314">
         <v>313</v>
       </c>
@@ -15180,17 +15939,18 @@
       <c r="E314" s="1">
         <v>0</v>
       </c>
-      <c r="F314" s="1">
-        <v>0</v>
-      </c>
-      <c r="G314">
+      <c r="F314" s="9"/>
+      <c r="G314" s="1">
         <v>0</v>
       </c>
       <c r="H314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:8">
+      <c r="I314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
       <c r="A315">
         <v>314</v>
       </c>
@@ -15206,17 +15966,18 @@
       <c r="E315" s="1">
         <v>0</v>
       </c>
-      <c r="F315" s="1">
-        <v>0</v>
-      </c>
-      <c r="G315">
+      <c r="F315" s="9"/>
+      <c r="G315" s="1">
         <v>0</v>
       </c>
       <c r="H315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:8">
+      <c r="I315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
       <c r="A316">
         <v>315</v>
       </c>
@@ -15232,17 +15993,18 @@
       <c r="E316" s="1">
         <v>0</v>
       </c>
-      <c r="F316" s="1">
-        <v>0</v>
-      </c>
-      <c r="G316">
+      <c r="F316" s="9"/>
+      <c r="G316" s="1">
         <v>0</v>
       </c>
       <c r="H316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:8">
+      <c r="I316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
       <c r="A317">
         <v>316</v>
       </c>
@@ -15258,17 +16020,18 @@
       <c r="E317" s="1">
         <v>0</v>
       </c>
-      <c r="F317" s="1">
-        <v>0</v>
-      </c>
-      <c r="G317">
+      <c r="F317" s="9"/>
+      <c r="G317" s="1">
         <v>0</v>
       </c>
       <c r="H317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:8">
+      <c r="I317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
       <c r="A318">
         <v>317</v>
       </c>
@@ -15284,17 +16047,18 @@
       <c r="E318" s="1">
         <v>0</v>
       </c>
-      <c r="F318" s="1">
-        <v>0</v>
-      </c>
-      <c r="G318">
+      <c r="F318" s="9"/>
+      <c r="G318" s="1">
         <v>0</v>
       </c>
       <c r="H318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:8">
+      <c r="I318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
       <c r="A319">
         <v>318</v>
       </c>
@@ -15310,17 +16074,18 @@
       <c r="E319" s="1">
         <v>0</v>
       </c>
-      <c r="F319" s="1">
-        <v>0</v>
-      </c>
-      <c r="G319">
+      <c r="F319" s="9"/>
+      <c r="G319" s="1">
         <v>0</v>
       </c>
       <c r="H319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:8">
+      <c r="I319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
       <c r="A320">
         <v>319</v>
       </c>
@@ -15336,17 +16101,18 @@
       <c r="E320" s="1">
         <v>0</v>
       </c>
-      <c r="F320" s="1">
-        <v>0</v>
-      </c>
-      <c r="G320">
+      <c r="F320" s="9"/>
+      <c r="G320" s="1">
         <v>0</v>
       </c>
       <c r="H320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:8">
+      <c r="I320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
       <c r="A321">
         <v>320</v>
       </c>
@@ -15362,17 +16128,18 @@
       <c r="E321" s="1">
         <v>0</v>
       </c>
-      <c r="F321" s="1">
-        <v>0</v>
-      </c>
-      <c r="G321">
+      <c r="F321" s="9"/>
+      <c r="G321" s="1">
         <v>0</v>
       </c>
       <c r="H321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:8">
+      <c r="I321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
       <c r="A322">
         <v>321</v>
       </c>
@@ -15388,17 +16155,18 @@
       <c r="E322" s="1">
         <v>0</v>
       </c>
-      <c r="F322" s="1">
-        <v>0</v>
-      </c>
-      <c r="G322">
+      <c r="F322" s="9"/>
+      <c r="G322" s="1">
         <v>0</v>
       </c>
       <c r="H322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:8">
+      <c r="I322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
       <c r="A323">
         <v>322</v>
       </c>
@@ -15414,17 +16182,18 @@
       <c r="E323" s="1">
         <v>0</v>
       </c>
-      <c r="F323" s="1">
-        <v>0</v>
-      </c>
-      <c r="G323">
+      <c r="F323" s="9"/>
+      <c r="G323" s="1">
         <v>0</v>
       </c>
       <c r="H323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:8">
+      <c r="I323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
       <c r="A324">
         <v>323</v>
       </c>
@@ -15440,17 +16209,18 @@
       <c r="E324" s="1">
         <v>0</v>
       </c>
-      <c r="F324" s="1">
-        <v>0</v>
-      </c>
-      <c r="G324">
+      <c r="F324" s="9"/>
+      <c r="G324" s="1">
         <v>0</v>
       </c>
       <c r="H324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:8">
+      <c r="I324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
       <c r="A325">
         <v>324</v>
       </c>
@@ -15466,17 +16236,18 @@
       <c r="E325" s="1">
         <v>0</v>
       </c>
-      <c r="F325" s="1">
-        <v>0</v>
-      </c>
-      <c r="G325">
+      <c r="F325" s="9"/>
+      <c r="G325" s="1">
         <v>0</v>
       </c>
       <c r="H325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:8">
+      <c r="I325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
       <c r="A326">
         <v>325</v>
       </c>
@@ -15492,17 +16263,18 @@
       <c r="E326" s="1">
         <v>0</v>
       </c>
-      <c r="F326" s="1">
-        <v>0</v>
-      </c>
-      <c r="G326">
+      <c r="F326" s="9"/>
+      <c r="G326" s="1">
         <v>0</v>
       </c>
       <c r="H326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:8">
+      <c r="I326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
       <c r="A327">
         <v>326</v>
       </c>
@@ -15518,17 +16290,18 @@
       <c r="E327" s="1">
         <v>0</v>
       </c>
-      <c r="F327" s="1">
-        <v>0</v>
-      </c>
-      <c r="G327">
+      <c r="F327" s="9"/>
+      <c r="G327" s="1">
         <v>0</v>
       </c>
       <c r="H327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:8">
+      <c r="I327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
       <c r="A328">
         <v>327</v>
       </c>
@@ -15544,17 +16317,18 @@
       <c r="E328" s="1">
         <v>0</v>
       </c>
-      <c r="F328" s="1">
-        <v>0</v>
-      </c>
-      <c r="G328">
+      <c r="F328" s="9"/>
+      <c r="G328" s="1">
         <v>0</v>
       </c>
       <c r="H328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:8">
+      <c r="I328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
       <c r="A329">
         <v>328</v>
       </c>
@@ -15570,17 +16344,18 @@
       <c r="E329" s="1">
         <v>0</v>
       </c>
-      <c r="F329" s="1">
-        <v>0</v>
-      </c>
-      <c r="G329">
+      <c r="F329" s="9"/>
+      <c r="G329" s="1">
         <v>0</v>
       </c>
       <c r="H329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:8">
+      <c r="I329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
       <c r="A330">
         <v>329</v>
       </c>
@@ -15596,17 +16371,18 @@
       <c r="E330" s="1">
         <v>0</v>
       </c>
-      <c r="F330" s="1">
-        <v>0</v>
-      </c>
-      <c r="G330">
+      <c r="F330" s="9"/>
+      <c r="G330" s="1">
         <v>0</v>
       </c>
       <c r="H330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:8">
+      <c r="I330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
       <c r="A331">
         <v>330</v>
       </c>
@@ -15622,17 +16398,18 @@
       <c r="E331" s="1">
         <v>0</v>
       </c>
-      <c r="F331" s="1">
-        <v>0</v>
-      </c>
-      <c r="G331">
+      <c r="F331" s="9"/>
+      <c r="G331" s="1">
         <v>0</v>
       </c>
       <c r="H331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:8">
+      <c r="I331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
       <c r="A332">
         <v>331</v>
       </c>
@@ -15648,17 +16425,18 @@
       <c r="E332" s="1">
         <v>0</v>
       </c>
-      <c r="F332" s="1">
-        <v>0</v>
-      </c>
-      <c r="G332">
+      <c r="F332" s="9"/>
+      <c r="G332" s="1">
         <v>0</v>
       </c>
       <c r="H332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:8">
+      <c r="I332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
       <c r="A333">
         <v>332</v>
       </c>
@@ -15674,17 +16452,18 @@
       <c r="E333" s="1">
         <v>0</v>
       </c>
-      <c r="F333" s="1">
-        <v>0</v>
-      </c>
-      <c r="G333">
+      <c r="F333" s="9"/>
+      <c r="G333" s="1">
         <v>0</v>
       </c>
       <c r="H333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:8">
+      <c r="I333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
       <c r="A334">
         <v>333</v>
       </c>
@@ -15700,17 +16479,18 @@
       <c r="E334" s="1">
         <v>0</v>
       </c>
-      <c r="F334" s="1">
-        <v>0</v>
-      </c>
-      <c r="G334">
+      <c r="F334" s="9"/>
+      <c r="G334" s="1">
         <v>0</v>
       </c>
       <c r="H334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:8">
+      <c r="I334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
       <c r="A335">
         <v>334</v>
       </c>
@@ -15726,17 +16506,18 @@
       <c r="E335" s="1">
         <v>0</v>
       </c>
-      <c r="F335" s="1">
-        <v>0</v>
-      </c>
-      <c r="G335">
+      <c r="F335" s="9"/>
+      <c r="G335" s="1">
         <v>0</v>
       </c>
       <c r="H335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:8">
+      <c r="I335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
       <c r="A336">
         <v>335</v>
       </c>
@@ -15752,17 +16533,18 @@
       <c r="E336" s="1">
         <v>0</v>
       </c>
-      <c r="F336" s="1">
-        <v>0</v>
-      </c>
-      <c r="G336">
+      <c r="F336" s="9"/>
+      <c r="G336" s="1">
         <v>0</v>
       </c>
       <c r="H336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:8">
+      <c r="I336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
       <c r="A337">
         <v>336</v>
       </c>
@@ -15778,17 +16560,18 @@
       <c r="E337" s="1">
         <v>0</v>
       </c>
-      <c r="F337" s="1">
-        <v>0</v>
-      </c>
-      <c r="G337">
+      <c r="F337" s="9"/>
+      <c r="G337" s="1">
         <v>0</v>
       </c>
       <c r="H337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:8">
+      <c r="I337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
       <c r="A338">
         <v>337</v>
       </c>
@@ -15804,17 +16587,18 @@
       <c r="E338" s="1">
         <v>0</v>
       </c>
-      <c r="F338" s="1">
-        <v>0</v>
-      </c>
-      <c r="G338">
+      <c r="F338" s="9"/>
+      <c r="G338" s="1">
         <v>0</v>
       </c>
       <c r="H338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:8">
+      <c r="I338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
       <c r="A339">
         <v>338</v>
       </c>
@@ -15830,17 +16614,18 @@
       <c r="E339" s="1">
         <v>0</v>
       </c>
-      <c r="F339" s="1">
-        <v>0</v>
-      </c>
-      <c r="G339">
+      <c r="F339" s="9"/>
+      <c r="G339" s="1">
         <v>0</v>
       </c>
       <c r="H339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:8">
+      <c r="I339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
       <c r="A340">
         <v>339</v>
       </c>
@@ -15856,17 +16641,18 @@
       <c r="E340" s="1">
         <v>0</v>
       </c>
-      <c r="F340" s="1">
-        <v>0</v>
-      </c>
-      <c r="G340">
+      <c r="F340" s="9"/>
+      <c r="G340" s="1">
         <v>0</v>
       </c>
       <c r="H340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:8">
+      <c r="I340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
       <c r="A341">
         <v>340</v>
       </c>
@@ -15882,17 +16668,18 @@
       <c r="E341" s="1">
         <v>0</v>
       </c>
-      <c r="F341" s="1">
-        <v>0</v>
-      </c>
-      <c r="G341">
+      <c r="F341" s="9"/>
+      <c r="G341" s="1">
         <v>0</v>
       </c>
       <c r="H341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:8">
+      <c r="I341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
       <c r="A342">
         <v>341</v>
       </c>
@@ -15908,17 +16695,18 @@
       <c r="E342" s="1">
         <v>0</v>
       </c>
-      <c r="F342" s="1">
-        <v>0</v>
-      </c>
-      <c r="G342">
+      <c r="F342" s="9"/>
+      <c r="G342" s="1">
         <v>0</v>
       </c>
       <c r="H342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:8">
+      <c r="I342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
       <c r="A343">
         <v>342</v>
       </c>
@@ -15934,17 +16722,18 @@
       <c r="E343" s="1">
         <v>0</v>
       </c>
-      <c r="F343" s="1">
-        <v>0</v>
-      </c>
-      <c r="G343">
+      <c r="F343" s="9"/>
+      <c r="G343" s="1">
         <v>0</v>
       </c>
       <c r="H343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:8">
+      <c r="I343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
       <c r="A344">
         <v>343</v>
       </c>
@@ -15960,17 +16749,18 @@
       <c r="E344" s="1">
         <v>0</v>
       </c>
-      <c r="F344" s="1">
-        <v>0</v>
-      </c>
-      <c r="G344">
+      <c r="F344" s="9"/>
+      <c r="G344" s="1">
         <v>0</v>
       </c>
       <c r="H344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:8">
+      <c r="I344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
       <c r="A345">
         <v>344</v>
       </c>
@@ -15986,17 +16776,18 @@
       <c r="E345" s="1">
         <v>0</v>
       </c>
-      <c r="F345" s="1">
-        <v>0</v>
-      </c>
-      <c r="G345">
+      <c r="F345" s="9"/>
+      <c r="G345" s="1">
         <v>0</v>
       </c>
       <c r="H345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:8">
+      <c r="I345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
       <c r="A346">
         <v>345</v>
       </c>
@@ -16012,17 +16803,18 @@
       <c r="E346" s="1">
         <v>0</v>
       </c>
-      <c r="F346" s="1">
-        <v>0</v>
-      </c>
-      <c r="G346">
+      <c r="F346" s="9"/>
+      <c r="G346" s="1">
         <v>0</v>
       </c>
       <c r="H346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:8">
+      <c r="I346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
       <c r="A347">
         <v>346</v>
       </c>
@@ -16038,17 +16830,18 @@
       <c r="E347" s="1">
         <v>0</v>
       </c>
-      <c r="F347" s="1">
-        <v>0</v>
-      </c>
-      <c r="G347">
+      <c r="F347" s="9"/>
+      <c r="G347" s="1">
         <v>0</v>
       </c>
       <c r="H347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:8">
+      <c r="I347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
       <c r="A348">
         <v>347</v>
       </c>
@@ -16064,17 +16857,18 @@
       <c r="E348" s="1">
         <v>0</v>
       </c>
-      <c r="F348" s="1">
-        <v>0</v>
-      </c>
-      <c r="G348">
+      <c r="F348" s="9"/>
+      <c r="G348" s="1">
         <v>0</v>
       </c>
       <c r="H348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:8">
+      <c r="I348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
       <c r="A349">
         <v>348</v>
       </c>
@@ -16090,17 +16884,18 @@
       <c r="E349" s="1">
         <v>0</v>
       </c>
-      <c r="F349" s="1">
-        <v>0</v>
-      </c>
-      <c r="G349">
+      <c r="F349" s="9"/>
+      <c r="G349" s="1">
         <v>0</v>
       </c>
       <c r="H349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:8">
+      <c r="I349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
       <c r="A350">
         <v>349</v>
       </c>
@@ -16116,17 +16911,18 @@
       <c r="E350" s="1">
         <v>0</v>
       </c>
-      <c r="F350" s="1">
-        <v>0</v>
-      </c>
-      <c r="G350">
+      <c r="F350" s="9"/>
+      <c r="G350" s="1">
         <v>0</v>
       </c>
       <c r="H350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:8">
+      <c r="I350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
       <c r="A351">
         <v>350</v>
       </c>
@@ -16142,17 +16938,18 @@
       <c r="E351" s="1">
         <v>0</v>
       </c>
-      <c r="F351" s="1">
-        <v>0</v>
-      </c>
-      <c r="G351">
+      <c r="F351" s="9"/>
+      <c r="G351" s="1">
         <v>0</v>
       </c>
       <c r="H351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:8">
+      <c r="I351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
       <c r="A352">
         <v>351</v>
       </c>
@@ -16168,17 +16965,18 @@
       <c r="E352" s="1">
         <v>0</v>
       </c>
-      <c r="F352" s="1">
-        <v>0</v>
-      </c>
-      <c r="G352">
+      <c r="F352" s="9"/>
+      <c r="G352" s="1">
         <v>0</v>
       </c>
       <c r="H352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:8">
+      <c r="I352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
       <c r="A353">
         <v>352</v>
       </c>
@@ -16194,17 +16992,18 @@
       <c r="E353" s="1">
         <v>0</v>
       </c>
-      <c r="F353" s="1">
-        <v>0</v>
-      </c>
-      <c r="G353">
+      <c r="F353" s="9"/>
+      <c r="G353" s="1">
         <v>0</v>
       </c>
       <c r="H353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:8">
+      <c r="I353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
       <c r="A354">
         <v>353</v>
       </c>
@@ -16220,17 +17019,18 @@
       <c r="E354" s="1">
         <v>0</v>
       </c>
-      <c r="F354" s="1">
-        <v>0</v>
-      </c>
-      <c r="G354">
+      <c r="F354" s="9"/>
+      <c r="G354" s="1">
         <v>0</v>
       </c>
       <c r="H354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:8">
+      <c r="I354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
       <c r="A355">
         <v>354</v>
       </c>
@@ -16246,17 +17046,18 @@
       <c r="E355" s="1">
         <v>0</v>
       </c>
-      <c r="F355" s="1">
-        <v>0</v>
-      </c>
-      <c r="G355">
+      <c r="F355" s="9"/>
+      <c r="G355" s="1">
         <v>0</v>
       </c>
       <c r="H355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:8">
+      <c r="I355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
       <c r="A356">
         <v>355</v>
       </c>
@@ -16272,17 +17073,18 @@
       <c r="E356" s="1">
         <v>0</v>
       </c>
-      <c r="F356" s="1">
-        <v>0</v>
-      </c>
-      <c r="G356">
+      <c r="F356" s="9"/>
+      <c r="G356" s="1">
         <v>0</v>
       </c>
       <c r="H356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:8">
+      <c r="I356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
       <c r="A357">
         <v>356</v>
       </c>
@@ -16298,17 +17100,18 @@
       <c r="E357" s="1">
         <v>0</v>
       </c>
-      <c r="F357" s="1">
-        <v>0</v>
-      </c>
-      <c r="G357">
+      <c r="F357" s="9"/>
+      <c r="G357" s="1">
         <v>0</v>
       </c>
       <c r="H357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:8">
+      <c r="I357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
       <c r="A358">
         <v>357</v>
       </c>
@@ -16324,17 +17127,18 @@
       <c r="E358" s="1">
         <v>0</v>
       </c>
-      <c r="F358" s="1">
-        <v>0</v>
-      </c>
-      <c r="G358">
+      <c r="F358" s="9"/>
+      <c r="G358" s="1">
         <v>0</v>
       </c>
       <c r="H358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:8">
+      <c r="I358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
       <c r="A359">
         <v>358</v>
       </c>
@@ -16350,17 +17154,18 @@
       <c r="E359" s="1">
         <v>0</v>
       </c>
-      <c r="F359" s="1">
-        <v>0</v>
-      </c>
-      <c r="G359">
+      <c r="F359" s="9"/>
+      <c r="G359" s="1">
         <v>0</v>
       </c>
       <c r="H359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:8">
+      <c r="I359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
       <c r="A360">
         <v>359</v>
       </c>
@@ -16376,17 +17181,18 @@
       <c r="E360" s="1">
         <v>0</v>
       </c>
-      <c r="F360" s="1">
-        <v>0</v>
-      </c>
-      <c r="G360">
+      <c r="F360" s="9"/>
+      <c r="G360" s="1">
         <v>0</v>
       </c>
       <c r="H360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:8">
+      <c r="I360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
       <c r="A361">
         <v>360</v>
       </c>
@@ -16402,17 +17208,18 @@
       <c r="E361" s="1">
         <v>0</v>
       </c>
-      <c r="F361" s="1">
-        <v>0</v>
-      </c>
-      <c r="G361">
+      <c r="F361" s="9"/>
+      <c r="G361" s="1">
         <v>0</v>
       </c>
       <c r="H361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:8">
+      <c r="I361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
       <c r="A362">
         <v>361</v>
       </c>
@@ -16428,17 +17235,18 @@
       <c r="E362" s="1">
         <v>0</v>
       </c>
-      <c r="F362" s="1">
-        <v>0</v>
-      </c>
-      <c r="G362">
+      <c r="F362" s="9"/>
+      <c r="G362" s="1">
         <v>0</v>
       </c>
       <c r="H362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:8">
+      <c r="I362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
       <c r="A363">
         <v>362</v>
       </c>
@@ -16454,17 +17262,18 @@
       <c r="E363" s="1">
         <v>0</v>
       </c>
-      <c r="F363" s="1">
-        <v>0</v>
-      </c>
-      <c r="G363">
+      <c r="F363" s="9"/>
+      <c r="G363" s="1">
         <v>0</v>
       </c>
       <c r="H363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:8">
+      <c r="I363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
       <c r="A364">
         <v>363</v>
       </c>
@@ -16480,17 +17289,18 @@
       <c r="E364" s="1">
         <v>0</v>
       </c>
-      <c r="F364" s="1">
-        <v>0</v>
-      </c>
-      <c r="G364">
+      <c r="F364" s="9"/>
+      <c r="G364" s="1">
         <v>0</v>
       </c>
       <c r="H364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:8">
+      <c r="I364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
       <c r="A365">
         <v>364</v>
       </c>
@@ -16506,17 +17316,18 @@
       <c r="E365" s="1">
         <v>0</v>
       </c>
-      <c r="F365" s="1">
-        <v>0</v>
-      </c>
-      <c r="G365">
+      <c r="F365" s="9"/>
+      <c r="G365" s="1">
         <v>0</v>
       </c>
       <c r="H365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:8">
+      <c r="I365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
       <c r="A366">
         <v>365</v>
       </c>
@@ -16532,13 +17343,14 @@
       <c r="E366" s="1">
         <v>0</v>
       </c>
-      <c r="F366" s="1">
-        <v>0</v>
-      </c>
-      <c r="G366">
+      <c r="F366" s="9"/>
+      <c r="G366" s="1">
         <v>0</v>
       </c>
       <c r="H366">
+        <v>0</v>
+      </c>
+      <c r="I366">
         <v>0</v>
       </c>
     </row>
